--- a/conv-example.xlsx
+++ b/conv-example.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Input (28 x 28)</t>
   </si>
   <si>
-    <t xml:space="preserve">Conv1 (27 x 27)</t>
+    <t xml:space="preserve">Conv1 (26 x 26)</t>
   </si>
   <si>
     <t xml:space="preserve">Conv2 (26 x 26) - before dropout</t>
@@ -340,13 +340,15 @@
   </sheetPr>
   <dimension ref="A1:IK65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="IG37" activeCellId="0" sqref="IG37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC35" activeCellId="0" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="96" min="1" style="0" width="2.78542510121457"/>
+    <col collapsed="false" hidden="false" max="33" min="1" style="0" width="2.78542510121457"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.46153846153846"/>
+    <col collapsed="false" hidden="false" max="96" min="35" style="0" width="2.78542510121457"/>
     <col collapsed="false" hidden="true" max="126" min="97" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="127" min="127" style="0" width="2.78542510121457"/>
     <col collapsed="false" hidden="true" max="157" min="128" style="0" width="0"/>
@@ -1241,103 +1243,103 @@
       <c r="CT4" s="5"/>
       <c r="CU4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.833666727837287</v>
+        <v>0.296037327881529</v>
       </c>
       <c r="CV4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.394985680674931</v>
+        <v>0.862092542706245</v>
       </c>
       <c r="CW4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.76137147009814</v>
+        <v>0.466895779478478</v>
       </c>
       <c r="CX4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.235655391267085</v>
+        <v>0.402108388771084</v>
       </c>
       <c r="CY4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.716927759108543</v>
+        <v>0.0911361734784986</v>
       </c>
       <c r="CZ4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.176242426100905</v>
+        <v>0.936139771362742</v>
       </c>
       <c r="DA4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.676740774008683</v>
+        <v>0.260418376488986</v>
       </c>
       <c r="DB4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.458483945261758</v>
+        <v>0.796582222221045</v>
       </c>
       <c r="DC4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.317419482295116</v>
+        <v>0.511885529210945</v>
       </c>
       <c r="DD4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.274817414395064</v>
+        <v>0.805971600518052</v>
       </c>
       <c r="DE4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.222120782601969</v>
+        <v>0.798860513622088</v>
       </c>
       <c r="DF4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.367165204376849</v>
+        <v>0.213573890158177</v>
       </c>
       <c r="DG4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.81972486482874</v>
+        <v>0.261924585647894</v>
       </c>
       <c r="DH4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.723428653375149</v>
+        <v>0.517345349534801</v>
       </c>
       <c r="DI4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.296096686392297</v>
+        <v>0.364573817966014</v>
       </c>
       <c r="DJ4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.807328505845904</v>
+        <v>0.817659379641082</v>
       </c>
       <c r="DK4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.644632902823676</v>
+        <v>0.164001135765242</v>
       </c>
       <c r="DL4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.160763242443321</v>
+        <v>0.412112209745402</v>
       </c>
       <c r="DM4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.504643791197436</v>
+        <v>0.64249189914268</v>
       </c>
       <c r="DN4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.235063230289761</v>
+        <v>0.324923564969533</v>
       </c>
       <c r="DO4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.757812294141788</v>
+        <v>0.938318754906012</v>
       </c>
       <c r="DP4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.976068211896382</v>
+        <v>0.664668214293876</v>
       </c>
       <c r="DQ4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.437936873990447</v>
+        <v>0.585735934682104</v>
       </c>
       <c r="DR4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.793109446307859</v>
+        <v>0.965098036691108</v>
       </c>
       <c r="DS4" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.696807610738515</v>
+        <v>0.266357765899876</v>
       </c>
       <c r="DT4" s="5"/>
       <c r="DU4" s="5"/>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="EE4" s="0" t="n">
         <f aca="false">IF(CZ4&gt;($GD$1+0.001), CZ4, 0)</f>
-        <v>0</v>
+        <v>0.936139771362742</v>
       </c>
       <c r="EF4" s="0" t="n">
         <f aca="false">IF(DA4&gt;($GD$1+0.001), DA4, 0)</f>
@@ -1425,11 +1427,11 @@
       </c>
       <c r="ET4" s="0" t="n">
         <f aca="false">IF(DO4&gt;($GD$1+0.001), DO4, 0)</f>
-        <v>0</v>
+        <v>0.938318754906012</v>
       </c>
       <c r="EU4" s="0" t="n">
         <f aca="false">IF(DP4&gt;($GD$1+0.001), DP4, 0)</f>
-        <v>0.976068211896382</v>
+        <v>0</v>
       </c>
       <c r="EV4" s="0" t="n">
         <f aca="false">IF(DQ4&gt;($GD$1+0.001), DQ4, 0)</f>
@@ -1437,7 +1439,7 @@
       </c>
       <c r="EW4" s="0" t="n">
         <f aca="false">IF(DR4&gt;($GD$1+0.001), DR4, 0)</f>
-        <v>0</v>
+        <v>0.965098036691108</v>
       </c>
       <c r="EX4" s="0" t="n">
         <f aca="false">IF(DS4&gt;($GD$1+0.001), DS4, 0)</f>
@@ -1642,7 +1644,7 @@
       </c>
       <c r="II4" s="7" t="n">
         <f aca="false">SUMPRODUCT(HI4:IG26,GH4:HF26)+SUMPRODUCT(HI37:IG59,GH37:HF59)</f>
-        <v>69.0572708328471</v>
+        <v>42.0242754803995</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1944,103 +1946,103 @@
       <c r="CT5" s="5"/>
       <c r="CU5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.421418914907305</v>
+        <v>0.429673756980388</v>
       </c>
       <c r="CV5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.761277416601051</v>
+        <v>0.667928242295248</v>
       </c>
       <c r="CW5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.997872641520446</v>
+        <v>0.656670323783113</v>
       </c>
       <c r="CX5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.552049740875563</v>
+        <v>0.798628204324557</v>
       </c>
       <c r="CY5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.734676668326504</v>
+        <v>0.742210192604979</v>
       </c>
       <c r="CZ5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0714789585093979</v>
+        <v>0.00173177616535828</v>
       </c>
       <c r="DA5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0635842504332059</v>
+        <v>0.756332988640772</v>
       </c>
       <c r="DB5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.174691734317633</v>
+        <v>0.930406104607417</v>
       </c>
       <c r="DC5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.682400810812566</v>
+        <v>0.594246028906615</v>
       </c>
       <c r="DD5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.355567883390059</v>
+        <v>0.222763600211703</v>
       </c>
       <c r="DE5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.96146835431</v>
+        <v>0.0733128653537231</v>
       </c>
       <c r="DF5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0482983914527823</v>
+        <v>0.212607521054345</v>
       </c>
       <c r="DG5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.408815987217545</v>
+        <v>0.133996527972593</v>
       </c>
       <c r="DH5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.12260055160261</v>
+        <v>0.199653617739882</v>
       </c>
       <c r="DI5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.388491697429843</v>
+        <v>0.0791835490084561</v>
       </c>
       <c r="DJ5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.932480237916693</v>
+        <v>0.278308528963251</v>
       </c>
       <c r="DK5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.843114539256221</v>
+        <v>0.619019200998134</v>
       </c>
       <c r="DL5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.244127163408647</v>
+        <v>0.0523009702977174</v>
       </c>
       <c r="DM5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502566958094593</v>
+        <v>0.839113793492322</v>
       </c>
       <c r="DN5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.825576392715454</v>
+        <v>0.151125463219016</v>
       </c>
       <c r="DO5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.878434328068875</v>
+        <v>0.68826541365835</v>
       </c>
       <c r="DP5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0706978831395048</v>
+        <v>0.872215873907897</v>
       </c>
       <c r="DQ5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.597448518288194</v>
+        <v>0.550369567151107</v>
       </c>
       <c r="DR5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.654003583460664</v>
+        <v>0.186006132995141</v>
       </c>
       <c r="DS5" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.434284284002192</v>
+        <v>0.0375954967953818</v>
       </c>
       <c r="DT5" s="5"/>
       <c r="DU5" s="5"/>
@@ -2056,7 +2058,7 @@
       </c>
       <c r="EB5" s="0" t="n">
         <f aca="false">IF(CW5&gt;($GD$1+0.001), CW5, 0)</f>
-        <v>0.997872641520446</v>
+        <v>0</v>
       </c>
       <c r="EC5" s="0" t="n">
         <f aca="false">IF(CX5&gt;($GD$1+0.001), CX5, 0)</f>
@@ -2076,7 +2078,7 @@
       </c>
       <c r="EG5" s="0" t="n">
         <f aca="false">IF(DB5&gt;($GD$1+0.001), DB5, 0)</f>
-        <v>0</v>
+        <v>0.930406104607417</v>
       </c>
       <c r="EH5" s="0" t="n">
         <f aca="false">IF(DC5&gt;($GD$1+0.001), DC5, 0)</f>
@@ -2088,7 +2090,7 @@
       </c>
       <c r="EJ5" s="0" t="n">
         <f aca="false">IF(DE5&gt;($GD$1+0.001), DE5, 0)</f>
-        <v>0.96146835431</v>
+        <v>0</v>
       </c>
       <c r="EK5" s="0" t="n">
         <f aca="false">IF(DF5&gt;($GD$1+0.001), DF5, 0)</f>
@@ -2108,7 +2110,7 @@
       </c>
       <c r="EO5" s="0" t="n">
         <f aca="false">IF(DJ5&gt;($GD$1+0.001), DJ5, 0)</f>
-        <v>0.932480237916693</v>
+        <v>0</v>
       </c>
       <c r="EP5" s="0" t="n">
         <f aca="false">IF(DK5&gt;($GD$1+0.001), DK5, 0)</f>
@@ -2552,103 +2554,103 @@
       <c r="CT6" s="5"/>
       <c r="CU6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.390471523119165</v>
+        <v>0.38905752293425</v>
       </c>
       <c r="CV6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.319087855538012</v>
+        <v>0.725784449779111</v>
       </c>
       <c r="CW6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.851645640018471</v>
+        <v>0.150502992077112</v>
       </c>
       <c r="CX6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.774203599062726</v>
+        <v>0.697963277704275</v>
       </c>
       <c r="CY6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.183275804829686</v>
+        <v>0.712941729724416</v>
       </c>
       <c r="CZ6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.869419388190972</v>
+        <v>0.746743981688244</v>
       </c>
       <c r="DA6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.265486157944343</v>
+        <v>0.585469625249591</v>
       </c>
       <c r="DB6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.716034223698448</v>
+        <v>0.965050355012537</v>
       </c>
       <c r="DC6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.402145353580391</v>
+        <v>0.189617805820612</v>
       </c>
       <c r="DD6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.408269298675783</v>
+        <v>0.889192043383055</v>
       </c>
       <c r="DE6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.964723041183721</v>
+        <v>0.116973057451828</v>
       </c>
       <c r="DF6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.744068645583465</v>
+        <v>0.527976905520759</v>
       </c>
       <c r="DG6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.173382580769511</v>
+        <v>0.328514346783421</v>
       </c>
       <c r="DH6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.827935504674998</v>
+        <v>0.804240722744263</v>
       </c>
       <c r="DI6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.212025173485013</v>
+        <v>0.0494859094631488</v>
       </c>
       <c r="DJ6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.567604536458355</v>
+        <v>0.711406201652004</v>
       </c>
       <c r="DK6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.633761149590847</v>
+        <v>0.144436858364562</v>
       </c>
       <c r="DL6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.59214932938909</v>
+        <v>0.275876893460176</v>
       </c>
       <c r="DM6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.151179547189165</v>
+        <v>0.306834264696409</v>
       </c>
       <c r="DN6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.17183668536655</v>
+        <v>0.6376931738548</v>
       </c>
       <c r="DO6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.675016118029873</v>
+        <v>0.534422333924583</v>
       </c>
       <c r="DP6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.907143212711581</v>
+        <v>0.983634028740021</v>
       </c>
       <c r="DQ6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.506142952677492</v>
+        <v>0.946686981739056</v>
       </c>
       <c r="DR6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.949968539839671</v>
+        <v>0.710958833703128</v>
       </c>
       <c r="DS6" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.78679432101978</v>
+        <v>0.224874165330817</v>
       </c>
       <c r="DT6" s="5"/>
       <c r="DU6" s="5"/>
@@ -2684,7 +2686,7 @@
       </c>
       <c r="EG6" s="0" t="n">
         <f aca="false">IF(DB6&gt;($GD$1+0.001), DB6, 0)</f>
-        <v>0</v>
+        <v>0.965050355012537</v>
       </c>
       <c r="EH6" s="0" t="n">
         <f aca="false">IF(DC6&gt;($GD$1+0.001), DC6, 0)</f>
@@ -2696,7 +2698,7 @@
       </c>
       <c r="EJ6" s="0" t="n">
         <f aca="false">IF(DE6&gt;($GD$1+0.001), DE6, 0)</f>
-        <v>0.964723041183721</v>
+        <v>0</v>
       </c>
       <c r="EK6" s="0" t="n">
         <f aca="false">IF(DF6&gt;($GD$1+0.001), DF6, 0)</f>
@@ -2740,15 +2742,15 @@
       </c>
       <c r="EU6" s="0" t="n">
         <f aca="false">IF(DP6&gt;($GD$1+0.001), DP6, 0)</f>
-        <v>0.907143212711581</v>
+        <v>0.983634028740021</v>
       </c>
       <c r="EV6" s="0" t="n">
         <f aca="false">IF(DQ6&gt;($GD$1+0.001), DQ6, 0)</f>
-        <v>0</v>
+        <v>0.946686981739056</v>
       </c>
       <c r="EW6" s="0" t="n">
         <f aca="false">IF(DR6&gt;($GD$1+0.001), DR6, 0)</f>
-        <v>0.949968539839671</v>
+        <v>0</v>
       </c>
       <c r="EX6" s="0" t="n">
         <f aca="false">IF(DS6&gt;($GD$1+0.001), DS6, 0)</f>
@@ -2878,7 +2880,7 @@
       </c>
       <c r="GP6" s="0" t="n">
         <f aca="false">MAX(FM6:FN7)</f>
-        <v>0.0464195795154242</v>
+        <v>0</v>
       </c>
       <c r="GR6" s="0" t="n">
         <f aca="false">MAX(FO6:FP7)</f>
@@ -3249,103 +3251,103 @@
       <c r="CT7" s="5"/>
       <c r="CU7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.585523298472662</v>
+        <v>0.921674583034419</v>
       </c>
       <c r="CV7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.184669431575481</v>
+        <v>0.0154735893817513</v>
       </c>
       <c r="CW7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.702971768209687</v>
+        <v>0.321693972801473</v>
       </c>
       <c r="CX7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.583470357211064</v>
+        <v>0.208057626092966</v>
       </c>
       <c r="CY7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.228108933164863</v>
+        <v>0.681025068189081</v>
       </c>
       <c r="CZ7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.985358461926231</v>
+        <v>0.57538021216672</v>
       </c>
       <c r="DA7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.397288400779934</v>
+        <v>0.605930424791799</v>
       </c>
       <c r="DB7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.487089428431097</v>
+        <v>0.931647464537443</v>
       </c>
       <c r="DC7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.503498808129993</v>
+        <v>0.237177330173378</v>
       </c>
       <c r="DD7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.994544813327694</v>
+        <v>0.0621276173546849</v>
       </c>
       <c r="DE7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.701967899676457</v>
+        <v>0.899838290235248</v>
       </c>
       <c r="DF7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.20822360095015</v>
+        <v>0.396532969432752</v>
       </c>
       <c r="DG7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.447851749299617</v>
+        <v>0.48109619572611</v>
       </c>
       <c r="DH7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.613439053920431</v>
+        <v>0.48005597226844</v>
       </c>
       <c r="DI7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.839444094112987</v>
+        <v>0.723697669399643</v>
       </c>
       <c r="DJ7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.12780763672138</v>
+        <v>0.319036778041918</v>
       </c>
       <c r="DK7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.838958266982897</v>
+        <v>0.0219357840590927</v>
       </c>
       <c r="DL7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.534917188047077</v>
+        <v>0.627061117817493</v>
       </c>
       <c r="DM7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.834722615002999</v>
+        <v>0.325182967205922</v>
       </c>
       <c r="DN7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.451011174940505</v>
+        <v>0.285262097335801</v>
       </c>
       <c r="DO7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.323000141422729</v>
+        <v>0.549410792753979</v>
       </c>
       <c r="DP7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.726976464114104</v>
+        <v>0.824306702112099</v>
       </c>
       <c r="DQ7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.328500369064237</v>
+        <v>0.537562626291679</v>
       </c>
       <c r="DR7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0268967375570534</v>
+        <v>0.00972971927998404</v>
       </c>
       <c r="DS7" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.161073174035766</v>
+        <v>0.0491505956610752</v>
       </c>
       <c r="DT7" s="5"/>
       <c r="DU7" s="5"/>
@@ -3353,7 +3355,7 @@
       <c r="DY7" s="5"/>
       <c r="DZ7" s="0" t="n">
         <f aca="false">IF(CU7&gt;($GD$1+0.001), CU7, 0)</f>
-        <v>0</v>
+        <v>0.921674583034419</v>
       </c>
       <c r="EA7" s="0" t="n">
         <f aca="false">IF(CV7&gt;($GD$1+0.001), CV7, 0)</f>
@@ -3373,7 +3375,7 @@
       </c>
       <c r="EE7" s="0" t="n">
         <f aca="false">IF(CZ7&gt;($GD$1+0.001), CZ7, 0)</f>
-        <v>0.985358461926231</v>
+        <v>0</v>
       </c>
       <c r="EF7" s="0" t="n">
         <f aca="false">IF(DA7&gt;($GD$1+0.001), DA7, 0)</f>
@@ -3381,7 +3383,7 @@
       </c>
       <c r="EG7" s="0" t="n">
         <f aca="false">IF(DB7&gt;($GD$1+0.001), DB7, 0)</f>
-        <v>0</v>
+        <v>0.931647464537443</v>
       </c>
       <c r="EH7" s="0" t="n">
         <f aca="false">IF(DC7&gt;($GD$1+0.001), DC7, 0)</f>
@@ -3389,7 +3391,7 @@
       </c>
       <c r="EI7" s="0" t="n">
         <f aca="false">IF(DD7&gt;($GD$1+0.001), DD7, 0)</f>
-        <v>0.994544813327694</v>
+        <v>0</v>
       </c>
       <c r="EJ7" s="0" t="n">
         <f aca="false">IF(DE7&gt;($GD$1+0.001), DE7, 0)</f>
@@ -3493,7 +3495,7 @@
       </c>
       <c r="FN7" s="0" t="n">
         <f aca="false">IF(EI7=0, 0, BZ7)</f>
-        <v>0.0464195795154242</v>
+        <v>0</v>
       </c>
       <c r="FO7" s="0" t="n">
         <f aca="false">IF(EJ7=0, 0, CA7)</f>
@@ -3857,103 +3859,103 @@
       <c r="CT8" s="5"/>
       <c r="CU8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.369737320923701</v>
+        <v>0.122738093642308</v>
       </c>
       <c r="CV8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172517465284859</v>
+        <v>0.186297369112068</v>
       </c>
       <c r="CW8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.478069981192122</v>
+        <v>0.679851405135869</v>
       </c>
       <c r="CX8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.247039129548199</v>
+        <v>0.86988096705784</v>
       </c>
       <c r="CY8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0210504517965219</v>
+        <v>0.502125306373993</v>
       </c>
       <c r="CZ8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.104048283066657</v>
+        <v>0.990604013556137</v>
       </c>
       <c r="DA8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.444048645688949</v>
+        <v>0.0745138603554693</v>
       </c>
       <c r="DB8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.666495352741081</v>
+        <v>0.128341397810583</v>
       </c>
       <c r="DC8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.658358181352525</v>
+        <v>0.528891690854932</v>
       </c>
       <c r="DD8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.87297097830842</v>
+        <v>0.75078295240435</v>
       </c>
       <c r="DE8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.929122390008143</v>
+        <v>0.367709866168706</v>
       </c>
       <c r="DF8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.102919936820953</v>
+        <v>0.834464547320744</v>
       </c>
       <c r="DG8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.632546425810369</v>
+        <v>0.547906939785494</v>
       </c>
       <c r="DH8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.360908558726116</v>
+        <v>0.884470507097493</v>
       </c>
       <c r="DI8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.459387973552763</v>
+        <v>0.0860712247630694</v>
       </c>
       <c r="DJ8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.545889339658715</v>
+        <v>0.866007635758198</v>
       </c>
       <c r="DK8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0424713577347277</v>
+        <v>0.0351300764684877</v>
       </c>
       <c r="DL8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.26791070149214</v>
+        <v>0.339241379990338</v>
       </c>
       <c r="DM8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0753224180319993</v>
+        <v>0.330249587059159</v>
       </c>
       <c r="DN8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.766205696582102</v>
+        <v>0.121462340573895</v>
       </c>
       <c r="DO8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.462414798225151</v>
+        <v>0.525294640684181</v>
       </c>
       <c r="DP8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.799928391922442</v>
+        <v>0.206264173605733</v>
       </c>
       <c r="DQ8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0380940845948518</v>
+        <v>0.817152625949797</v>
       </c>
       <c r="DR8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.657384259733017</v>
+        <v>0.550174878532995</v>
       </c>
       <c r="DS8" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.585163536370777</v>
+        <v>0.844910097297124</v>
       </c>
       <c r="DT8" s="5"/>
       <c r="DU8" s="5"/>
@@ -3981,7 +3983,7 @@
       </c>
       <c r="EE8" s="0" t="n">
         <f aca="false">IF(CZ8&gt;($GD$1+0.001), CZ8, 0)</f>
-        <v>0</v>
+        <v>0.990604013556137</v>
       </c>
       <c r="EF8" s="0" t="n">
         <f aca="false">IF(DA8&gt;($GD$1+0.001), DA8, 0)</f>
@@ -4001,7 +4003,7 @@
       </c>
       <c r="EJ8" s="0" t="n">
         <f aca="false">IF(DE8&gt;($GD$1+0.001), DE8, 0)</f>
-        <v>0.929122390008143</v>
+        <v>0</v>
       </c>
       <c r="EK8" s="0" t="n">
         <f aca="false">IF(DF8&gt;($GD$1+0.001), DF8, 0)</f>
@@ -4105,7 +4107,7 @@
       </c>
       <c r="FO8" s="0" t="n">
         <f aca="false">IF(EJ8=0, 0, CA8)</f>
-        <v>0.0910652330799956</v>
+        <v>0</v>
       </c>
       <c r="FP8" s="0" t="n">
         <f aca="false">IF(EK8=0, 0, CB8)</f>
@@ -4187,11 +4189,11 @@
       </c>
       <c r="GR8" s="0" t="n">
         <f aca="false">MAX(FO8:FP9)</f>
-        <v>0.0910652330799956</v>
+        <v>0</v>
       </c>
       <c r="GT8" s="0" t="n">
         <f aca="false">MAX(FQ8:FR9)</f>
-        <v>0.960499577463087</v>
+        <v>0</v>
       </c>
       <c r="GV8" s="0" t="n">
         <f aca="false">MAX(FS8:FT9)</f>
@@ -4199,7 +4201,7 @@
       </c>
       <c r="GX8" s="0" t="n">
         <f aca="false">MAX(FU8:FV9)</f>
-        <v>0</v>
+        <v>2.75595916509955</v>
       </c>
       <c r="GZ8" s="0" t="n">
         <f aca="false">MAX(FW8:FX9)</f>
@@ -4562,103 +4564,103 @@
       <c r="CT9" s="5"/>
       <c r="CU9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.897827801468845</v>
+        <v>0.180908670842848</v>
       </c>
       <c r="CV9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.285880775587102</v>
+        <v>0.995275599219756</v>
       </c>
       <c r="CW9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.188800610548901</v>
+        <v>0.58750684246985</v>
       </c>
       <c r="CX9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.605308638363472</v>
+        <v>0.601491776760444</v>
       </c>
       <c r="CY9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.483973405814146</v>
+        <v>0.512574172641644</v>
       </c>
       <c r="CZ9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.347081520030728</v>
+        <v>0.994457194678055</v>
       </c>
       <c r="DA9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.609643366460176</v>
+        <v>0.601657669767909</v>
       </c>
       <c r="DB9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.700624218304334</v>
+        <v>0.909489269517339</v>
       </c>
       <c r="DC9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.318420602827436</v>
+        <v>0.839960997247364</v>
       </c>
       <c r="DD9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.579104494722388</v>
+        <v>0.75441899134068</v>
       </c>
       <c r="DE9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.216983003204937</v>
+        <v>0.597993389878457</v>
       </c>
       <c r="DF9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.743495369416229</v>
+        <v>0.490475410791226</v>
       </c>
       <c r="DG9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.196086819238292</v>
+        <v>0.764550403459253</v>
       </c>
       <c r="DH9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.958523407297247</v>
+        <v>0.629560700916354</v>
       </c>
       <c r="DI9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0473245817943419</v>
+        <v>0.0977356547422115</v>
       </c>
       <c r="DJ9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.425027491897853</v>
+        <v>0.104147405570919</v>
       </c>
       <c r="DK9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.113987656255231</v>
+        <v>0.968784856689715</v>
       </c>
       <c r="DL9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.747837445718093</v>
+        <v>0.2117360173779</v>
       </c>
       <c r="DM9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.709241758065511</v>
+        <v>0.195470290171407</v>
       </c>
       <c r="DN9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.453518056225146</v>
+        <v>0.625461649492016</v>
       </c>
       <c r="DO9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0563142188754478</v>
+        <v>0.923520611168687</v>
       </c>
       <c r="DP9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.91031043197713</v>
+        <v>0.861708094223589</v>
       </c>
       <c r="DQ9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.192982706226305</v>
+        <v>0.0240368464231068</v>
       </c>
       <c r="DR9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.240997867359249</v>
+        <v>0.489511307703875</v>
       </c>
       <c r="DS9" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.806940837549631</v>
+        <v>0.0822699600528164</v>
       </c>
       <c r="DT9" s="5"/>
       <c r="DU9" s="5"/>
@@ -4670,7 +4672,7 @@
       </c>
       <c r="EA9" s="0" t="n">
         <f aca="false">IF(CV9&gt;($GD$1+0.001), CV9, 0)</f>
-        <v>0</v>
+        <v>0.995275599219756</v>
       </c>
       <c r="EB9" s="0" t="n">
         <f aca="false">IF(CW9&gt;($GD$1+0.001), CW9, 0)</f>
@@ -4686,7 +4688,7 @@
       </c>
       <c r="EE9" s="0" t="n">
         <f aca="false">IF(CZ9&gt;($GD$1+0.001), CZ9, 0)</f>
-        <v>0</v>
+        <v>0.994457194678055</v>
       </c>
       <c r="EF9" s="0" t="n">
         <f aca="false">IF(DA9&gt;($GD$1+0.001), DA9, 0)</f>
@@ -4694,7 +4696,7 @@
       </c>
       <c r="EG9" s="0" t="n">
         <f aca="false">IF(DB9&gt;($GD$1+0.001), DB9, 0)</f>
-        <v>0</v>
+        <v>0.909489269517339</v>
       </c>
       <c r="EH9" s="0" t="n">
         <f aca="false">IF(DC9&gt;($GD$1+0.001), DC9, 0)</f>
@@ -4718,7 +4720,7 @@
       </c>
       <c r="EM9" s="0" t="n">
         <f aca="false">IF(DH9&gt;($GD$1+0.001), DH9, 0)</f>
-        <v>0.958523407297247</v>
+        <v>0</v>
       </c>
       <c r="EN9" s="0" t="n">
         <f aca="false">IF(DI9&gt;($GD$1+0.001), DI9, 0)</f>
@@ -4730,7 +4732,7 @@
       </c>
       <c r="EP9" s="0" t="n">
         <f aca="false">IF(DK9&gt;($GD$1+0.001), DK9, 0)</f>
-        <v>0</v>
+        <v>0.968784856689715</v>
       </c>
       <c r="EQ9" s="0" t="n">
         <f aca="false">IF(DL9&gt;($GD$1+0.001), DL9, 0)</f>
@@ -4746,11 +4748,11 @@
       </c>
       <c r="ET9" s="0" t="n">
         <f aca="false">IF(DO9&gt;($GD$1+0.001), DO9, 0)</f>
-        <v>0</v>
+        <v>0.923520611168687</v>
       </c>
       <c r="EU9" s="0" t="n">
         <f aca="false">IF(DP9&gt;($GD$1+0.001), DP9, 0)</f>
-        <v>0.91031043197713</v>
+        <v>0</v>
       </c>
       <c r="EV9" s="0" t="n">
         <f aca="false">IF(DQ9&gt;($GD$1+0.001), DQ9, 0)</f>
@@ -4818,7 +4820,7 @@
       </c>
       <c r="FR9" s="0" t="n">
         <f aca="false">IF(EM9=0, 0, CD9)</f>
-        <v>0.960499577463087</v>
+        <v>0</v>
       </c>
       <c r="FS9" s="0" t="n">
         <f aca="false">IF(EN9=0, 0, CE9)</f>
@@ -4830,7 +4832,7 @@
       </c>
       <c r="FU9" s="0" t="n">
         <f aca="false">IF(EP9=0, 0, CG9)</f>
-        <v>0</v>
+        <v>2.75595916509955</v>
       </c>
       <c r="FV9" s="0" t="n">
         <f aca="false">IF(EQ9=0, 0, CH9)</f>
@@ -5166,103 +5168,103 @@
       <c r="CT10" s="5"/>
       <c r="CU10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0797409084990506</v>
+        <v>0.902797499164895</v>
       </c>
       <c r="CV10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.85101660697174</v>
+        <v>0.184229812006567</v>
       </c>
       <c r="CW10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.65729981158952</v>
+        <v>0.631163145419117</v>
       </c>
       <c r="CX10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.236244935856562</v>
+        <v>0.281897397975867</v>
       </c>
       <c r="CY10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.300175681509666</v>
+        <v>0.714526626904387</v>
       </c>
       <c r="CZ10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.535182688094997</v>
+        <v>0.978704409833417</v>
       </c>
       <c r="DA10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.844416767679097</v>
+        <v>0.330412969250074</v>
       </c>
       <c r="DB10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.402189155790276</v>
+        <v>0.057577493655221</v>
       </c>
       <c r="DC10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.676033995851949</v>
+        <v>0.0809099067678553</v>
       </c>
       <c r="DD10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.719949349669554</v>
+        <v>0.0468822505423498</v>
       </c>
       <c r="DE10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.553980491301899</v>
+        <v>0.312222742084527</v>
       </c>
       <c r="DF10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.620451457125241</v>
+        <v>0.410490486571168</v>
       </c>
       <c r="DG10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.522347872469894</v>
+        <v>0.333400531533767</v>
       </c>
       <c r="DH10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.984464795130634</v>
+        <v>0.349444235067005</v>
       </c>
       <c r="DI10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.039015078881981</v>
+        <v>0.172334519812906</v>
       </c>
       <c r="DJ10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.459024414159907</v>
+        <v>0.281641928845845</v>
       </c>
       <c r="DK10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.153913717835717</v>
+        <v>0.158188114216763</v>
       </c>
       <c r="DL10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.397218428781525</v>
+        <v>0.158185717565433</v>
       </c>
       <c r="DM10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.799368242788955</v>
+        <v>0.299245007036397</v>
       </c>
       <c r="DN10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.880788971078412</v>
+        <v>0.646817938577894</v>
       </c>
       <c r="DO10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.646090775572647</v>
+        <v>0.131444276309366</v>
       </c>
       <c r="DP10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.30947246552964</v>
+        <v>0.422817227647243</v>
       </c>
       <c r="DQ10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.818063652793433</v>
+        <v>0.482150555126399</v>
       </c>
       <c r="DR10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.277768012722057</v>
+        <v>0.600483728153063</v>
       </c>
       <c r="DS10" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.205026598273634</v>
+        <v>0.422897229049946</v>
       </c>
       <c r="DT10" s="5"/>
       <c r="DU10" s="5"/>
@@ -5270,7 +5272,7 @@
       <c r="DY10" s="5"/>
       <c r="DZ10" s="0" t="n">
         <f aca="false">IF(CU10&gt;($GD$1+0.001), CU10, 0)</f>
-        <v>0</v>
+        <v>0.902797499164895</v>
       </c>
       <c r="EA10" s="0" t="n">
         <f aca="false">IF(CV10&gt;($GD$1+0.001), CV10, 0)</f>
@@ -5290,7 +5292,7 @@
       </c>
       <c r="EE10" s="0" t="n">
         <f aca="false">IF(CZ10&gt;($GD$1+0.001), CZ10, 0)</f>
-        <v>0</v>
+        <v>0.978704409833417</v>
       </c>
       <c r="EF10" s="0" t="n">
         <f aca="false">IF(DA10&gt;($GD$1+0.001), DA10, 0)</f>
@@ -5322,7 +5324,7 @@
       </c>
       <c r="EM10" s="0" t="n">
         <f aca="false">IF(DH10&gt;($GD$1+0.001), DH10, 0)</f>
-        <v>0.984464795130634</v>
+        <v>0</v>
       </c>
       <c r="EN10" s="0" t="n">
         <f aca="false">IF(DI10&gt;($GD$1+0.001), DI10, 0)</f>
@@ -5426,7 +5428,7 @@
       </c>
       <c r="FR10" s="0" t="n">
         <f aca="false">IF(EM10=0, 0, CD10)</f>
-        <v>1.79504904524906</v>
+        <v>0</v>
       </c>
       <c r="FS10" s="0" t="n">
         <f aca="false">IF(EN10=0, 0, CE10)</f>
@@ -5492,7 +5494,7 @@
       </c>
       <c r="GP10" s="0" t="n">
         <f aca="false">MAX(FM10:FN11)</f>
-        <v>0</v>
+        <v>1.45064231651228</v>
       </c>
       <c r="GR10" s="0" t="n">
         <f aca="false">MAX(FO10:FP11)</f>
@@ -5500,11 +5502,11 @@
       </c>
       <c r="GT10" s="0" t="n">
         <f aca="false">MAX(FQ10:FR11)</f>
-        <v>1.79504904524906</v>
+        <v>0</v>
       </c>
       <c r="GV10" s="0" t="n">
         <f aca="false">MAX(FS10:FT11)</f>
-        <v>0</v>
+        <v>3.06230639747028</v>
       </c>
       <c r="GX10" s="0" t="n">
         <f aca="false">MAX(FU10:FV11)</f>
@@ -5877,103 +5879,103 @@
       <c r="CT11" s="5"/>
       <c r="CU11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.144579267012972</v>
+        <v>0.7202714943783</v>
       </c>
       <c r="CV11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.613798028466898</v>
+        <v>0.422592582054247</v>
       </c>
       <c r="CW11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0433818466489584</v>
+        <v>0.716327668598181</v>
       </c>
       <c r="CX11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.656200145045102</v>
+        <v>0.47950346663244</v>
       </c>
       <c r="CY11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.106958959416642</v>
+        <v>0.511396973258399</v>
       </c>
       <c r="CZ11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.371119838146365</v>
+        <v>0.472136235390066</v>
       </c>
       <c r="DA11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.665791632867115</v>
+        <v>0.518382947916913</v>
       </c>
       <c r="DB11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0635557329378395</v>
+        <v>0.319655725697833</v>
       </c>
       <c r="DC11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00539033724544563</v>
+        <v>0.931641125271655</v>
       </c>
       <c r="DD11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.348739783707754</v>
+        <v>0.0566973533464368</v>
       </c>
       <c r="DE11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.301488422473194</v>
+        <v>0.10837245895079</v>
       </c>
       <c r="DF11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.822772786065405</v>
+        <v>0.12605591560995</v>
       </c>
       <c r="DG11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.348271129959838</v>
+        <v>0.0442197204293764</v>
       </c>
       <c r="DH11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.17511120763593</v>
+        <v>0.441562848184473</v>
       </c>
       <c r="DI11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.742975853546527</v>
+        <v>0.914818879253802</v>
       </c>
       <c r="DJ11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.542929014398811</v>
+        <v>0.0892372482689936</v>
       </c>
       <c r="DK11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.164390914592208</v>
+        <v>0.348689441982517</v>
       </c>
       <c r="DL11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.149792769422439</v>
+        <v>0.0818319744109367</v>
       </c>
       <c r="DM11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0608250764384897</v>
+        <v>0.782101941370254</v>
       </c>
       <c r="DN11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.237318494807665</v>
+        <v>0.860866681199667</v>
       </c>
       <c r="DO11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.570300796502731</v>
+        <v>0.190954875864309</v>
       </c>
       <c r="DP11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.549660599279749</v>
+        <v>0.113185549014254</v>
       </c>
       <c r="DQ11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.428889775685075</v>
+        <v>0.531181794352338</v>
       </c>
       <c r="DR11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.733434763642649</v>
+        <v>0.150333914747433</v>
       </c>
       <c r="DS11" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.357419540964949</v>
+        <v>0.993891556216825</v>
       </c>
       <c r="DT11" s="5"/>
       <c r="DU11" s="5"/>
@@ -6013,7 +6015,7 @@
       </c>
       <c r="EH11" s="0" t="n">
         <f aca="false">IF(DC11&gt;($GD$1+0.001), DC11, 0)</f>
-        <v>0</v>
+        <v>0.931641125271655</v>
       </c>
       <c r="EI11" s="0" t="n">
         <f aca="false">IF(DD11&gt;($GD$1+0.001), DD11, 0)</f>
@@ -6037,7 +6039,7 @@
       </c>
       <c r="EN11" s="0" t="n">
         <f aca="false">IF(DI11&gt;($GD$1+0.001), DI11, 0)</f>
-        <v>0</v>
+        <v>0.914818879253802</v>
       </c>
       <c r="EO11" s="0" t="n">
         <f aca="false">IF(DJ11&gt;($GD$1+0.001), DJ11, 0)</f>
@@ -6077,7 +6079,7 @@
       </c>
       <c r="EX11" s="0" t="n">
         <f aca="false">IF(DS11&gt;($GD$1+0.001), DS11, 0)</f>
-        <v>0</v>
+        <v>0.993891556216825</v>
       </c>
       <c r="EY11" s="5"/>
       <c r="EZ11" s="5"/>
@@ -6117,7 +6119,7 @@
       </c>
       <c r="FM11" s="0" t="n">
         <f aca="false">IF(EH11=0, 0, BY11)</f>
-        <v>0</v>
+        <v>1.45064231651228</v>
       </c>
       <c r="FN11" s="0" t="n">
         <f aca="false">IF(EI11=0, 0, BZ11)</f>
@@ -6141,7 +6143,7 @@
       </c>
       <c r="FS11" s="0" t="n">
         <f aca="false">IF(EN11=0, 0, CE11)</f>
-        <v>0</v>
+        <v>3.06230639747028</v>
       </c>
       <c r="FT11" s="0" t="n">
         <f aca="false">IF(EO11=0, 0, CF11)</f>
@@ -6494,103 +6496,103 @@
       <c r="CT12" s="5"/>
       <c r="CU12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.902098826021506</v>
+        <v>0.385041009483277</v>
       </c>
       <c r="CV12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.902014938719317</v>
+        <v>0.604688451853412</v>
       </c>
       <c r="CW12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.356180701367332</v>
+        <v>0.855264298918882</v>
       </c>
       <c r="CX12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.040864663733432</v>
+        <v>0.0172371326035507</v>
       </c>
       <c r="CY12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.818388123628113</v>
+        <v>0.648546057447378</v>
       </c>
       <c r="CZ12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.367791606988974</v>
+        <v>0.617499380079072</v>
       </c>
       <c r="DA12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.167134680708813</v>
+        <v>0.650730383047766</v>
       </c>
       <c r="DB12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0294759221449836</v>
+        <v>0.56845489539285</v>
       </c>
       <c r="DC12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.816457212626607</v>
+        <v>0.792737472344467</v>
       </c>
       <c r="DD12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.97820762231277</v>
+        <v>0.891238292060573</v>
       </c>
       <c r="DE12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.61891735626915</v>
+        <v>0.206318602281836</v>
       </c>
       <c r="DF12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.291734291816014</v>
+        <v>0.132540589456198</v>
       </c>
       <c r="DG12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0926741271958656</v>
+        <v>0.274366865447431</v>
       </c>
       <c r="DH12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.586236855747572</v>
+        <v>0.452060242450492</v>
       </c>
       <c r="DI12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.236393401167482</v>
+        <v>0.0583793788645561</v>
       </c>
       <c r="DJ12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.121579799853852</v>
+        <v>0.271323010706925</v>
       </c>
       <c r="DK12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.572428231224407</v>
+        <v>0.787788671641091</v>
       </c>
       <c r="DL12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.664821418753067</v>
+        <v>0.28726972549035</v>
       </c>
       <c r="DM12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.362451466300524</v>
+        <v>0.765700321703816</v>
       </c>
       <c r="DN12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.591985651086741</v>
+        <v>0.712589219085396</v>
       </c>
       <c r="DO12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0402890541202285</v>
+        <v>0.0472687984814612</v>
       </c>
       <c r="DP12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.833462327989994</v>
+        <v>0.81122054575758</v>
       </c>
       <c r="DQ12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502317086874843</v>
+        <v>0.430159578604953</v>
       </c>
       <c r="DR12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.505373767766066</v>
+        <v>0.5781755988585</v>
       </c>
       <c r="DS12" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.856067073405643</v>
+        <v>0.178264183859935</v>
       </c>
       <c r="DT12" s="5"/>
       <c r="DU12" s="5"/>
@@ -6598,11 +6600,11 @@
       <c r="DY12" s="5"/>
       <c r="DZ12" s="0" t="n">
         <f aca="false">IF(CU12&gt;($GD$1+0.001), CU12, 0)</f>
-        <v>0.902098826021506</v>
+        <v>0</v>
       </c>
       <c r="EA12" s="0" t="n">
         <f aca="false">IF(CV12&gt;($GD$1+0.001), CV12, 0)</f>
-        <v>0.902014938719317</v>
+        <v>0</v>
       </c>
       <c r="EB12" s="0" t="n">
         <f aca="false">IF(CW12&gt;($GD$1+0.001), CW12, 0)</f>
@@ -6634,7 +6636,7 @@
       </c>
       <c r="EI12" s="0" t="n">
         <f aca="false">IF(DD12&gt;($GD$1+0.001), DD12, 0)</f>
-        <v>0.97820762231277</v>
+        <v>0</v>
       </c>
       <c r="EJ12" s="0" t="n">
         <f aca="false">IF(DE12&gt;($GD$1+0.001), DE12, 0)</f>
@@ -6706,7 +6708,7 @@
       </c>
       <c r="FF12" s="0" t="n">
         <f aca="false">IF(EA12=0, 0, BR12)</f>
-        <v>0.417608404012278</v>
+        <v>0</v>
       </c>
       <c r="FG12" s="0" t="n">
         <f aca="false">IF(EB12=0, 0, BS12)</f>
@@ -6738,7 +6740,7 @@
       </c>
       <c r="FN12" s="0" t="n">
         <f aca="false">IF(EI12=0, 0, BZ12)</f>
-        <v>4.12321276628997</v>
+        <v>0</v>
       </c>
       <c r="FO12" s="0" t="n">
         <f aca="false">IF(EJ12=0, 0, CA12)</f>
@@ -6804,7 +6806,7 @@
       <c r="GE12" s="5"/>
       <c r="GH12" s="0" t="n">
         <f aca="false">MAX(FE12:FF13)</f>
-        <v>0.417608404012278</v>
+        <v>0</v>
       </c>
       <c r="GJ12" s="0" t="n">
         <f aca="false">MAX(FG12:FH13)</f>
@@ -6820,7 +6822,7 @@
       </c>
       <c r="GP12" s="0" t="n">
         <f aca="false">MAX(FM12:FN13)</f>
-        <v>4.12321276628997</v>
+        <v>0</v>
       </c>
       <c r="GR12" s="8" t="n">
         <f aca="false">MAX(FO12:FP13)</f>
@@ -6828,7 +6830,7 @@
       </c>
       <c r="GT12" s="0" t="n">
         <f aca="false">MAX(FQ12:FR13)</f>
-        <v>0</v>
+        <v>2.530935409362</v>
       </c>
       <c r="GV12" s="0" t="n">
         <f aca="false">MAX(FS12:FT13)</f>
@@ -6840,11 +6842,11 @@
       </c>
       <c r="GZ12" s="0" t="n">
         <f aca="false">MAX(FW12:FX13)</f>
-        <v>0</v>
+        <v>6.3282456508919</v>
       </c>
       <c r="HB12" s="0" t="n">
         <f aca="false">MAX(FY12:FZ13)</f>
-        <v>0</v>
+        <v>1.9946950099745</v>
       </c>
       <c r="HD12" s="0" t="n">
         <f aca="false">MAX(GA12:GB13)</f>
@@ -7206,103 +7208,103 @@
       <c r="CT13" s="5"/>
       <c r="CU13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00915482606267178</v>
+        <v>0.193436448069777</v>
       </c>
       <c r="CV13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.676376960709604</v>
+        <v>0.30012552976723</v>
       </c>
       <c r="CW13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.413734355091517</v>
+        <v>0.374947653358202</v>
       </c>
       <c r="CX13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.283475760842508</v>
+        <v>0.728317467584791</v>
       </c>
       <c r="CY13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.302363313740066</v>
+        <v>0.383975813706573</v>
       </c>
       <c r="CZ13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.449546399479102</v>
+        <v>0.734531099113403</v>
       </c>
       <c r="DA13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.949186675356913</v>
+        <v>0.99832869018647</v>
       </c>
       <c r="DB13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.195699573539099</v>
+        <v>0.875018519268246</v>
       </c>
       <c r="DC13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.371675508231775</v>
+        <v>0.881889339388248</v>
       </c>
       <c r="DD13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0590108166240422</v>
+        <v>0.0097654533915529</v>
       </c>
       <c r="DE13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.209070699422676</v>
+        <v>0.398290000646669</v>
       </c>
       <c r="DF13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.508747042291908</v>
+        <v>0.3727465581278</v>
       </c>
       <c r="DG13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.587711333883411</v>
+        <v>0.38570216033335</v>
       </c>
       <c r="DH13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0572937774985999</v>
+        <v>0.916359241907514</v>
       </c>
       <c r="DI13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.41988227029686</v>
+        <v>0.668909643390991</v>
       </c>
       <c r="DJ13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.636617494115238</v>
+        <v>0.308228014136371</v>
       </c>
       <c r="DK13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.181999199449037</v>
+        <v>0.31748916609827</v>
       </c>
       <c r="DL13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.364493127054417</v>
+        <v>0.0623516711036582</v>
       </c>
       <c r="DM13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.181250210002273</v>
+        <v>0.529956498676644</v>
       </c>
       <c r="DN13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.362582452408414</v>
+        <v>0.965066871305363</v>
       </c>
       <c r="DO13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.212215612133307</v>
+        <v>0.905989255728699</v>
       </c>
       <c r="DP13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.505942469178716</v>
+        <v>0.940557524991856</v>
       </c>
       <c r="DQ13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.234984552476345</v>
+        <v>0.421464579063535</v>
       </c>
       <c r="DR13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.207875964490168</v>
+        <v>0.814880488170289</v>
       </c>
       <c r="DS13" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.631173836312438</v>
+        <v>0.831739579449759</v>
       </c>
       <c r="DT13" s="5"/>
       <c r="DU13" s="5"/>
@@ -7334,7 +7336,7 @@
       </c>
       <c r="EF13" s="0" t="n">
         <f aca="false">IF(DA13&gt;($GD$1+0.001), DA13, 0)</f>
-        <v>0.949186675356913</v>
+        <v>0.99832869018647</v>
       </c>
       <c r="EG13" s="0" t="n">
         <f aca="false">IF(DB13&gt;($GD$1+0.001), DB13, 0)</f>
@@ -7362,7 +7364,7 @@
       </c>
       <c r="EM13" s="0" t="n">
         <f aca="false">IF(DH13&gt;($GD$1+0.001), DH13, 0)</f>
-        <v>0</v>
+        <v>0.916359241907514</v>
       </c>
       <c r="EN13" s="0" t="n">
         <f aca="false">IF(DI13&gt;($GD$1+0.001), DI13, 0)</f>
@@ -7386,15 +7388,15 @@
       </c>
       <c r="ES13" s="0" t="n">
         <f aca="false">IF(DN13&gt;($GD$1+0.001), DN13, 0)</f>
-        <v>0</v>
+        <v>0.965066871305363</v>
       </c>
       <c r="ET13" s="0" t="n">
         <f aca="false">IF(DO13&gt;($GD$1+0.001), DO13, 0)</f>
-        <v>0</v>
+        <v>0.905989255728699</v>
       </c>
       <c r="EU13" s="0" t="n">
         <f aca="false">IF(DP13&gt;($GD$1+0.001), DP13, 0)</f>
-        <v>0</v>
+        <v>0.940557524991856</v>
       </c>
       <c r="EV13" s="0" t="n">
         <f aca="false">IF(DQ13&gt;($GD$1+0.001), DQ13, 0)</f>
@@ -7466,7 +7468,7 @@
       </c>
       <c r="FR13" s="0" t="n">
         <f aca="false">IF(EM13=0, 0, CD13)</f>
-        <v>0</v>
+        <v>2.530935409362</v>
       </c>
       <c r="FS13" s="0" t="n">
         <f aca="false">IF(EN13=0, 0, CE13)</f>
@@ -7490,11 +7492,11 @@
       </c>
       <c r="FX13" s="0" t="n">
         <f aca="false">IF(ES13=0, 0, CJ13)</f>
-        <v>0</v>
+        <v>6.3282456508919</v>
       </c>
       <c r="FY13" s="0" t="n">
         <f aca="false">IF(ET13=0, 0, CK13)</f>
-        <v>0</v>
+        <v>1.9946950099745</v>
       </c>
       <c r="FZ13" s="0" t="n">
         <f aca="false">IF(EU13=0, 0, CL13)</f>
@@ -7814,103 +7816,103 @@
       <c r="CT14" s="5"/>
       <c r="CU14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.786079920191888</v>
+        <v>0.641322603771624</v>
       </c>
       <c r="CV14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.185216668234179</v>
+        <v>0.675197906659</v>
       </c>
       <c r="CW14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.896788332322278</v>
+        <v>0.624143757160538</v>
       </c>
       <c r="CX14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.839102786621208</v>
+        <v>0.421222176408666</v>
       </c>
       <c r="CY14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.32785413909118</v>
+        <v>0.679731135204143</v>
       </c>
       <c r="CZ14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.639840045257069</v>
+        <v>0.282922332199352</v>
       </c>
       <c r="DA14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.477350800443967</v>
+        <v>0.7536782997707</v>
       </c>
       <c r="DB14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.571896041580108</v>
+        <v>0.757812634563263</v>
       </c>
       <c r="DC14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.7931187706427</v>
+        <v>0.29484141514157</v>
       </c>
       <c r="DD14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.464991623805749</v>
+        <v>0.260498188722573</v>
       </c>
       <c r="DE14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.674423064520359</v>
+        <v>0.709949861276102</v>
       </c>
       <c r="DF14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.69369329986017</v>
+        <v>0.541756021086425</v>
       </c>
       <c r="DG14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.913459308182467</v>
+        <v>0.320270349949172</v>
       </c>
       <c r="DH14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0373530821315453</v>
+        <v>0.325879606229036</v>
       </c>
       <c r="DI14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.869910252064262</v>
+        <v>0.424164907332491</v>
       </c>
       <c r="DJ14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.24185589004072</v>
+        <v>0.52214621479896</v>
       </c>
       <c r="DK14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.949321041470521</v>
+        <v>0.73208053541079</v>
       </c>
       <c r="DL14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.572223733141888</v>
+        <v>0.926593553420163</v>
       </c>
       <c r="DM14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.193037945782816</v>
+        <v>0.205934510007469</v>
       </c>
       <c r="DN14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0242751518653012</v>
+        <v>0.193581086472904</v>
       </c>
       <c r="DO14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.210278496965405</v>
+        <v>0.249897803935713</v>
       </c>
       <c r="DP14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.104271037217929</v>
+        <v>0.555581589006568</v>
       </c>
       <c r="DQ14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.521924535748738</v>
+        <v>0.118403930561448</v>
       </c>
       <c r="DR14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.622612037966444</v>
+        <v>0.273808664172454</v>
       </c>
       <c r="DS14" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0798672928913865</v>
+        <v>0.404874570430984</v>
       </c>
       <c r="DT14" s="5"/>
       <c r="DU14" s="5"/>
@@ -7966,7 +7968,7 @@
       </c>
       <c r="EL14" s="0" t="n">
         <f aca="false">IF(DG14&gt;($GD$1+0.001), DG14, 0)</f>
-        <v>0.913459308182467</v>
+        <v>0</v>
       </c>
       <c r="EM14" s="0" t="n">
         <f aca="false">IF(DH14&gt;($GD$1+0.001), DH14, 0)</f>
@@ -7982,11 +7984,11 @@
       </c>
       <c r="EP14" s="0" t="n">
         <f aca="false">IF(DK14&gt;($GD$1+0.001), DK14, 0)</f>
-        <v>0.949321041470521</v>
+        <v>0</v>
       </c>
       <c r="EQ14" s="0" t="n">
         <f aca="false">IF(DL14&gt;($GD$1+0.001), DL14, 0)</f>
-        <v>0</v>
+        <v>0.926593553420163</v>
       </c>
       <c r="ER14" s="0" t="n">
         <f aca="false">IF(DM14&gt;($GD$1+0.001), DM14, 0)</f>
@@ -8070,7 +8072,7 @@
       </c>
       <c r="FQ14" s="0" t="n">
         <f aca="false">IF(EL14=0, 0, CC14)</f>
-        <v>1.05324011809235</v>
+        <v>0</v>
       </c>
       <c r="FR14" s="0" t="n">
         <f aca="false">IF(EM14=0, 0, CD14)</f>
@@ -8086,11 +8088,11 @@
       </c>
       <c r="FU14" s="0" t="n">
         <f aca="false">IF(EP14=0, 0, CG14)</f>
-        <v>0.691943789569868</v>
+        <v>0</v>
       </c>
       <c r="FV14" s="0" t="n">
         <f aca="false">IF(EQ14=0, 0, CH14)</f>
-        <v>0</v>
+        <v>2.71695551400387</v>
       </c>
       <c r="FW14" s="0" t="n">
         <f aca="false">IF(ER14=0, 0, CI14)</f>
@@ -8128,7 +8130,7 @@
       </c>
       <c r="GJ14" s="0" t="n">
         <f aca="false">MAX(FG14:FH15)</f>
-        <v>0.49070380821691</v>
+        <v>0</v>
       </c>
       <c r="GL14" s="0" t="n">
         <f aca="false">MAX(FI14:FJ15)</f>
@@ -8148,15 +8150,15 @@
       </c>
       <c r="GT14" s="0" t="n">
         <f aca="false">MAX(FQ14:FR15)</f>
-        <v>1.05324011809235</v>
+        <v>0.199860554559374</v>
       </c>
       <c r="GV14" s="0" t="n">
         <f aca="false">MAX(FS14:FT15)</f>
-        <v>0.647221891274754</v>
+        <v>0</v>
       </c>
       <c r="GX14" s="0" t="n">
         <f aca="false">MAX(FU14:FV15)</f>
-        <v>0.691943789569868</v>
+        <v>2.71695551400387</v>
       </c>
       <c r="GZ14" s="0" t="n">
         <f aca="false">MAX(FW14:FX15)</f>
@@ -8522,103 +8524,103 @@
       <c r="CT15" s="5"/>
       <c r="CU15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.486359662901781</v>
+        <v>0.628913427168787</v>
       </c>
       <c r="CV15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.881456875390282</v>
+        <v>0.649757894436588</v>
       </c>
       <c r="CW15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.492500791080286</v>
+        <v>0.151218925166491</v>
       </c>
       <c r="CX15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.976015578701014</v>
+        <v>0.0441661751523105</v>
       </c>
       <c r="CY15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.584769173285932</v>
+        <v>0.746059217037563</v>
       </c>
       <c r="CZ15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.190080755333082</v>
+        <v>0.354476989776737</v>
       </c>
       <c r="DA15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.925345348981232</v>
+        <v>0.996877559647717</v>
       </c>
       <c r="DB15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.830173870049501</v>
+        <v>0.62610350380574</v>
       </c>
       <c r="DC15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.180911600813631</v>
+        <v>0.712576954294142</v>
       </c>
       <c r="DD15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.617106635368574</v>
+        <v>0.383265783728906</v>
       </c>
       <c r="DE15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.66196437054893</v>
+        <v>0.941821170299515</v>
       </c>
       <c r="DF15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0467643345837263</v>
+        <v>0.0618144895089422</v>
       </c>
       <c r="DG15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.319236710283117</v>
+        <v>0.0939294566508643</v>
       </c>
       <c r="DH15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.772690068214726</v>
+        <v>0.906809976173184</v>
       </c>
       <c r="DI15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.996922495824509</v>
+        <v>0.603950269324517</v>
       </c>
       <c r="DJ15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.995166075550886</v>
+        <v>0.685650452474626</v>
       </c>
       <c r="DK15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.200471394870893</v>
+        <v>0.343645209737725</v>
       </c>
       <c r="DL15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.683331799321733</v>
+        <v>0.526642837515458</v>
       </c>
       <c r="DM15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.492115457235893</v>
+        <v>0.439613248648045</v>
       </c>
       <c r="DN15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.332360660543631</v>
+        <v>0.174645595011789</v>
       </c>
       <c r="DO15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.48779139677649</v>
+        <v>0.378820747346235</v>
       </c>
       <c r="DP15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.526861834966658</v>
+        <v>0.129204232822694</v>
       </c>
       <c r="DQ15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.315768198492461</v>
+        <v>0.798359267046088</v>
       </c>
       <c r="DR15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967669394219624</v>
+        <v>0.140337502477776</v>
       </c>
       <c r="DS15" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0696249302097685</v>
+        <v>0.908795555839103</v>
       </c>
       <c r="DT15" s="5"/>
       <c r="DU15" s="5"/>
@@ -8638,7 +8640,7 @@
       </c>
       <c r="EC15" s="0" t="n">
         <f aca="false">IF(CX15&gt;($GD$1+0.001), CX15, 0)</f>
-        <v>0.976015578701014</v>
+        <v>0</v>
       </c>
       <c r="ED15" s="0" t="n">
         <f aca="false">IF(CY15&gt;($GD$1+0.001), CY15, 0)</f>
@@ -8650,7 +8652,7 @@
       </c>
       <c r="EF15" s="0" t="n">
         <f aca="false">IF(DA15&gt;($GD$1+0.001), DA15, 0)</f>
-        <v>0.925345348981232</v>
+        <v>0.996877559647717</v>
       </c>
       <c r="EG15" s="0" t="n">
         <f aca="false">IF(DB15&gt;($GD$1+0.001), DB15, 0)</f>
@@ -8666,7 +8668,7 @@
       </c>
       <c r="EJ15" s="0" t="n">
         <f aca="false">IF(DE15&gt;($GD$1+0.001), DE15, 0)</f>
-        <v>0</v>
+        <v>0.941821170299515</v>
       </c>
       <c r="EK15" s="0" t="n">
         <f aca="false">IF(DF15&gt;($GD$1+0.001), DF15, 0)</f>
@@ -8678,15 +8680,15 @@
       </c>
       <c r="EM15" s="0" t="n">
         <f aca="false">IF(DH15&gt;($GD$1+0.001), DH15, 0)</f>
-        <v>0</v>
+        <v>0.906809976173184</v>
       </c>
       <c r="EN15" s="0" t="n">
         <f aca="false">IF(DI15&gt;($GD$1+0.001), DI15, 0)</f>
-        <v>0.996922495824509</v>
+        <v>0</v>
       </c>
       <c r="EO15" s="0" t="n">
         <f aca="false">IF(DJ15&gt;($GD$1+0.001), DJ15, 0)</f>
-        <v>0.995166075550886</v>
+        <v>0</v>
       </c>
       <c r="EP15" s="0" t="n">
         <f aca="false">IF(DK15&gt;($GD$1+0.001), DK15, 0)</f>
@@ -8718,11 +8720,11 @@
       </c>
       <c r="EW15" s="0" t="n">
         <f aca="false">IF(DR15&gt;($GD$1+0.001), DR15, 0)</f>
-        <v>0.967669394219624</v>
+        <v>0</v>
       </c>
       <c r="EX15" s="0" t="n">
         <f aca="false">IF(DS15&gt;($GD$1+0.001), DS15, 0)</f>
-        <v>0</v>
+        <v>0.908795555839103</v>
       </c>
       <c r="EY15" s="5"/>
       <c r="EZ15" s="5"/>
@@ -8742,7 +8744,7 @@
       </c>
       <c r="FH15" s="0" t="n">
         <f aca="false">IF(EC15=0, 0, BT15)</f>
-        <v>0.49070380821691</v>
+        <v>0</v>
       </c>
       <c r="FI15" s="0" t="n">
         <f aca="false">IF(ED15=0, 0, BU15)</f>
@@ -8782,15 +8784,15 @@
       </c>
       <c r="FR15" s="0" t="n">
         <f aca="false">IF(EM15=0, 0, CD15)</f>
-        <v>0</v>
+        <v>0.199860554559374</v>
       </c>
       <c r="FS15" s="0" t="n">
         <f aca="false">IF(EN15=0, 0, CE15)</f>
-        <v>0.407868433997682</v>
+        <v>0</v>
       </c>
       <c r="FT15" s="0" t="n">
         <f aca="false">IF(EO15=0, 0, CF15)</f>
-        <v>0.647221891274754</v>
+        <v>0</v>
       </c>
       <c r="FU15" s="0" t="n">
         <f aca="false">IF(EP15=0, 0, CG15)</f>
@@ -9139,103 +9141,103 @@
       <c r="CT16" s="5"/>
       <c r="CU16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.235367325029731</v>
+        <v>0.328576128831192</v>
       </c>
       <c r="CV16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.192135626827051</v>
+        <v>0.0341584687814586</v>
       </c>
       <c r="CW16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0580028974237396</v>
+        <v>0.364994779825494</v>
       </c>
       <c r="CX16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.343124973895598</v>
+        <v>0.188016824067814</v>
       </c>
       <c r="CY16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.435991668095849</v>
+        <v>0.898170055732845</v>
       </c>
       <c r="CZ16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.651883490654609</v>
+        <v>0.833677950405164</v>
       </c>
       <c r="DA16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.988480296556162</v>
+        <v>0.139389187758725</v>
       </c>
       <c r="DB16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.42763450680182</v>
+        <v>0.834873493726297</v>
       </c>
       <c r="DC16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.288413490251604</v>
+        <v>0.156885300381675</v>
       </c>
       <c r="DD16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.84582806168345</v>
+        <v>0.672453154611618</v>
       </c>
       <c r="DE16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.778378326692021</v>
+        <v>0.684212968715815</v>
       </c>
       <c r="DF16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.936467946773657</v>
+        <v>0.176051600711135</v>
       </c>
       <c r="DG16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.585072274601744</v>
+        <v>0.992459883353782</v>
       </c>
       <c r="DH16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.151409990728847</v>
+        <v>0.495633650169555</v>
       </c>
       <c r="DI16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.556639637214358</v>
+        <v>0.921564340097694</v>
       </c>
       <c r="DJ16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.957140050484208</v>
+        <v>0.2518026885731</v>
       </c>
       <c r="DK16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.308334327148415</v>
+        <v>0.587725052313165</v>
       </c>
       <c r="DL16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.975754088000894</v>
+        <v>0.323227103204031</v>
       </c>
       <c r="DM16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.925680930506092</v>
+        <v>0.986786457751629</v>
       </c>
       <c r="DN16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.63935936131225</v>
+        <v>0.167983308933479</v>
       </c>
       <c r="DO16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.785532163695467</v>
+        <v>0.539408982651662</v>
       </c>
       <c r="DP16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.523669139388642</v>
+        <v>0.271447800651295</v>
       </c>
       <c r="DQ16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.845882396477657</v>
+        <v>0.666268870219789</v>
       </c>
       <c r="DR16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.606910006511506</v>
+        <v>0.848164296280427</v>
       </c>
       <c r="DS16" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.546472120323165</v>
+        <v>0.630225084780547</v>
       </c>
       <c r="DT16" s="5"/>
       <c r="DU16" s="5"/>
@@ -9267,7 +9269,7 @@
       </c>
       <c r="EF16" s="0" t="n">
         <f aca="false">IF(DA16&gt;($GD$1+0.001), DA16, 0)</f>
-        <v>0.988480296556162</v>
+        <v>0</v>
       </c>
       <c r="EG16" s="0" t="n">
         <f aca="false">IF(DB16&gt;($GD$1+0.001), DB16, 0)</f>
@@ -9287,11 +9289,11 @@
       </c>
       <c r="EK16" s="0" t="n">
         <f aca="false">IF(DF16&gt;($GD$1+0.001), DF16, 0)</f>
-        <v>0.936467946773657</v>
+        <v>0</v>
       </c>
       <c r="EL16" s="0" t="n">
         <f aca="false">IF(DG16&gt;($GD$1+0.001), DG16, 0)</f>
-        <v>0</v>
+        <v>0.992459883353782</v>
       </c>
       <c r="EM16" s="0" t="n">
         <f aca="false">IF(DH16&gt;($GD$1+0.001), DH16, 0)</f>
@@ -9299,11 +9301,11 @@
       </c>
       <c r="EN16" s="0" t="n">
         <f aca="false">IF(DI16&gt;($GD$1+0.001), DI16, 0)</f>
-        <v>0</v>
+        <v>0.921564340097694</v>
       </c>
       <c r="EO16" s="0" t="n">
         <f aca="false">IF(DJ16&gt;($GD$1+0.001), DJ16, 0)</f>
-        <v>0.957140050484208</v>
+        <v>0</v>
       </c>
       <c r="EP16" s="0" t="n">
         <f aca="false">IF(DK16&gt;($GD$1+0.001), DK16, 0)</f>
@@ -9311,11 +9313,11 @@
       </c>
       <c r="EQ16" s="0" t="n">
         <f aca="false">IF(DL16&gt;($GD$1+0.001), DL16, 0)</f>
-        <v>0.975754088000894</v>
+        <v>0</v>
       </c>
       <c r="ER16" s="0" t="n">
         <f aca="false">IF(DM16&gt;($GD$1+0.001), DM16, 0)</f>
-        <v>0.925680930506092</v>
+        <v>0.986786457751629</v>
       </c>
       <c r="ES16" s="0" t="n">
         <f aca="false">IF(DN16&gt;($GD$1+0.001), DN16, 0)</f>
@@ -9477,7 +9479,7 @@
       </c>
       <c r="GV16" s="0" t="n">
         <f aca="false">MAX(FS16:FT17)</f>
-        <v>0</v>
+        <v>0.650111550431506</v>
       </c>
       <c r="GX16" s="0" t="n">
         <f aca="false">MAX(FU16:FV17)</f>
@@ -9489,7 +9491,7 @@
       </c>
       <c r="HB16" s="0" t="n">
         <f aca="false">MAX(FY16:FZ17)</f>
-        <v>0</v>
+        <v>7.80518694832909</v>
       </c>
       <c r="HD16" s="0" t="n">
         <f aca="false">MAX(GA16:GB17)</f>
@@ -9845,103 +9847,103 @@
       <c r="CT17" s="5"/>
       <c r="CU17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.675616289981022</v>
+        <v>0.658692670542156</v>
       </c>
       <c r="CV17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00483692412515958</v>
+        <v>0.159485029256702</v>
       </c>
       <c r="CW17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.138634937429401</v>
+        <v>0.507765795304743</v>
       </c>
       <c r="CX17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.8494746662462</v>
+        <v>0.0615772490532251</v>
       </c>
       <c r="CY17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.255423733894344</v>
+        <v>0.933355363132358</v>
       </c>
       <c r="CZ17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.591131647924727</v>
+        <v>0.623886678973193</v>
       </c>
       <c r="DA17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.200394232320067</v>
+        <v>0.731650102755754</v>
       </c>
       <c r="DB17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.719237164425882</v>
+        <v>0.13908716064669</v>
       </c>
       <c r="DC17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.233648129044389</v>
+        <v>0.682356982652248</v>
       </c>
       <c r="DD17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.253624061781106</v>
+        <v>0.822586276502259</v>
       </c>
       <c r="DE17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.650584934904723</v>
+        <v>0.251243731934847</v>
       </c>
       <c r="DF17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0562373408451121</v>
+        <v>0.808497499962662</v>
       </c>
       <c r="DG17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.387845679103017</v>
+        <v>0.666459284165594</v>
       </c>
       <c r="DH17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.722751697642182</v>
+        <v>0.439118798884418</v>
       </c>
       <c r="DI17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.830169285032636</v>
+        <v>0.323471834385373</v>
       </c>
       <c r="DJ17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.43395814601126</v>
+        <v>0.950962532857839</v>
       </c>
       <c r="DK17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0654138131973114</v>
+        <v>0.813868975287832</v>
       </c>
       <c r="DL17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.686570516459123</v>
+        <v>0.626793940273277</v>
       </c>
       <c r="DM17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.112618884161318</v>
+        <v>0.55357687061727</v>
       </c>
       <c r="DN17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.157741479891659</v>
+        <v>0.857781810253898</v>
       </c>
       <c r="DO17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.531115879781496</v>
+        <v>0.929716239934946</v>
       </c>
       <c r="DP17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.509448017433355</v>
+        <v>0.507364170387058</v>
       </c>
       <c r="DQ17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.749301491648461</v>
+        <v>0.560154966216612</v>
       </c>
       <c r="DR17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.319590772344213</v>
+        <v>0.174582989348395</v>
       </c>
       <c r="DS17" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.792883439528965</v>
+        <v>0.759585748370243</v>
       </c>
       <c r="DT17" s="5"/>
       <c r="DU17" s="5"/>
@@ -9965,7 +9967,7 @@
       </c>
       <c r="ED17" s="0" t="n">
         <f aca="false">IF(CY17&gt;($GD$1+0.001), CY17, 0)</f>
-        <v>0</v>
+        <v>0.933355363132358</v>
       </c>
       <c r="EE17" s="0" t="n">
         <f aca="false">IF(CZ17&gt;($GD$1+0.001), CZ17, 0)</f>
@@ -10009,7 +10011,7 @@
       </c>
       <c r="EO17" s="0" t="n">
         <f aca="false">IF(DJ17&gt;($GD$1+0.001), DJ17, 0)</f>
-        <v>0</v>
+        <v>0.950962532857839</v>
       </c>
       <c r="EP17" s="0" t="n">
         <f aca="false">IF(DK17&gt;($GD$1+0.001), DK17, 0)</f>
@@ -10029,7 +10031,7 @@
       </c>
       <c r="ET17" s="0" t="n">
         <f aca="false">IF(DO17&gt;($GD$1+0.001), DO17, 0)</f>
-        <v>0</v>
+        <v>0.929716239934946</v>
       </c>
       <c r="EU17" s="0" t="n">
         <f aca="false">IF(DP17&gt;($GD$1+0.001), DP17, 0)</f>
@@ -10109,7 +10111,7 @@
       </c>
       <c r="FT17" s="0" t="n">
         <f aca="false">IF(EO17=0, 0, CF17)</f>
-        <v>0</v>
+        <v>0.650111550431506</v>
       </c>
       <c r="FU17" s="0" t="n">
         <f aca="false">IF(EP17=0, 0, CG17)</f>
@@ -10129,7 +10131,7 @@
       </c>
       <c r="FY17" s="0" t="n">
         <f aca="false">IF(ET17=0, 0, CK17)</f>
-        <v>0</v>
+        <v>7.80518694832909</v>
       </c>
       <c r="FZ17" s="0" t="n">
         <f aca="false">IF(EU17=0, 0, CL17)</f>
@@ -10449,103 +10451,103 @@
       <c r="CT18" s="5"/>
       <c r="CU18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.177586986447968</v>
+        <v>0.659332461702885</v>
       </c>
       <c r="CV18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.425513423939386</v>
+        <v>0.175067867778577</v>
       </c>
       <c r="CW18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.477420182066138</v>
+        <v>0.361320378072924</v>
       </c>
       <c r="CX18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.950248287249253</v>
+        <v>0.608489210815793</v>
       </c>
       <c r="CY18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.4065490563824</v>
+        <v>0.327908451341472</v>
       </c>
       <c r="CZ18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.404575000043775</v>
+        <v>0.712389826327521</v>
       </c>
       <c r="DA18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0774634941762858</v>
+        <v>0.922300071340654</v>
       </c>
       <c r="DB18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.273704392705559</v>
+        <v>0.857666141258805</v>
       </c>
       <c r="DC18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.294810183834238</v>
+        <v>0.498554559055005</v>
       </c>
       <c r="DD18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0092329408978059</v>
+        <v>0.233804059289197</v>
       </c>
       <c r="DE18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.170647430420188</v>
+        <v>0.209441804185032</v>
       </c>
       <c r="DF18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.678628389816466</v>
+        <v>0.770490359181244</v>
       </c>
       <c r="DG18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.701857090696666</v>
+        <v>0.511435386844237</v>
       </c>
       <c r="DH18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.530956070009147</v>
+        <v>0.165651663055143</v>
       </c>
       <c r="DI18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.13181777890225</v>
+        <v>0.905796801947256</v>
       </c>
       <c r="DJ18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0322144763199076</v>
+        <v>0.173280735431291</v>
       </c>
       <c r="DK18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.575838713350872</v>
+        <v>0.152898617325207</v>
       </c>
       <c r="DL18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0680802169882761</v>
+        <v>0.557586836063519</v>
       </c>
       <c r="DM18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.338348415845345</v>
+        <v>0.420996040932965</v>
       </c>
       <c r="DN18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.636426446165024</v>
+        <v>0.239002254171053</v>
       </c>
       <c r="DO18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.43542523810011</v>
+        <v>0.166021408750461</v>
       </c>
       <c r="DP18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.91154781204451</v>
+        <v>0.175669989132762</v>
       </c>
       <c r="DQ18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.142049183276572</v>
+        <v>0.171724801991054</v>
       </c>
       <c r="DR18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.333816602403791</v>
+        <v>0.376040039582855</v>
       </c>
       <c r="DS18" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.846759580668266</v>
+        <v>0.662785906700443</v>
       </c>
       <c r="DT18" s="5"/>
       <c r="DU18" s="5"/>
@@ -10565,7 +10567,7 @@
       </c>
       <c r="EC18" s="0" t="n">
         <f aca="false">IF(CX18&gt;($GD$1+0.001), CX18, 0)</f>
-        <v>0.950248287249253</v>
+        <v>0</v>
       </c>
       <c r="ED18" s="0" t="n">
         <f aca="false">IF(CY18&gt;($GD$1+0.001), CY18, 0)</f>
@@ -10577,7 +10579,7 @@
       </c>
       <c r="EF18" s="0" t="n">
         <f aca="false">IF(DA18&gt;($GD$1+0.001), DA18, 0)</f>
-        <v>0</v>
+        <v>0.922300071340654</v>
       </c>
       <c r="EG18" s="0" t="n">
         <f aca="false">IF(DB18&gt;($GD$1+0.001), DB18, 0)</f>
@@ -10609,7 +10611,7 @@
       </c>
       <c r="EN18" s="0" t="n">
         <f aca="false">IF(DI18&gt;($GD$1+0.001), DI18, 0)</f>
-        <v>0</v>
+        <v>0.905796801947256</v>
       </c>
       <c r="EO18" s="0" t="n">
         <f aca="false">IF(DJ18&gt;($GD$1+0.001), DJ18, 0)</f>
@@ -10637,7 +10639,7 @@
       </c>
       <c r="EU18" s="0" t="n">
         <f aca="false">IF(DP18&gt;($GD$1+0.001), DP18, 0)</f>
-        <v>0.91154781204451</v>
+        <v>0</v>
       </c>
       <c r="EV18" s="0" t="n">
         <f aca="false">IF(DQ18&gt;($GD$1+0.001), DQ18, 0)</f>
@@ -10713,7 +10715,7 @@
       </c>
       <c r="FS18" s="0" t="n">
         <f aca="false">IF(EN18=0, 0, CE18)</f>
-        <v>0</v>
+        <v>3.26723881970964</v>
       </c>
       <c r="FT18" s="0" t="n">
         <f aca="false">IF(EO18=0, 0, CF18)</f>
@@ -10737,7 +10739,7 @@
       </c>
       <c r="FZ18" s="0" t="n">
         <f aca="false">IF(EU18=0, 0, CL18)</f>
-        <v>3.62510078111476</v>
+        <v>0</v>
       </c>
       <c r="GA18" s="0" t="n">
         <f aca="false">IF(EV18=0, 0, CM18)</f>
@@ -10775,7 +10777,7 @@
       </c>
       <c r="GR18" s="0" t="n">
         <f aca="false">MAX(FO18:FP19)</f>
-        <v>2.28551788324857</v>
+        <v>0</v>
       </c>
       <c r="GT18" s="0" t="n">
         <f aca="false">MAX(FQ18:FR19)</f>
@@ -10783,11 +10785,11 @@
       </c>
       <c r="GV18" s="0" t="n">
         <f aca="false">MAX(FS18:FT19)</f>
-        <v>0</v>
+        <v>3.26723881970964</v>
       </c>
       <c r="GX18" s="0" t="n">
         <f aca="false">MAX(FU18:FV19)</f>
-        <v>2.64015149511808</v>
+        <v>0</v>
       </c>
       <c r="GZ18" s="0" t="n">
         <f aca="false">MAX(FW18:FX19)</f>
@@ -10795,7 +10797,7 @@
       </c>
       <c r="HB18" s="0" t="n">
         <f aca="false">MAX(FY18:FZ19)</f>
-        <v>3.62510078111476</v>
+        <v>0</v>
       </c>
       <c r="HD18" s="0" t="n">
         <f aca="false">MAX(GA18:GB19)</f>
@@ -11135,103 +11137,103 @@
       <c r="CT19" s="5"/>
       <c r="CU19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.603278459795446</v>
+        <v>0.955316270124896</v>
       </c>
       <c r="CV19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.602776725832565</v>
+        <v>0.393023718439226</v>
       </c>
       <c r="CW19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.34570376837634</v>
+        <v>0.95224883217939</v>
       </c>
       <c r="CX19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.614181572857906</v>
+        <v>0.206453406558586</v>
       </c>
       <c r="CY19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.327355325221287</v>
+        <v>0.104360227477166</v>
       </c>
       <c r="CZ19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.857463878250023</v>
+        <v>0.690450334703132</v>
       </c>
       <c r="DA19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.410177330412086</v>
+        <v>0.7527130719213</v>
       </c>
       <c r="DB19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.473305609259737</v>
+        <v>0.872515282186778</v>
       </c>
       <c r="DC19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.324564303565406</v>
+        <v>0.685308299461953</v>
       </c>
       <c r="DD19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.771644289187276</v>
+        <v>0.0946739556445249</v>
       </c>
       <c r="DE19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.451950614606734</v>
+        <v>0.672958593517829</v>
       </c>
       <c r="DF19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.929436697456445</v>
+        <v>0.556710923412901</v>
       </c>
       <c r="DG19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.318852957296275</v>
+        <v>0.700409829970226</v>
       </c>
       <c r="DH19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.877147210351967</v>
+        <v>0.778617112795126</v>
       </c>
       <c r="DI19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.478902686153689</v>
+        <v>0.220403394700441</v>
       </c>
       <c r="DJ19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.871516883594914</v>
+        <v>0.658740563378206</v>
       </c>
       <c r="DK19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.364160861924722</v>
+        <v>0.708721556438255</v>
       </c>
       <c r="DL19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.948666580792758</v>
+        <v>0.519450859010497</v>
       </c>
       <c r="DM19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.136835572947851</v>
+        <v>0.544133694225385</v>
       </c>
       <c r="DN19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.46852285925917</v>
+        <v>0.110796081819047</v>
       </c>
       <c r="DO19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.64086564052842</v>
+        <v>0.550073879910636</v>
       </c>
       <c r="DP19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.966923275566129</v>
+        <v>0.117383803906162</v>
       </c>
       <c r="DQ19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.54000227904936</v>
+        <v>0.173528939605946</v>
       </c>
       <c r="DR19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.62570424000565</v>
+        <v>0.747417066004868</v>
       </c>
       <c r="DS19" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502473236956546</v>
+        <v>0.323922897170967</v>
       </c>
       <c r="DT19" s="5"/>
       <c r="DU19" s="5"/>
@@ -11239,7 +11241,7 @@
       <c r="DY19" s="5"/>
       <c r="DZ19" s="0" t="n">
         <f aca="false">IF(CU19&gt;($GD$1+0.001), CU19, 0)</f>
-        <v>0</v>
+        <v>0.955316270124896</v>
       </c>
       <c r="EA19" s="0" t="n">
         <f aca="false">IF(CV19&gt;($GD$1+0.001), CV19, 0)</f>
@@ -11247,7 +11249,7 @@
       </c>
       <c r="EB19" s="0" t="n">
         <f aca="false">IF(CW19&gt;($GD$1+0.001), CW19, 0)</f>
-        <v>0</v>
+        <v>0.95224883217939</v>
       </c>
       <c r="EC19" s="0" t="n">
         <f aca="false">IF(CX19&gt;($GD$1+0.001), CX19, 0)</f>
@@ -11283,7 +11285,7 @@
       </c>
       <c r="EK19" s="0" t="n">
         <f aca="false">IF(DF19&gt;($GD$1+0.001), DF19, 0)</f>
-        <v>0.929436697456445</v>
+        <v>0</v>
       </c>
       <c r="EL19" s="0" t="n">
         <f aca="false">IF(DG19&gt;($GD$1+0.001), DG19, 0)</f>
@@ -11307,7 +11309,7 @@
       </c>
       <c r="EQ19" s="0" t="n">
         <f aca="false">IF(DL19&gt;($GD$1+0.001), DL19, 0)</f>
-        <v>0.948666580792758</v>
+        <v>0</v>
       </c>
       <c r="ER19" s="0" t="n">
         <f aca="false">IF(DM19&gt;($GD$1+0.001), DM19, 0)</f>
@@ -11323,7 +11325,7 @@
       </c>
       <c r="EU19" s="0" t="n">
         <f aca="false">IF(DP19&gt;($GD$1+0.001), DP19, 0)</f>
-        <v>0.966923275566129</v>
+        <v>0</v>
       </c>
       <c r="EV19" s="0" t="n">
         <f aca="false">IF(DQ19&gt;($GD$1+0.001), DQ19, 0)</f>
@@ -11387,7 +11389,7 @@
       </c>
       <c r="FP19" s="0" t="n">
         <f aca="false">IF(EK19=0, 0, CB19)</f>
-        <v>2.28551788324857</v>
+        <v>0</v>
       </c>
       <c r="FQ19" s="0" t="n">
         <f aca="false">IF(EL19=0, 0, CC19)</f>
@@ -11411,7 +11413,7 @@
       </c>
       <c r="FV19" s="0" t="n">
         <f aca="false">IF(EQ19=0, 0, CH19)</f>
-        <v>2.64015149511808</v>
+        <v>0</v>
       </c>
       <c r="FW19" s="0" t="n">
         <f aca="false">IF(ER19=0, 0, CI19)</f>
@@ -11427,7 +11429,7 @@
       </c>
       <c r="FZ19" s="0" t="n">
         <f aca="false">IF(EU19=0, 0, CL19)</f>
-        <v>3.44319220853568</v>
+        <v>0</v>
       </c>
       <c r="GA19" s="0" t="n">
         <f aca="false">IF(EV19=0, 0, CM19)</f>
@@ -11740,103 +11742,103 @@
       <c r="CT20" s="5"/>
       <c r="CU20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.987864215919858</v>
+        <v>0.829776199111767</v>
       </c>
       <c r="CV20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.590732770651356</v>
+        <v>0.776610579622925</v>
       </c>
       <c r="CW20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.503205078133669</v>
+        <v>0.153956639154876</v>
       </c>
       <c r="CX20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.440332922390812</v>
+        <v>0.105195082684445</v>
       </c>
       <c r="CY20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.235277427924652</v>
+        <v>0.455064956386177</v>
       </c>
       <c r="CZ20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.251511547269185</v>
+        <v>0.896112199068212</v>
       </c>
       <c r="DA20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.813987029569062</v>
+        <v>0.412629139444314</v>
       </c>
       <c r="DB20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.508661563829745</v>
+        <v>0.255432492690084</v>
       </c>
       <c r="DC20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.964151492400902</v>
+        <v>0.730844566728212</v>
       </c>
       <c r="DD20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.59088861005236</v>
+        <v>0.09205954006992</v>
       </c>
       <c r="DE20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.35795655321943</v>
+        <v>0.637227223539307</v>
       </c>
       <c r="DF20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.533414153054522</v>
+        <v>0.539474883231931</v>
       </c>
       <c r="DG20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.919909117479157</v>
+        <v>0.879630432304361</v>
       </c>
       <c r="DH20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.563919908498041</v>
+        <v>0.380748887027433</v>
       </c>
       <c r="DI20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.70739954421164</v>
+        <v>0.732732310092273</v>
       </c>
       <c r="DJ20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.637733172944014</v>
+        <v>0.394311348360721</v>
       </c>
       <c r="DK20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129132613957884</v>
+        <v>0.015216570358263</v>
       </c>
       <c r="DL20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.169535303693543</v>
+        <v>0.571343379652572</v>
       </c>
       <c r="DM20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.291098030552066</v>
+        <v>0.115366445150181</v>
       </c>
       <c r="DN20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.938833055051164</v>
+        <v>0.966039735249015</v>
       </c>
       <c r="DO20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.281087902136975</v>
+        <v>0.25832885488035</v>
       </c>
       <c r="DP20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.216925587910205</v>
+        <v>0.320329630134245</v>
       </c>
       <c r="DQ20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.563815583944321</v>
+        <v>0.7313822012705</v>
       </c>
       <c r="DR20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.730022420986334</v>
+        <v>0.103122459582825</v>
       </c>
       <c r="DS20" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.503346896320869</v>
+        <v>0.979065837530686</v>
       </c>
       <c r="DT20" s="5"/>
       <c r="DU20" s="5"/>
@@ -11844,7 +11846,7 @@
       <c r="DY20" s="5"/>
       <c r="DZ20" s="0" t="n">
         <f aca="false">IF(CU20&gt;($GD$1+0.001), CU20, 0)</f>
-        <v>0.987864215919858</v>
+        <v>0</v>
       </c>
       <c r="EA20" s="0" t="n">
         <f aca="false">IF(CV20&gt;($GD$1+0.001), CV20, 0)</f>
@@ -11876,7 +11878,7 @@
       </c>
       <c r="EH20" s="0" t="n">
         <f aca="false">IF(DC20&gt;($GD$1+0.001), DC20, 0)</f>
-        <v>0.964151492400902</v>
+        <v>0</v>
       </c>
       <c r="EI20" s="0" t="n">
         <f aca="false">IF(DD20&gt;($GD$1+0.001), DD20, 0)</f>
@@ -11892,7 +11894,7 @@
       </c>
       <c r="EL20" s="0" t="n">
         <f aca="false">IF(DG20&gt;($GD$1+0.001), DG20, 0)</f>
-        <v>0.919909117479157</v>
+        <v>0</v>
       </c>
       <c r="EM20" s="0" t="n">
         <f aca="false">IF(DH20&gt;($GD$1+0.001), DH20, 0)</f>
@@ -11920,7 +11922,7 @@
       </c>
       <c r="ES20" s="0" t="n">
         <f aca="false">IF(DN20&gt;($GD$1+0.001), DN20, 0)</f>
-        <v>0.938833055051164</v>
+        <v>0.966039735249015</v>
       </c>
       <c r="ET20" s="0" t="n">
         <f aca="false">IF(DO20&gt;($GD$1+0.001), DO20, 0)</f>
@@ -11940,7 +11942,7 @@
       </c>
       <c r="EX20" s="0" t="n">
         <f aca="false">IF(DS20&gt;($GD$1+0.001), DS20, 0)</f>
-        <v>0</v>
+        <v>0.979065837530686</v>
       </c>
       <c r="EY20" s="5"/>
       <c r="EZ20" s="5"/>
@@ -11980,7 +11982,7 @@
       </c>
       <c r="FM20" s="0" t="n">
         <f aca="false">IF(EH20=0, 0, BY20)</f>
-        <v>1.88011552369395</v>
+        <v>0</v>
       </c>
       <c r="FN20" s="0" t="n">
         <f aca="false">IF(EI20=0, 0, BZ20)</f>
@@ -11996,7 +11998,7 @@
       </c>
       <c r="FQ20" s="0" t="n">
         <f aca="false">IF(EL20=0, 0, CC20)</f>
-        <v>5.32365105868963</v>
+        <v>0</v>
       </c>
       <c r="FR20" s="0" t="n">
         <f aca="false">IF(EM20=0, 0, CD20)</f>
@@ -12066,7 +12068,7 @@
       </c>
       <c r="GP20" s="0" t="n">
         <f aca="false">MAX(FM20:FN21)</f>
-        <v>1.88011552369395</v>
+        <v>0</v>
       </c>
       <c r="GR20" s="0" t="n">
         <f aca="false">MAX(FO20:FP21)</f>
@@ -12074,7 +12076,7 @@
       </c>
       <c r="GT20" s="0" t="n">
         <f aca="false">MAX(FQ20:FR21)</f>
-        <v>5.32365105868963</v>
+        <v>0</v>
       </c>
       <c r="GV20" s="0" t="n">
         <f aca="false">MAX(FS20:FT21)</f>
@@ -12082,7 +12084,7 @@
       </c>
       <c r="GX20" s="0" t="n">
         <f aca="false">MAX(FU20:FV21)</f>
-        <v>0</v>
+        <v>0.4241247260468</v>
       </c>
       <c r="GZ20" s="0" t="n">
         <f aca="false">MAX(FW20:FX21)</f>
@@ -12436,103 +12438,103 @@
       <c r="CT21" s="5"/>
       <c r="CU21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.69403570689282</v>
+        <v>0.493275868110987</v>
       </c>
       <c r="CV21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.68836871152909</v>
+        <v>0.0196750071988269</v>
       </c>
       <c r="CW21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502815590870741</v>
+        <v>0.624620112640555</v>
       </c>
       <c r="CX21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.669819402562749</v>
+        <v>0.550216514895292</v>
       </c>
       <c r="CY21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.142788603215921</v>
+        <v>0.586491038964167</v>
       </c>
       <c r="CZ21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.349418785987922</v>
+        <v>0.690805616878431</v>
       </c>
       <c r="DA21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.683064931088522</v>
+        <v>0.540611411045168</v>
       </c>
       <c r="DB21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.378864684779594</v>
+        <v>0.882088576518591</v>
       </c>
       <c r="DC21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.137256547097071</v>
+        <v>0.802702249229555</v>
       </c>
       <c r="DD21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.147664560373817</v>
+        <v>0.622534073671891</v>
       </c>
       <c r="DE21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0148277984979994</v>
+        <v>0.237972669791781</v>
       </c>
       <c r="DF21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.425186557568369</v>
+        <v>0.402061791941523</v>
       </c>
       <c r="DG21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.866875938746983</v>
+        <v>0.0344663731382943</v>
       </c>
       <c r="DH21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.16984294109334</v>
+        <v>0.209338174647508</v>
       </c>
       <c r="DI21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.17014789827282</v>
+        <v>0.876550645606074</v>
       </c>
       <c r="DJ21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0631019356753091</v>
+        <v>0.0736467018932029</v>
       </c>
       <c r="DK21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.871968339345602</v>
+        <v>0.986029476149604</v>
       </c>
       <c r="DL21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.194348557157282</v>
+        <v>0.834706663724425</v>
       </c>
       <c r="DM21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.173709092484848</v>
+        <v>0.498483919432982</v>
       </c>
       <c r="DN21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.614494425791332</v>
+        <v>0.797960545488888</v>
       </c>
       <c r="DO21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.161440898429603</v>
+        <v>0.246938620877578</v>
       </c>
       <c r="DP21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.286064719163858</v>
+        <v>0.423769314365069</v>
       </c>
       <c r="DQ21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.587066274543086</v>
+        <v>0.973972881223716</v>
       </c>
       <c r="DR21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00950843909888024</v>
+        <v>0.313268483924287</v>
       </c>
       <c r="DS21" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.260148593155209</v>
+        <v>0.574032455604622</v>
       </c>
       <c r="DT21" s="5"/>
       <c r="DU21" s="5"/>
@@ -12604,7 +12606,7 @@
       </c>
       <c r="EP21" s="0" t="n">
         <f aca="false">IF(DK21&gt;($GD$1+0.001), DK21, 0)</f>
-        <v>0</v>
+        <v>0.986029476149604</v>
       </c>
       <c r="EQ21" s="0" t="n">
         <f aca="false">IF(DL21&gt;($GD$1+0.001), DL21, 0)</f>
@@ -12628,7 +12630,7 @@
       </c>
       <c r="EV21" s="0" t="n">
         <f aca="false">IF(DQ21&gt;($GD$1+0.001), DQ21, 0)</f>
-        <v>0</v>
+        <v>0.973972881223716</v>
       </c>
       <c r="EW21" s="0" t="n">
         <f aca="false">IF(DR21&gt;($GD$1+0.001), DR21, 0)</f>
@@ -12704,7 +12706,7 @@
       </c>
       <c r="FU21" s="0" t="n">
         <f aca="false">IF(EP21=0, 0, CG21)</f>
-        <v>0</v>
+        <v>0.4241247260468</v>
       </c>
       <c r="FV21" s="0" t="n">
         <f aca="false">IF(EQ21=0, 0, CH21)</f>
@@ -13037,103 +13039,103 @@
       <c r="CT22" s="5"/>
       <c r="CU22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.750333902548697</v>
+        <v>0.299051376575466</v>
       </c>
       <c r="CV22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139135924007401</v>
+        <v>0.58999972849901</v>
       </c>
       <c r="CW22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.224905966971578</v>
+        <v>0.737547783590772</v>
       </c>
       <c r="CX22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.462077579195736</v>
+        <v>0.0942553145598221</v>
       </c>
       <c r="CY22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.58982201053736</v>
+        <v>0.408130922578828</v>
       </c>
       <c r="CZ22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.983762664827381</v>
+        <v>0.65904666371667</v>
       </c>
       <c r="DA22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.355175885101516</v>
+        <v>0.437768157041606</v>
       </c>
       <c r="DB22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.239775954784367</v>
+        <v>0.56912392929933</v>
       </c>
       <c r="DC22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.963566337990478</v>
+        <v>0.532137652507972</v>
       </c>
       <c r="DD22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.976109977783114</v>
+        <v>0.180474983477436</v>
       </c>
       <c r="DE22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.376565606286616</v>
+        <v>0.0424871848110315</v>
       </c>
       <c r="DF22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.615418338939386</v>
+        <v>0.47473291937292</v>
       </c>
       <c r="DG22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.63974857152319</v>
+        <v>0.830965371968591</v>
       </c>
       <c r="DH22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.416027373711538</v>
+        <v>0.713454890020916</v>
       </c>
       <c r="DI22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.309861604512341</v>
+        <v>0.160066759309031</v>
       </c>
       <c r="DJ22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.370644918194825</v>
+        <v>0.220864847883616</v>
       </c>
       <c r="DK22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.986125933504516</v>
+        <v>0.513644528970082</v>
       </c>
       <c r="DL22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.642184601985716</v>
+        <v>0.650692287526947</v>
       </c>
       <c r="DM22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.665591474381421</v>
+        <v>0.70734822919025</v>
       </c>
       <c r="DN22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.593897908549354</v>
+        <v>0.235662159320175</v>
       </c>
       <c r="DO22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.620652538205749</v>
+        <v>0.802070035141047</v>
       </c>
       <c r="DP22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0425557006848096</v>
+        <v>0.219808341890899</v>
       </c>
       <c r="DQ22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.573023712282185</v>
+        <v>0.387191632980857</v>
       </c>
       <c r="DR22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.998390273669346</v>
+        <v>0.896825398074772</v>
       </c>
       <c r="DS22" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.610129988722592</v>
+        <v>0.632271007442785</v>
       </c>
       <c r="DT22" s="5"/>
       <c r="DU22" s="5"/>
@@ -13161,7 +13163,7 @@
       </c>
       <c r="EE22" s="0" t="n">
         <f aca="false">IF(CZ22&gt;($GD$1+0.001), CZ22, 0)</f>
-        <v>0.983762664827381</v>
+        <v>0</v>
       </c>
       <c r="EF22" s="0" t="n">
         <f aca="false">IF(DA22&gt;($GD$1+0.001), DA22, 0)</f>
@@ -13173,11 +13175,11 @@
       </c>
       <c r="EH22" s="0" t="n">
         <f aca="false">IF(DC22&gt;($GD$1+0.001), DC22, 0)</f>
-        <v>0.963566337990478</v>
+        <v>0</v>
       </c>
       <c r="EI22" s="0" t="n">
         <f aca="false">IF(DD22&gt;($GD$1+0.001), DD22, 0)</f>
-        <v>0.976109977783114</v>
+        <v>0</v>
       </c>
       <c r="EJ22" s="0" t="n">
         <f aca="false">IF(DE22&gt;($GD$1+0.001), DE22, 0)</f>
@@ -13205,7 +13207,7 @@
       </c>
       <c r="EP22" s="0" t="n">
         <f aca="false">IF(DK22&gt;($GD$1+0.001), DK22, 0)</f>
-        <v>0.986125933504516</v>
+        <v>0</v>
       </c>
       <c r="EQ22" s="0" t="n">
         <f aca="false">IF(DL22&gt;($GD$1+0.001), DL22, 0)</f>
@@ -13233,7 +13235,7 @@
       </c>
       <c r="EW22" s="0" t="n">
         <f aca="false">IF(DR22&gt;($GD$1+0.001), DR22, 0)</f>
-        <v>0.998390273669346</v>
+        <v>0</v>
       </c>
       <c r="EX22" s="0" t="n">
         <f aca="false">IF(DS22&gt;($GD$1+0.001), DS22, 0)</f>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="FJ22" s="0" t="n">
         <f aca="false">IF(EE22=0, 0, BV22)</f>
-        <v>1.71496950440501</v>
+        <v>0</v>
       </c>
       <c r="FK22" s="0" t="n">
         <f aca="false">IF(EF22=0, 0, BW22)</f>
@@ -13277,11 +13279,11 @@
       </c>
       <c r="FM22" s="0" t="n">
         <f aca="false">IF(EH22=0, 0, BY22)</f>
-        <v>4.30608075452443</v>
+        <v>0</v>
       </c>
       <c r="FN22" s="0" t="n">
         <f aca="false">IF(EI22=0, 0, BZ22)</f>
-        <v>2.84885451828457</v>
+        <v>0</v>
       </c>
       <c r="FO22" s="0" t="n">
         <f aca="false">IF(EJ22=0, 0, CA22)</f>
@@ -13309,7 +13311,7 @@
       </c>
       <c r="FU22" s="0" t="n">
         <f aca="false">IF(EP22=0, 0, CG22)</f>
-        <v>0.864708535398177</v>
+        <v>0</v>
       </c>
       <c r="FV22" s="0" t="n">
         <f aca="false">IF(EQ22=0, 0, CH22)</f>
@@ -13355,15 +13357,15 @@
       </c>
       <c r="GL22" s="0" t="n">
         <f aca="false">MAX(FI22:FJ23)</f>
-        <v>1.71496950440501</v>
+        <v>0</v>
       </c>
       <c r="GN22" s="0" t="n">
         <f aca="false">MAX(FK22:FL23)</f>
-        <v>2.35813096573279</v>
+        <v>0</v>
       </c>
       <c r="GP22" s="0" t="n">
         <f aca="false">MAX(FM22:FN23)</f>
-        <v>4.30608075452443</v>
+        <v>0</v>
       </c>
       <c r="GR22" s="0" t="n">
         <f aca="false">MAX(FO22:FP23)</f>
@@ -13379,7 +13381,7 @@
       </c>
       <c r="GX22" s="0" t="n">
         <f aca="false">MAX(FU22:FV23)</f>
-        <v>1.67447696749272</v>
+        <v>0</v>
       </c>
       <c r="GZ22" s="0" t="n">
         <f aca="false">MAX(FW22:FX23)</f>
@@ -13734,103 +13736,103 @@
       <c r="CT23" s="5"/>
       <c r="CU23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.183550465740391</v>
+        <v>0.0648629390931364</v>
       </c>
       <c r="CV23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.278629617995125</v>
+        <v>0.144000503956992</v>
       </c>
       <c r="CW23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.247967413680849</v>
+        <v>0.0142697507837407</v>
       </c>
       <c r="CX23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.248752944443462</v>
+        <v>0.182387491766321</v>
       </c>
       <c r="CY23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.482739426261133</v>
+        <v>0.591192911084492</v>
       </c>
       <c r="CZ23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.588347454159726</v>
+        <v>0.858422482948921</v>
       </c>
       <c r="DA23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.937861653928575</v>
+        <v>0.404457690179218</v>
       </c>
       <c r="DB23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.240226949629761</v>
+        <v>0.695270449959229</v>
       </c>
       <c r="DC23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0521235004169455</v>
+        <v>0.635133487620854</v>
       </c>
       <c r="DD23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.463124886787576</v>
+        <v>0.719010834721778</v>
       </c>
       <c r="DE23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.698744808897711</v>
+        <v>0.0245816628426539</v>
       </c>
       <c r="DF23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.919853928586475</v>
+        <v>0.807895435620409</v>
       </c>
       <c r="DG23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.284406307073923</v>
+        <v>0.194791583637376</v>
       </c>
       <c r="DH23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.346002489357549</v>
+        <v>0.196589765312498</v>
       </c>
       <c r="DI23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.911671634131839</v>
+        <v>0.774510210709548</v>
       </c>
       <c r="DJ23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.177079919582144</v>
+        <v>0.573406324018832</v>
       </c>
       <c r="DK23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.946669810639594</v>
+        <v>0.495171430409913</v>
       </c>
       <c r="DL23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.714443103836343</v>
+        <v>0.43721091644409</v>
       </c>
       <c r="DM23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0479863342117606</v>
+        <v>0.00738419117071652</v>
       </c>
       <c r="DN23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172279270829195</v>
+        <v>0.115601279332318</v>
       </c>
       <c r="DO23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.307607846336645</v>
+        <v>0.744790115361907</v>
       </c>
       <c r="DP23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0866610196519391</v>
+        <v>0.672288384697207</v>
       </c>
       <c r="DQ23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.231685303095411</v>
+        <v>0.72786180303048</v>
       </c>
       <c r="DR23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.504013057284063</v>
+        <v>0.747170679062362</v>
       </c>
       <c r="DS23" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.119378756465855</v>
+        <v>0.0693873545004265</v>
       </c>
       <c r="DT23" s="5"/>
       <c r="DU23" s="5"/>
@@ -13862,7 +13864,7 @@
       </c>
       <c r="EF23" s="0" t="n">
         <f aca="false">IF(DA23&gt;($GD$1+0.001), DA23, 0)</f>
-        <v>0.937861653928575</v>
+        <v>0</v>
       </c>
       <c r="EG23" s="0" t="n">
         <f aca="false">IF(DB23&gt;($GD$1+0.001), DB23, 0)</f>
@@ -13882,7 +13884,7 @@
       </c>
       <c r="EK23" s="0" t="n">
         <f aca="false">IF(DF23&gt;($GD$1+0.001), DF23, 0)</f>
-        <v>0.919853928586475</v>
+        <v>0</v>
       </c>
       <c r="EL23" s="0" t="n">
         <f aca="false">IF(DG23&gt;($GD$1+0.001), DG23, 0)</f>
@@ -13894,7 +13896,7 @@
       </c>
       <c r="EN23" s="0" t="n">
         <f aca="false">IF(DI23&gt;($GD$1+0.001), DI23, 0)</f>
-        <v>0.911671634131839</v>
+        <v>0</v>
       </c>
       <c r="EO23" s="0" t="n">
         <f aca="false">IF(DJ23&gt;($GD$1+0.001), DJ23, 0)</f>
@@ -13902,7 +13904,7 @@
       </c>
       <c r="EP23" s="0" t="n">
         <f aca="false">IF(DK23&gt;($GD$1+0.001), DK23, 0)</f>
-        <v>0.946669810639594</v>
+        <v>0</v>
       </c>
       <c r="EQ23" s="0" t="n">
         <f aca="false">IF(DL23&gt;($GD$1+0.001), DL23, 0)</f>
@@ -13966,7 +13968,7 @@
       </c>
       <c r="FK23" s="0" t="n">
         <f aca="false">IF(EF23=0, 0, BW23)</f>
-        <v>2.35813096573279</v>
+        <v>0</v>
       </c>
       <c r="FL23" s="0" t="n">
         <f aca="false">IF(EG23=0, 0, BX23)</f>
@@ -14006,7 +14008,7 @@
       </c>
       <c r="FU23" s="0" t="n">
         <f aca="false">IF(EP23=0, 0, CG23)</f>
-        <v>1.67447696749272</v>
+        <v>0</v>
       </c>
       <c r="FV23" s="0" t="n">
         <f aca="false">IF(EQ23=0, 0, CH23)</f>
@@ -14342,103 +14344,103 @@
       <c r="CT24" s="5"/>
       <c r="CU24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.939205850903276</v>
+        <v>0.0728685110397424</v>
       </c>
       <c r="CV24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.585739839428914</v>
+        <v>0.450081394316918</v>
       </c>
       <c r="CW24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.780185848815753</v>
+        <v>0.612210676393276</v>
       </c>
       <c r="CX24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.952052596719329</v>
+        <v>0.510686062608012</v>
       </c>
       <c r="CY24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.590433225088595</v>
+        <v>0.34574318218738</v>
       </c>
       <c r="CZ24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.94889133373658</v>
+        <v>0.601149432619817</v>
       </c>
       <c r="DA24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.104257572197605</v>
+        <v>0.826259439040192</v>
       </c>
       <c r="DB24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.780079207989188</v>
+        <v>0.321810007852662</v>
       </c>
       <c r="DC24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.864081380070841</v>
+        <v>0.933945456015432</v>
       </c>
       <c r="DD24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.650212706140095</v>
+        <v>0.509958022755144</v>
       </c>
       <c r="DE24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0399458488972818</v>
+        <v>0.661230625248882</v>
       </c>
       <c r="DF24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.242811053665286</v>
+        <v>0.274104119768729</v>
       </c>
       <c r="DG24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0981696632238996</v>
+        <v>0.734023924412714</v>
       </c>
       <c r="DH24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.880412248960963</v>
+        <v>0.322315907463898</v>
       </c>
       <c r="DI24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.857738312487514</v>
+        <v>0.0389846516983261</v>
       </c>
       <c r="DJ24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0806006942199556</v>
+        <v>0.194843883219457</v>
       </c>
       <c r="DK24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.841764954630966</v>
+        <v>0.845470969829876</v>
       </c>
       <c r="DL24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.919255787348221</v>
+        <v>0.291996483211413</v>
       </c>
       <c r="DM24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.376162936086531</v>
+        <v>0.818065538684668</v>
       </c>
       <c r="DN24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.247482912637302</v>
+        <v>0.204639773000347</v>
       </c>
       <c r="DO24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.571744664291125</v>
+        <v>0.347312218670138</v>
       </c>
       <c r="DP24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.596249046671305</v>
+        <v>0.514465023293636</v>
       </c>
       <c r="DQ24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.564534606486944</v>
+        <v>0.924710280733835</v>
       </c>
       <c r="DR24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.214826881196429</v>
+        <v>0.832661663905959</v>
       </c>
       <c r="DS24" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.166174286528562</v>
+        <v>0.942124964735966</v>
       </c>
       <c r="DT24" s="5"/>
       <c r="DU24" s="5"/>
@@ -14446,7 +14448,7 @@
       <c r="DY24" s="5"/>
       <c r="DZ24" s="0" t="n">
         <f aca="false">IF(CU24&gt;($GD$1+0.001), CU24, 0)</f>
-        <v>0.939205850903276</v>
+        <v>0</v>
       </c>
       <c r="EA24" s="0" t="n">
         <f aca="false">IF(CV24&gt;($GD$1+0.001), CV24, 0)</f>
@@ -14458,7 +14460,7 @@
       </c>
       <c r="EC24" s="0" t="n">
         <f aca="false">IF(CX24&gt;($GD$1+0.001), CX24, 0)</f>
-        <v>0.952052596719329</v>
+        <v>0</v>
       </c>
       <c r="ED24" s="0" t="n">
         <f aca="false">IF(CY24&gt;($GD$1+0.001), CY24, 0)</f>
@@ -14466,7 +14468,7 @@
       </c>
       <c r="EE24" s="0" t="n">
         <f aca="false">IF(CZ24&gt;($GD$1+0.001), CZ24, 0)</f>
-        <v>0.94889133373658</v>
+        <v>0</v>
       </c>
       <c r="EF24" s="0" t="n">
         <f aca="false">IF(DA24&gt;($GD$1+0.001), DA24, 0)</f>
@@ -14478,7 +14480,7 @@
       </c>
       <c r="EH24" s="0" t="n">
         <f aca="false">IF(DC24&gt;($GD$1+0.001), DC24, 0)</f>
-        <v>0</v>
+        <v>0.933945456015432</v>
       </c>
       <c r="EI24" s="0" t="n">
         <f aca="false">IF(DD24&gt;($GD$1+0.001), DD24, 0)</f>
@@ -14514,7 +14516,7 @@
       </c>
       <c r="EQ24" s="0" t="n">
         <f aca="false">IF(DL24&gt;($GD$1+0.001), DL24, 0)</f>
-        <v>0.919255787348221</v>
+        <v>0</v>
       </c>
       <c r="ER24" s="0" t="n">
         <f aca="false">IF(DM24&gt;($GD$1+0.001), DM24, 0)</f>
@@ -14534,7 +14536,7 @@
       </c>
       <c r="EV24" s="0" t="n">
         <f aca="false">IF(DQ24&gt;($GD$1+0.001), DQ24, 0)</f>
-        <v>0</v>
+        <v>0.924710280733835</v>
       </c>
       <c r="EW24" s="0" t="n">
         <f aca="false">IF(DR24&gt;($GD$1+0.001), DR24, 0)</f>
@@ -14542,7 +14544,7 @@
       </c>
       <c r="EX24" s="0" t="n">
         <f aca="false">IF(DS24&gt;($GD$1+0.001), DS24, 0)</f>
-        <v>0</v>
+        <v>0.942124964735966</v>
       </c>
       <c r="EY24" s="5"/>
       <c r="EZ24" s="5"/>
@@ -14562,7 +14564,7 @@
       </c>
       <c r="FH24" s="0" t="n">
         <f aca="false">IF(EC24=0, 0, BT24)</f>
-        <v>0.16194107103341</v>
+        <v>0</v>
       </c>
       <c r="FI24" s="0" t="n">
         <f aca="false">IF(ED24=0, 0, BU24)</f>
@@ -14570,7 +14572,7 @@
       </c>
       <c r="FJ24" s="0" t="n">
         <f aca="false">IF(EE24=0, 0, BV24)</f>
-        <v>0.587111260552007</v>
+        <v>0</v>
       </c>
       <c r="FK24" s="0" t="n">
         <f aca="false">IF(EF24=0, 0, BW24)</f>
@@ -14618,7 +14620,7 @@
       </c>
       <c r="FV24" s="0" t="n">
         <f aca="false">IF(EQ24=0, 0, CH24)</f>
-        <v>5.08861316120815</v>
+        <v>0</v>
       </c>
       <c r="FW24" s="0" t="n">
         <f aca="false">IF(ER24=0, 0, CI24)</f>
@@ -14656,11 +14658,11 @@
       </c>
       <c r="GJ24" s="0" t="n">
         <f aca="false">MAX(FG24:FH25)</f>
-        <v>0.16194107103341</v>
+        <v>0</v>
       </c>
       <c r="GL24" s="0" t="n">
         <f aca="false">MAX(FI24:FJ25)</f>
-        <v>0.587111260552007</v>
+        <v>0</v>
       </c>
       <c r="GN24" s="0" t="n">
         <f aca="false">MAX(FK24:FL25)</f>
@@ -14684,11 +14686,11 @@
       </c>
       <c r="GX24" s="0" t="n">
         <f aca="false">MAX(FU24:FV25)</f>
-        <v>5.08861316120815</v>
+        <v>0</v>
       </c>
       <c r="GZ24" s="0" t="n">
         <f aca="false">MAX(FW24:FX25)</f>
-        <v>7.5221613014174</v>
+        <v>0</v>
       </c>
       <c r="HB24" s="0" t="n">
         <f aca="false">MAX(FY24:FZ25)</f>
@@ -15041,103 +15043,103 @@
       <c r="CT25" s="5"/>
       <c r="CU25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.137481978539556</v>
+        <v>0.305733151655987</v>
       </c>
       <c r="CV25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.490062247873582</v>
+        <v>0.611041958380353</v>
       </c>
       <c r="CW25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0496348851531173</v>
+        <v>0.652439049232074</v>
       </c>
       <c r="CX25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0829073342138319</v>
+        <v>0.743405739175887</v>
       </c>
       <c r="CY25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.79216147706622</v>
+        <v>0.409748630205788</v>
       </c>
       <c r="CZ25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.249967561717371</v>
+        <v>0.888074185851581</v>
       </c>
       <c r="DA25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.612955130636672</v>
+        <v>0.815526744289129</v>
       </c>
       <c r="DB25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.074362132159523</v>
+        <v>0.469909691999553</v>
       </c>
       <c r="DC25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.372107348721601</v>
+        <v>0.0153764366219158</v>
       </c>
       <c r="DD25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.612858402019699</v>
+        <v>0.678044492755984</v>
       </c>
       <c r="DE25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.853400925201121</v>
+        <v>0.784845112647302</v>
       </c>
       <c r="DF25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.809644090986516</v>
+        <v>0.693842810143072</v>
       </c>
       <c r="DG25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.608870983875987</v>
+        <v>0.823123597498461</v>
       </c>
       <c r="DH25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.823911533781551</v>
+        <v>0.721790552866329</v>
       </c>
       <c r="DI25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.196439099717543</v>
+        <v>0.715760618841853</v>
       </c>
       <c r="DJ25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.50211713398376</v>
+        <v>0.662687590676382</v>
       </c>
       <c r="DK25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.884255495374898</v>
+        <v>0.753380537778458</v>
       </c>
       <c r="DL25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.751829379258769</v>
+        <v>0.55837706305161</v>
       </c>
       <c r="DM25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.991527944435486</v>
+        <v>0.249539033443181</v>
       </c>
       <c r="DN25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.72504004445556</v>
+        <v>0.263375231937026</v>
       </c>
       <c r="DO25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.499053296881272</v>
+        <v>0.208010699318936</v>
       </c>
       <c r="DP25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.657587615463009</v>
+        <v>0.380050843351542</v>
       </c>
       <c r="DQ25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0363506517394385</v>
+        <v>0.100309646786604</v>
       </c>
       <c r="DR25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.213790562787379</v>
+        <v>0.260971004747551</v>
       </c>
       <c r="DS25" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0217328434857913</v>
+        <v>0.624132418523759</v>
       </c>
       <c r="DT25" s="5"/>
       <c r="DU25" s="5"/>
@@ -15217,7 +15219,7 @@
       </c>
       <c r="ER25" s="0" t="n">
         <f aca="false">IF(DM25&gt;($GD$1+0.001), DM25, 0)</f>
-        <v>0.991527944435486</v>
+        <v>0</v>
       </c>
       <c r="ES25" s="0" t="n">
         <f aca="false">IF(DN25&gt;($GD$1+0.001), DN25, 0)</f>
@@ -15321,7 +15323,7 @@
       </c>
       <c r="FW25" s="0" t="n">
         <f aca="false">IF(ER25=0, 0, CI25)</f>
-        <v>7.5221613014174</v>
+        <v>0</v>
       </c>
       <c r="FX25" s="0" t="n">
         <f aca="false">IF(ES25=0, 0, CJ25)</f>
@@ -15649,103 +15651,103 @@
       <c r="CT26" s="5"/>
       <c r="CU26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.115627988821601</v>
+        <v>0.643423096575932</v>
       </c>
       <c r="CV26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.154357802632372</v>
+        <v>0.169410342765955</v>
       </c>
       <c r="CW26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.538890679207566</v>
+        <v>0.43700100652155</v>
       </c>
       <c r="CX26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.575268933451089</v>
+        <v>0.696279688557579</v>
       </c>
       <c r="CY26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.240066943242287</v>
+        <v>0.326688787545634</v>
       </c>
       <c r="CZ26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.698902879101564</v>
+        <v>0.254536009421107</v>
       </c>
       <c r="DA26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.135481113089414</v>
+        <v>0.907310518877366</v>
       </c>
       <c r="DB26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.633667908322171</v>
+        <v>0.119183657631944</v>
       </c>
       <c r="DC26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0748711708651382</v>
+        <v>0.0154712532460656</v>
       </c>
       <c r="DD26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.307074950259752</v>
+        <v>0.284469564215267</v>
       </c>
       <c r="DE26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.538525232642164</v>
+        <v>0.645494085123638</v>
       </c>
       <c r="DF26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.510077601113767</v>
+        <v>0.528737718499568</v>
       </c>
       <c r="DG26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.894209619605581</v>
+        <v>0.440189921833742</v>
       </c>
       <c r="DH26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.986246926364825</v>
+        <v>0.702314397292105</v>
       </c>
       <c r="DI26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.412695681651577</v>
+        <v>0.747743616866434</v>
       </c>
       <c r="DJ26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.267619488322033</v>
+        <v>0.138061666882844</v>
       </c>
       <c r="DK26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.697874488792409</v>
+        <v>0.547261871332114</v>
       </c>
       <c r="DL26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.198176016481826</v>
+        <v>0.842680073002557</v>
       </c>
       <c r="DM26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.718205099419499</v>
+        <v>0.113533078009555</v>
       </c>
       <c r="DN26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.368351597014981</v>
+        <v>0.405673705964555</v>
       </c>
       <c r="DO26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.623714405928182</v>
+        <v>0.146982664678829</v>
       </c>
       <c r="DP26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.633235251323425</v>
+        <v>0.538324644136555</v>
       </c>
       <c r="DQ26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.428384628835785</v>
+        <v>0.604867164903106</v>
       </c>
       <c r="DR26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.771651401643902</v>
+        <v>0.967837649120132</v>
       </c>
       <c r="DS26" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.105854412307278</v>
+        <v>0.140051841690297</v>
       </c>
       <c r="DT26" s="5"/>
       <c r="DU26" s="5"/>
@@ -15777,7 +15779,7 @@
       </c>
       <c r="EF26" s="0" t="n">
         <f aca="false">IF(DA26&gt;($GD$1+0.001), DA26, 0)</f>
-        <v>0</v>
+        <v>0.907310518877366</v>
       </c>
       <c r="EG26" s="0" t="n">
         <f aca="false">IF(DB26&gt;($GD$1+0.001), DB26, 0)</f>
@@ -15805,7 +15807,7 @@
       </c>
       <c r="EM26" s="0" t="n">
         <f aca="false">IF(DH26&gt;($GD$1+0.001), DH26, 0)</f>
-        <v>0.986246926364825</v>
+        <v>0</v>
       </c>
       <c r="EN26" s="0" t="n">
         <f aca="false">IF(DI26&gt;($GD$1+0.001), DI26, 0)</f>
@@ -15845,7 +15847,7 @@
       </c>
       <c r="EW26" s="0" t="n">
         <f aca="false">IF(DR26&gt;($GD$1+0.001), DR26, 0)</f>
-        <v>0</v>
+        <v>0.967837649120132</v>
       </c>
       <c r="EX26" s="0" t="n">
         <f aca="false">IF(DS26&gt;($GD$1+0.001), DS26, 0)</f>
@@ -15987,7 +15989,7 @@
       </c>
       <c r="GV26" s="0" t="n">
         <f aca="false">MAX(FS26:FT27)</f>
-        <v>1.46622516031704</v>
+        <v>4.60566792522437</v>
       </c>
       <c r="GX26" s="0" t="n">
         <f aca="false">MAX(FU26:FV27)</f>
@@ -16343,103 +16345,103 @@
       <c r="CT27" s="5"/>
       <c r="CU27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.663852163576642</v>
+        <v>0.626550445951137</v>
       </c>
       <c r="CV27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.889623421299992</v>
+        <v>0.479682640243478</v>
       </c>
       <c r="CW27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172838917409489</v>
+        <v>0.047420285906442</v>
       </c>
       <c r="CX27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.152169849350855</v>
+        <v>0.171268008043035</v>
       </c>
       <c r="CY27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.706125961964792</v>
+        <v>0.542396988657313</v>
       </c>
       <c r="CZ27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.168531913472461</v>
+        <v>0.253328854814981</v>
       </c>
       <c r="DA27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.610020817178868</v>
+        <v>0.0537475976062338</v>
       </c>
       <c r="DB27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.750725528618524</v>
+        <v>0.856716709094868</v>
       </c>
       <c r="DC27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.320828384669365</v>
+        <v>0.949265529981417</v>
       </c>
       <c r="DD27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.128398041876598</v>
+        <v>0.327201338084496</v>
       </c>
       <c r="DE27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.140342381587067</v>
+        <v>0.817568535237126</v>
       </c>
       <c r="DF27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.40099392751484</v>
+        <v>0.225004255859171</v>
       </c>
       <c r="DG27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.389677377068538</v>
+        <v>0.373442384978922</v>
       </c>
       <c r="DH27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.984036261619758</v>
+        <v>0.782662158957939</v>
       </c>
       <c r="DI27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.951143862805183</v>
+        <v>0.640980404364589</v>
       </c>
       <c r="DJ27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0599853965876142</v>
+        <v>0.967334679288379</v>
       </c>
       <c r="DK27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.565798999022639</v>
+        <v>0.167537427791165</v>
       </c>
       <c r="DL27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.834114944450325</v>
+        <v>0.17064085207384</v>
       </c>
       <c r="DM27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0441894466999637</v>
+        <v>0.657737517231392</v>
       </c>
       <c r="DN27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.281656582942522</v>
+        <v>0.557208821200232</v>
       </c>
       <c r="DO27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.746480342825227</v>
+        <v>0.975382773770289</v>
       </c>
       <c r="DP27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.213819742833521</v>
+        <v>0.029636023139411</v>
       </c>
       <c r="DQ27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.109386633786762</v>
+        <v>0.947297400134285</v>
       </c>
       <c r="DR27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967132640360836</v>
+        <v>0.322058922294579</v>
       </c>
       <c r="DS27" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.635189510717115</v>
+        <v>0.505759279203192</v>
       </c>
       <c r="DT27" s="5"/>
       <c r="DU27" s="5"/>
@@ -16479,7 +16481,7 @@
       </c>
       <c r="EH27" s="0" t="n">
         <f aca="false">IF(DC27&gt;($GD$1+0.001), DC27, 0)</f>
-        <v>0</v>
+        <v>0.949265529981417</v>
       </c>
       <c r="EI27" s="0" t="n">
         <f aca="false">IF(DD27&gt;($GD$1+0.001), DD27, 0)</f>
@@ -16499,15 +16501,15 @@
       </c>
       <c r="EM27" s="0" t="n">
         <f aca="false">IF(DH27&gt;($GD$1+0.001), DH27, 0)</f>
-        <v>0.984036261619758</v>
+        <v>0</v>
       </c>
       <c r="EN27" s="0" t="n">
         <f aca="false">IF(DI27&gt;($GD$1+0.001), DI27, 0)</f>
-        <v>0.951143862805183</v>
+        <v>0</v>
       </c>
       <c r="EO27" s="0" t="n">
         <f aca="false">IF(DJ27&gt;($GD$1+0.001), DJ27, 0)</f>
-        <v>0</v>
+        <v>0.967334679288379</v>
       </c>
       <c r="EP27" s="0" t="n">
         <f aca="false">IF(DK27&gt;($GD$1+0.001), DK27, 0)</f>
@@ -16527,7 +16529,7 @@
       </c>
       <c r="ET27" s="0" t="n">
         <f aca="false">IF(DO27&gt;($GD$1+0.001), DO27, 0)</f>
-        <v>0</v>
+        <v>0.975382773770289</v>
       </c>
       <c r="EU27" s="0" t="n">
         <f aca="false">IF(DP27&gt;($GD$1+0.001), DP27, 0)</f>
@@ -16535,11 +16537,11 @@
       </c>
       <c r="EV27" s="0" t="n">
         <f aca="false">IF(DQ27&gt;($GD$1+0.001), DQ27, 0)</f>
-        <v>0</v>
+        <v>0.947297400134285</v>
       </c>
       <c r="EW27" s="0" t="n">
         <f aca="false">IF(DR27&gt;($GD$1+0.001), DR27, 0)</f>
-        <v>0.967132640360836</v>
+        <v>0</v>
       </c>
       <c r="EX27" s="0" t="n">
         <f aca="false">IF(DS27&gt;($GD$1+0.001), DS27, 0)</f>
@@ -16607,11 +16609,11 @@
       </c>
       <c r="FS27" s="0" t="n">
         <f aca="false">IF(EN27=0, 0, CE27)</f>
-        <v>1.46622516031704</v>
+        <v>0</v>
       </c>
       <c r="FT27" s="0" t="n">
         <f aca="false">IF(EO27=0, 0, CF27)</f>
-        <v>0</v>
+        <v>4.60566792522437</v>
       </c>
       <c r="FU27" s="0" t="n">
         <f aca="false">IF(EP27=0, 0, CG27)</f>
@@ -17261,7 +17263,7 @@
       </c>
       <c r="FA31" s="0" t="n">
         <f aca="false">COUNTIF(DZ4:EX27,0)</f>
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17298,7 +17300,7 @@
       </c>
       <c r="FA32" s="11" t="n">
         <f aca="false">FA31/FA30</f>
-        <v>0.804733727810651</v>
+        <v>0.809171597633136</v>
       </c>
       <c r="FB32" s="11"/>
     </row>
@@ -17949,103 +17951,103 @@
       <c r="CT37" s="5"/>
       <c r="CU37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.52649361803749</v>
+        <v>0.698982131546741</v>
       </c>
       <c r="CV37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.696271610124022</v>
+        <v>0.833204266363611</v>
       </c>
       <c r="CW37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.586065280519465</v>
+        <v>0.0702813935865148</v>
       </c>
       <c r="CX37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.974298043074548</v>
+        <v>0.81045317222589</v>
       </c>
       <c r="CY37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.762769819840766</v>
+        <v>0.553524874512565</v>
       </c>
       <c r="CZ37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.103855895174187</v>
+        <v>0.907277157542636</v>
       </c>
       <c r="DA37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.253484088919416</v>
+        <v>0.408258835021228</v>
       </c>
       <c r="DB37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00417644877042063</v>
+        <v>0.729002544386249</v>
       </c>
       <c r="DC37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.953042814295851</v>
+        <v>0.696289362019656</v>
       </c>
       <c r="DD37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.190932543267761</v>
+        <v>0.676311817856213</v>
       </c>
       <c r="DE37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139940993910975</v>
+        <v>0.125556244841251</v>
       </c>
       <c r="DF37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0711419581538582</v>
+        <v>0.482901652072785</v>
       </c>
       <c r="DG37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.831410500530818</v>
+        <v>0.32458274705973</v>
       </c>
       <c r="DH37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.73368259180638</v>
+        <v>0.555342090163093</v>
       </c>
       <c r="DI37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.302875835127273</v>
+        <v>0.294286911012991</v>
       </c>
       <c r="DJ37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.634913204251044</v>
+        <v>0.0945453093299811</v>
       </c>
       <c r="DK37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.700830679164899</v>
+        <v>0.576621025042786</v>
       </c>
       <c r="DL37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.455900980026472</v>
+        <v>0.450236424990885</v>
       </c>
       <c r="DM37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0644312489147087</v>
+        <v>0.437745573606313</v>
       </c>
       <c r="DN37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.579826487892036</v>
+        <v>0.0625928215658015</v>
       </c>
       <c r="DO37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0114354674841397</v>
+        <v>0.458516897184351</v>
       </c>
       <c r="DP37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.439971067718093</v>
+        <v>0.00695966806471034</v>
       </c>
       <c r="DQ37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.608884069877308</v>
+        <v>0.534501821672279</v>
       </c>
       <c r="DR37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.409433105841045</v>
+        <v>0.629609560959653</v>
       </c>
       <c r="DS37" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.508152354669348</v>
+        <v>0.398754304550408</v>
       </c>
       <c r="DT37" s="5"/>
       <c r="DU37" s="5"/>
@@ -18065,7 +18067,7 @@
       </c>
       <c r="EC37" s="0" t="n">
         <f aca="false">IF(CX37&gt;($GD$1+0.001), CX37, 0)</f>
-        <v>0.974298043074548</v>
+        <v>0</v>
       </c>
       <c r="ED37" s="0" t="n">
         <f aca="false">IF(CY37&gt;($GD$1+0.001), CY37, 0)</f>
@@ -18073,7 +18075,7 @@
       </c>
       <c r="EE37" s="0" t="n">
         <f aca="false">IF(CZ37&gt;($GD$1+0.001), CZ37, 0)</f>
-        <v>0</v>
+        <v>0.907277157542636</v>
       </c>
       <c r="EF37" s="0" t="n">
         <f aca="false">IF(DA37&gt;($GD$1+0.001), DA37, 0)</f>
@@ -18085,7 +18087,7 @@
       </c>
       <c r="EH37" s="0" t="n">
         <f aca="false">IF(DC37&gt;($GD$1+0.001), DC37, 0)</f>
-        <v>0.953042814295851</v>
+        <v>0</v>
       </c>
       <c r="EI37" s="0" t="n">
         <f aca="false">IF(DD37&gt;($GD$1+0.001), DD37, 0)</f>
@@ -18562,103 +18564,103 @@
       <c r="CT38" s="5"/>
       <c r="CU38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.625303375914515</v>
+        <v>0.430367849575555</v>
       </c>
       <c r="CV38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.904675508452698</v>
+        <v>0.348251776368899</v>
       </c>
       <c r="CW38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.865305674288236</v>
+        <v>0.431486810657847</v>
       </c>
       <c r="CX38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.340094920467723</v>
+        <v>0.264577231119399</v>
       </c>
       <c r="CY38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.556394867726427</v>
+        <v>0.0125460294918748</v>
       </c>
       <c r="CZ38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.274730340576621</v>
+        <v>0.891604174948899</v>
       </c>
       <c r="DA38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0391175961630132</v>
+        <v>0.0403220918558166</v>
       </c>
       <c r="DB38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.319992741520235</v>
+        <v>0.7774523918621</v>
       </c>
       <c r="DC38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.799234484999116</v>
+        <v>0.663050919319394</v>
       </c>
       <c r="DD38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.940203340290986</v>
+        <v>0.0587922190149461</v>
       </c>
       <c r="DE38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.313126729816847</v>
+        <v>0.269698750716929</v>
       </c>
       <c r="DF38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0377707487872025</v>
+        <v>0.717027427674561</v>
       </c>
       <c r="DG38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.391168758945397</v>
+        <v>0.0844045914518426</v>
       </c>
       <c r="DH38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.33122753428022</v>
+        <v>0.137193573714843</v>
       </c>
       <c r="DI38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.820426283900129</v>
+        <v>0.520685464371179</v>
       </c>
       <c r="DJ38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.357114380128979</v>
+        <v>0.610098642119422</v>
       </c>
       <c r="DK38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.604552765445756</v>
+        <v>0.123321840161005</v>
       </c>
       <c r="DL38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139071039939575</v>
+        <v>0.275965183980221</v>
       </c>
       <c r="DM38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00799403011031562</v>
+        <v>0.658332398723201</v>
       </c>
       <c r="DN38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.85546983563122</v>
+        <v>0.607546781274961</v>
       </c>
       <c r="DO38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.199625658151376</v>
+        <v>0.107769852703318</v>
       </c>
       <c r="DP38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.759780912546298</v>
+        <v>0.188383104513278</v>
       </c>
       <c r="DQ38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.864625356865573</v>
+        <v>0.455852545448567</v>
       </c>
       <c r="DR38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.23450779762183</v>
+        <v>0.0764058621224147</v>
       </c>
       <c r="DS38" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.546082087959587</v>
+        <v>0.819890026344327</v>
       </c>
       <c r="DT38" s="5"/>
       <c r="DU38" s="5"/>
@@ -18670,7 +18672,7 @@
       </c>
       <c r="EA38" s="0" t="n">
         <f aca="false">IF(CV38&gt;($GD$1+0.001), CV38, 0)</f>
-        <v>0.904675508452698</v>
+        <v>0</v>
       </c>
       <c r="EB38" s="0" t="n">
         <f aca="false">IF(CW38&gt;($GD$1+0.001), CW38, 0)</f>
@@ -18702,7 +18704,7 @@
       </c>
       <c r="EI38" s="0" t="n">
         <f aca="false">IF(DD38&gt;($GD$1+0.001), DD38, 0)</f>
-        <v>0.940203340290986</v>
+        <v>0</v>
       </c>
       <c r="EJ38" s="0" t="n">
         <f aca="false">IF(DE38&gt;($GD$1+0.001), DE38, 0)</f>
@@ -19086,103 +19088,103 @@
       <c r="CT39" s="5"/>
       <c r="CU39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.465335653355545</v>
+        <v>0.128989628294432</v>
       </c>
       <c r="CV39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.841268534069529</v>
+        <v>0.197669493462576</v>
       </c>
       <c r="CW39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.296106931735069</v>
+        <v>0.504314140779135</v>
       </c>
       <c r="CX39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.432376995386485</v>
+        <v>0.685390494577978</v>
       </c>
       <c r="CY39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.903111834704595</v>
+        <v>0.642335747814383</v>
       </c>
       <c r="CZ39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00767166934230102</v>
+        <v>0.561563890340456</v>
       </c>
       <c r="DA39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.621645939337411</v>
+        <v>0.453996783214186</v>
       </c>
       <c r="DB39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.849364858667461</v>
+        <v>0.815282414770549</v>
       </c>
       <c r="DC39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.831014505892078</v>
+        <v>0.889521238141062</v>
       </c>
       <c r="DD39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.71760464920691</v>
+        <v>0.0283694024620398</v>
       </c>
       <c r="DE39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.156873423394241</v>
+        <v>0.615803479643046</v>
       </c>
       <c r="DF39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.841892676036295</v>
+        <v>0.0141738200472281</v>
       </c>
       <c r="DG39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.152202142213153</v>
+        <v>0.0251663425695922</v>
       </c>
       <c r="DH39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.443086080963507</v>
+        <v>0.788153760296676</v>
       </c>
       <c r="DI39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.388546077099014</v>
+        <v>0.55158169495411</v>
       </c>
       <c r="DJ39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.479631746843691</v>
+        <v>0.416132138764029</v>
       </c>
       <c r="DK39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.954259925987207</v>
+        <v>0.844977273077151</v>
       </c>
       <c r="DL39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0828998690260007</v>
+        <v>0.58740932450902</v>
       </c>
       <c r="DM39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.134776192998083</v>
+        <v>0.497170450434263</v>
       </c>
       <c r="DN39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.226052357354004</v>
+        <v>0.450095865748296</v>
       </c>
       <c r="DO39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.93521849841443</v>
+        <v>0.185949409407146</v>
       </c>
       <c r="DP39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.640016741116818</v>
+        <v>0.134407508842786</v>
       </c>
       <c r="DQ39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.804635966498341</v>
+        <v>0.777529720273459</v>
       </c>
       <c r="DR39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.714175991790998</v>
+        <v>0.318635923555196</v>
       </c>
       <c r="DS39" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.650019304843248</v>
+        <v>0.761209167552044</v>
       </c>
       <c r="DT39" s="5"/>
       <c r="DU39" s="5"/>
@@ -19206,7 +19208,7 @@
       </c>
       <c r="ED39" s="0" t="n">
         <f aca="false">IF(CY39&gt;($GD$1+0.001), CY39, 0)</f>
-        <v>0.903111834704595</v>
+        <v>0</v>
       </c>
       <c r="EE39" s="0" t="n">
         <f aca="false">IF(CZ39&gt;($GD$1+0.001), CZ39, 0)</f>
@@ -19254,7 +19256,7 @@
       </c>
       <c r="EP39" s="0" t="n">
         <f aca="false">IF(DK39&gt;($GD$1+0.001), DK39, 0)</f>
-        <v>0.954259925987207</v>
+        <v>0</v>
       </c>
       <c r="EQ39" s="0" t="n">
         <f aca="false">IF(DL39&gt;($GD$1+0.001), DL39, 0)</f>
@@ -19270,7 +19272,7 @@
       </c>
       <c r="ET39" s="0" t="n">
         <f aca="false">IF(DO39&gt;($GD$1+0.001), DO39, 0)</f>
-        <v>0.93521849841443</v>
+        <v>0</v>
       </c>
       <c r="EU39" s="0" t="n">
         <f aca="false">IF(DP39&gt;($GD$1+0.001), DP39, 0)</f>
@@ -19420,11 +19422,11 @@
       </c>
       <c r="GT39" s="0" t="n">
         <f aca="false">MAX(FQ39:FR40)</f>
-        <v>0.00992531483712171</v>
+        <v>0.214943023173739</v>
       </c>
       <c r="GV39" s="0" t="n">
         <f aca="false">MAX(FS39:FT40)</f>
-        <v>0</v>
+        <v>0.0560958029203855</v>
       </c>
       <c r="GX39" s="0" t="n">
         <f aca="false">MAX(FU39:FV40)</f>
@@ -19707,103 +19709,103 @@
       <c r="CT40" s="5"/>
       <c r="CU40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.225978212581179</v>
+        <v>0.439967302775339</v>
       </c>
       <c r="CV40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.07301849410988</v>
+        <v>0.326747715561266</v>
       </c>
       <c r="CW40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.162033698383709</v>
+        <v>0.344953377489256</v>
       </c>
       <c r="CX40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.484347492823234</v>
+        <v>0.680951150901025</v>
       </c>
       <c r="CY40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.222442315171553</v>
+        <v>0.594352066770759</v>
       </c>
       <c r="CZ40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.430455947518595</v>
+        <v>0.457201858493623</v>
       </c>
       <c r="DA40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.381610509739478</v>
+        <v>0.896443108460687</v>
       </c>
       <c r="DB40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.763187715895982</v>
+        <v>0.162525285690725</v>
       </c>
       <c r="DC40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.309032971327656</v>
+        <v>0.790294218413347</v>
       </c>
       <c r="DD40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.243425029844381</v>
+        <v>0.731345428866921</v>
       </c>
       <c r="DE40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.536094356826572</v>
+        <v>0.594229059651574</v>
       </c>
       <c r="DF40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139424590354764</v>
+        <v>0.285182790370357</v>
       </c>
       <c r="DG40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.955440565169157</v>
+        <v>0.356735008347764</v>
       </c>
       <c r="DH40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0259187409525269</v>
+        <v>0.953594103611156</v>
       </c>
       <c r="DI40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.359651264131524</v>
+        <v>0.058896323394455</v>
       </c>
       <c r="DJ40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.197168291248201</v>
+        <v>0.918907143305454</v>
       </c>
       <c r="DK40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.202561673253185</v>
+        <v>0.48328150827305</v>
       </c>
       <c r="DL40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.365093520364126</v>
+        <v>0.231980353060713</v>
       </c>
       <c r="DM40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.699051365974513</v>
+        <v>0.624070727955914</v>
       </c>
       <c r="DN40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.328274650444786</v>
+        <v>0.107437258660373</v>
       </c>
       <c r="DO40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.852910820334326</v>
+        <v>0.0254276952741431</v>
       </c>
       <c r="DP40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.463011586472079</v>
+        <v>0.3350215946016</v>
       </c>
       <c r="DQ40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.304103942364738</v>
+        <v>0.212990150280704</v>
       </c>
       <c r="DR40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.728983145596366</v>
+        <v>0.360848262205706</v>
       </c>
       <c r="DS40" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.884742806020944</v>
+        <v>0.358329395662899</v>
       </c>
       <c r="DT40" s="5"/>
       <c r="DU40" s="5"/>
@@ -19859,11 +19861,11 @@
       </c>
       <c r="EL40" s="0" t="n">
         <f aca="false">IF(DG40&gt;($GD$1+0.001), DG40, 0)</f>
-        <v>0.955440565169157</v>
+        <v>0</v>
       </c>
       <c r="EM40" s="0" t="n">
         <f aca="false">IF(DH40&gt;($GD$1+0.001), DH40, 0)</f>
-        <v>0</v>
+        <v>0.953594103611156</v>
       </c>
       <c r="EN40" s="0" t="n">
         <f aca="false">IF(DI40&gt;($GD$1+0.001), DI40, 0)</f>
@@ -19871,7 +19873,7 @@
       </c>
       <c r="EO40" s="0" t="n">
         <f aca="false">IF(DJ40&gt;($GD$1+0.001), DJ40, 0)</f>
-        <v>0</v>
+        <v>0.918907143305454</v>
       </c>
       <c r="EP40" s="0" t="n">
         <f aca="false">IF(DK40&gt;($GD$1+0.001), DK40, 0)</f>
@@ -19963,11 +19965,11 @@
       </c>
       <c r="FQ40" s="0" t="n">
         <f aca="false">IF(EL40=0, 0, CC40)</f>
-        <v>0.00992531483712171</v>
+        <v>0</v>
       </c>
       <c r="FR40" s="0" t="n">
         <f aca="false">IF(EM40=0, 0, CD40)</f>
-        <v>0</v>
+        <v>0.214943023173739</v>
       </c>
       <c r="FS40" s="0" t="n">
         <f aca="false">IF(EN40=0, 0, CE40)</f>
@@ -19975,7 +19977,7 @@
       </c>
       <c r="FT40" s="0" t="n">
         <f aca="false">IF(EO40=0, 0, CF40)</f>
-        <v>0</v>
+        <v>0.0560958029203855</v>
       </c>
       <c r="FU40" s="0" t="n">
         <f aca="false">IF(EP40=0, 0, CG40)</f>
@@ -20228,103 +20230,103 @@
       <c r="CT41" s="5"/>
       <c r="CU41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.573221417209507</v>
+        <v>0.519087749617435</v>
       </c>
       <c r="CV41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.130986222631702</v>
+        <v>0.114920377377941</v>
       </c>
       <c r="CW41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.284395943409949</v>
+        <v>0.432284653820919</v>
       </c>
       <c r="CX41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.979896223875701</v>
+        <v>0.277970654742122</v>
       </c>
       <c r="CY41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.460830458018593</v>
+        <v>0.0864709274358478</v>
       </c>
       <c r="CZ41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.438287504891495</v>
+        <v>0.603667183699507</v>
       </c>
       <c r="DA41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.918810897689883</v>
+        <v>0.972573481845512</v>
       </c>
       <c r="DB41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.159977070753919</v>
+        <v>0.489146372651922</v>
       </c>
       <c r="DC41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.734962215176012</v>
+        <v>0.566153115608952</v>
       </c>
       <c r="DD41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.35522257648837</v>
+        <v>0.248856251616656</v>
       </c>
       <c r="DE41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.914874553248829</v>
+        <v>0.693116058888608</v>
       </c>
       <c r="DF41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.564613278542978</v>
+        <v>0.989161617268339</v>
       </c>
       <c r="DG41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.625582734070586</v>
+        <v>0.927263672341432</v>
       </c>
       <c r="DH41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.616254741406378</v>
+        <v>0.201951756163898</v>
       </c>
       <c r="DI41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.674618107145224</v>
+        <v>0.029978765568547</v>
       </c>
       <c r="DJ41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0293870263778475</v>
+        <v>0.0293194566590709</v>
       </c>
       <c r="DK41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.331942255917287</v>
+        <v>0.0777903128485812</v>
       </c>
       <c r="DL41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.354398447441808</v>
+        <v>0.863069996965728</v>
       </c>
       <c r="DM41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0081264323610496</v>
+        <v>0.685576832842764</v>
       </c>
       <c r="DN41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.305816357594799</v>
+        <v>0.5957504696313</v>
       </c>
       <c r="DO41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.961785276628658</v>
+        <v>0.857278523739344</v>
       </c>
       <c r="DP41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.946825431615683</v>
+        <v>0.910526661996175</v>
       </c>
       <c r="DQ41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.272674353185587</v>
+        <v>0.756017903764207</v>
       </c>
       <c r="DR41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.960979816583166</v>
+        <v>0.426302238071823</v>
       </c>
       <c r="DS41" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.561754539159358</v>
+        <v>0.942998057696</v>
       </c>
       <c r="DT41" s="5"/>
       <c r="DU41" s="5"/>
@@ -20344,7 +20346,7 @@
       </c>
       <c r="EC41" s="0" t="n">
         <f aca="false">IF(CX41&gt;($GD$1+0.001), CX41, 0)</f>
-        <v>0.979896223875701</v>
+        <v>0</v>
       </c>
       <c r="ED41" s="0" t="n">
         <f aca="false">IF(CY41&gt;($GD$1+0.001), CY41, 0)</f>
@@ -20356,7 +20358,7 @@
       </c>
       <c r="EF41" s="0" t="n">
         <f aca="false">IF(DA41&gt;($GD$1+0.001), DA41, 0)</f>
-        <v>0.918810897689883</v>
+        <v>0.972573481845512</v>
       </c>
       <c r="EG41" s="0" t="n">
         <f aca="false">IF(DB41&gt;($GD$1+0.001), DB41, 0)</f>
@@ -20372,15 +20374,15 @@
       </c>
       <c r="EJ41" s="0" t="n">
         <f aca="false">IF(DE41&gt;($GD$1+0.001), DE41, 0)</f>
-        <v>0.914874553248829</v>
+        <v>0</v>
       </c>
       <c r="EK41" s="0" t="n">
         <f aca="false">IF(DF41&gt;($GD$1+0.001), DF41, 0)</f>
-        <v>0</v>
+        <v>0.989161617268339</v>
       </c>
       <c r="EL41" s="0" t="n">
         <f aca="false">IF(DG41&gt;($GD$1+0.001), DG41, 0)</f>
-        <v>0</v>
+        <v>0.927263672341432</v>
       </c>
       <c r="EM41" s="0" t="n">
         <f aca="false">IF(DH41&gt;($GD$1+0.001), DH41, 0)</f>
@@ -20412,11 +20414,11 @@
       </c>
       <c r="ET41" s="0" t="n">
         <f aca="false">IF(DO41&gt;($GD$1+0.001), DO41, 0)</f>
-        <v>0.961785276628658</v>
+        <v>0</v>
       </c>
       <c r="EU41" s="0" t="n">
         <f aca="false">IF(DP41&gt;($GD$1+0.001), DP41, 0)</f>
-        <v>0.946825431615683</v>
+        <v>0.910526661996175</v>
       </c>
       <c r="EV41" s="0" t="n">
         <f aca="false">IF(DQ41&gt;($GD$1+0.001), DQ41, 0)</f>
@@ -20424,11 +20426,11 @@
       </c>
       <c r="EW41" s="0" t="n">
         <f aca="false">IF(DR41&gt;($GD$1+0.001), DR41, 0)</f>
-        <v>0.960979816583166</v>
+        <v>0</v>
       </c>
       <c r="EX41" s="0" t="n">
         <f aca="false">IF(DS41&gt;($GD$1+0.001), DS41, 0)</f>
-        <v>0</v>
+        <v>0.942998057696</v>
       </c>
       <c r="EY41" s="5"/>
       <c r="EZ41" s="5"/>
@@ -20476,15 +20478,15 @@
       </c>
       <c r="FO41" s="0" t="n">
         <f aca="false">IF(EJ41=0, 0, CA41)</f>
-        <v>0.0455100011201155</v>
+        <v>0</v>
       </c>
       <c r="FP41" s="0" t="n">
         <f aca="false">IF(EK41=0, 0, CB41)</f>
-        <v>0</v>
+        <v>0.0487333451311288</v>
       </c>
       <c r="FQ41" s="0" t="n">
         <f aca="false">IF(EL41=0, 0, CC41)</f>
-        <v>0</v>
+        <v>0.486475655129431</v>
       </c>
       <c r="FR41" s="0" t="n">
         <f aca="false">IF(EM41=0, 0, CD41)</f>
@@ -20558,15 +20560,15 @@
       </c>
       <c r="GR41" s="0" t="n">
         <f aca="false">MAX(FO41:FP42)</f>
-        <v>0.0455100011201155</v>
+        <v>0.0487333451311288</v>
       </c>
       <c r="GT41" s="0" t="n">
         <f aca="false">MAX(FQ41:FR42)</f>
-        <v>0</v>
+        <v>0.486475655129431</v>
       </c>
       <c r="GV41" s="0" t="n">
         <f aca="false">MAX(FS41:FT42)</f>
-        <v>0</v>
+        <v>1.3211159322502</v>
       </c>
       <c r="GX41" s="0" t="n">
         <f aca="false">MAX(FU41:FV42)</f>
@@ -20861,103 +20863,103 @@
       <c r="CT42" s="5"/>
       <c r="CU42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.626026746771726</v>
+        <v>0.897475415765372</v>
       </c>
       <c r="CV42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.333742785905335</v>
+        <v>0.625135521178055</v>
       </c>
       <c r="CW42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.486643868041113</v>
+        <v>0.726315596591902</v>
       </c>
       <c r="CX42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.772606835859837</v>
+        <v>0.543053522770177</v>
       </c>
       <c r="CY42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139609623019932</v>
+        <v>0.378149646348565</v>
       </c>
       <c r="CZ42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.784126972902937</v>
+        <v>0.987402398065832</v>
       </c>
       <c r="DA42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.516369286183545</v>
+        <v>0.815450487917996</v>
       </c>
       <c r="DB42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.679378879018061</v>
+        <v>0.539582911640451</v>
       </c>
       <c r="DC42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.8349200467998</v>
+        <v>0.658160710462227</v>
       </c>
       <c r="DD42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.449662820984084</v>
+        <v>0.334452252271297</v>
       </c>
       <c r="DE42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.121485276953847</v>
+        <v>0.511479462785687</v>
       </c>
       <c r="DF42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.388237911036911</v>
+        <v>0.668537698231115</v>
       </c>
       <c r="DG42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.848047696505718</v>
+        <v>0.723897208443549</v>
       </c>
       <c r="DH42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.546150658590199</v>
+        <v>0.422823094271317</v>
       </c>
       <c r="DI42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.174884372222338</v>
+        <v>0.947980415273118</v>
       </c>
       <c r="DJ42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.162479689847559</v>
+        <v>0.11063705170325</v>
       </c>
       <c r="DK42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.614719537078931</v>
+        <v>0.41536232419045</v>
       </c>
       <c r="DL42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.909709372376024</v>
+        <v>0.479157945966637</v>
       </c>
       <c r="DM42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.284161099536346</v>
+        <v>0.506669829635128</v>
       </c>
       <c r="DN42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.196595274021349</v>
+        <v>0.888230819732904</v>
       </c>
       <c r="DO42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.117327374159674</v>
+        <v>0.263066582605274</v>
       </c>
       <c r="DP42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.286580385110631</v>
+        <v>0.875375034904482</v>
       </c>
       <c r="DQ42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.322872739853154</v>
+        <v>0.655754459753837</v>
       </c>
       <c r="DR42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.812744027052967</v>
+        <v>0.572187334277633</v>
       </c>
       <c r="DS42" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.135770192353417</v>
+        <v>0.780505393669148</v>
       </c>
       <c r="DT42" s="5"/>
       <c r="DU42" s="5"/>
@@ -20985,7 +20987,7 @@
       </c>
       <c r="EE42" s="0" t="n">
         <f aca="false">IF(CZ42&gt;($GD$1+0.001), CZ42, 0)</f>
-        <v>0</v>
+        <v>0.987402398065832</v>
       </c>
       <c r="EF42" s="0" t="n">
         <f aca="false">IF(DA42&gt;($GD$1+0.001), DA42, 0)</f>
@@ -21021,7 +21023,7 @@
       </c>
       <c r="EN42" s="0" t="n">
         <f aca="false">IF(DI42&gt;($GD$1+0.001), DI42, 0)</f>
-        <v>0</v>
+        <v>0.947980415273118</v>
       </c>
       <c r="EO42" s="0" t="n">
         <f aca="false">IF(DJ42&gt;($GD$1+0.001), DJ42, 0)</f>
@@ -21033,7 +21035,7 @@
       </c>
       <c r="EQ42" s="0" t="n">
         <f aca="false">IF(DL42&gt;($GD$1+0.001), DL42, 0)</f>
-        <v>0.909709372376024</v>
+        <v>0</v>
       </c>
       <c r="ER42" s="0" t="n">
         <f aca="false">IF(DM42&gt;($GD$1+0.001), DM42, 0)</f>
@@ -21125,7 +21127,7 @@
       </c>
       <c r="FS42" s="0" t="n">
         <f aca="false">IF(EN42=0, 0, CE42)</f>
-        <v>0</v>
+        <v>1.3211159322502</v>
       </c>
       <c r="FT42" s="0" t="n">
         <f aca="false">IF(EO42=0, 0, CF42)</f>
@@ -21403,103 +21405,103 @@
       <c r="CT43" s="5"/>
       <c r="CU43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.63936460556181</v>
+        <v>0.87669695412859</v>
       </c>
       <c r="CV43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.587014496823348</v>
+        <v>0.276962261543873</v>
       </c>
       <c r="CW43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.461853443885245</v>
+        <v>0.553921235284697</v>
       </c>
       <c r="CX43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0635935193579467</v>
+        <v>0.277721707862997</v>
       </c>
       <c r="CY43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.850126811545897</v>
+        <v>0.585920453974188</v>
       </c>
       <c r="CZ43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.952054453963192</v>
+        <v>0.497457143858007</v>
       </c>
       <c r="DA43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.825439774361183</v>
+        <v>0.32339013332029</v>
       </c>
       <c r="DB43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.398044875562081</v>
+        <v>0.807105753744989</v>
       </c>
       <c r="DC43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.412744308858347</v>
+        <v>0.652974186103588</v>
       </c>
       <c r="DD43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.669188531200471</v>
+        <v>0.264236198639595</v>
       </c>
       <c r="DE43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.335043748888627</v>
+        <v>0.766127068209809</v>
       </c>
       <c r="DF43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.282566865681658</v>
+        <v>0.675380407019702</v>
       </c>
       <c r="DG43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.671705985836512</v>
+        <v>0.217726788749075</v>
       </c>
       <c r="DH43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.521941152290154</v>
+        <v>0.50588272129471</v>
       </c>
       <c r="DI43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.415539407155152</v>
+        <v>0.969541545769244</v>
       </c>
       <c r="DJ43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.243119499420232</v>
+        <v>0.668471925026854</v>
       </c>
       <c r="DK43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.921851368053681</v>
+        <v>0.196727464986798</v>
       </c>
       <c r="DL43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.92095910807754</v>
+        <v>0.946909934668141</v>
       </c>
       <c r="DM43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.128894329733265</v>
+        <v>0.400483368711801</v>
       </c>
       <c r="DN43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.741716188907962</v>
+        <v>0.761730878666375</v>
       </c>
       <c r="DO43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.350457442727547</v>
+        <v>0.806745928597919</v>
       </c>
       <c r="DP43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.564696081037013</v>
+        <v>0.888924814952246</v>
       </c>
       <c r="DQ43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.77263266021663</v>
+        <v>0.699289527425552</v>
       </c>
       <c r="DR43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.231036857121492</v>
+        <v>0.306340631107766</v>
       </c>
       <c r="DS43" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.586807820716165</v>
+        <v>0.845618002472382</v>
       </c>
       <c r="DT43" s="5"/>
       <c r="DU43" s="5"/>
@@ -21527,7 +21529,7 @@
       </c>
       <c r="EE43" s="0" t="n">
         <f aca="false">IF(CZ43&gt;($GD$1+0.001), CZ43, 0)</f>
-        <v>0.952054453963192</v>
+        <v>0</v>
       </c>
       <c r="EF43" s="0" t="n">
         <f aca="false">IF(DA43&gt;($GD$1+0.001), DA43, 0)</f>
@@ -21563,7 +21565,7 @@
       </c>
       <c r="EN43" s="0" t="n">
         <f aca="false">IF(DI43&gt;($GD$1+0.001), DI43, 0)</f>
-        <v>0</v>
+        <v>0.969541545769244</v>
       </c>
       <c r="EO43" s="0" t="n">
         <f aca="false">IF(DJ43&gt;($GD$1+0.001), DJ43, 0)</f>
@@ -21571,11 +21573,11 @@
       </c>
       <c r="EP43" s="0" t="n">
         <f aca="false">IF(DK43&gt;($GD$1+0.001), DK43, 0)</f>
-        <v>0.921851368053681</v>
+        <v>0</v>
       </c>
       <c r="EQ43" s="0" t="n">
         <f aca="false">IF(DL43&gt;($GD$1+0.001), DL43, 0)</f>
-        <v>0.92095910807754</v>
+        <v>0.946909934668141</v>
       </c>
       <c r="ER43" s="0" t="n">
         <f aca="false">IF(DM43&gt;($GD$1+0.001), DM43, 0)</f>
@@ -21631,7 +21633,7 @@
       </c>
       <c r="FJ43" s="0" t="n">
         <f aca="false">IF(EE43=0, 0, BV43)</f>
-        <v>0.853491140773278</v>
+        <v>0</v>
       </c>
       <c r="FK43" s="0" t="n">
         <f aca="false">IF(EF43=0, 0, BW43)</f>
@@ -21667,7 +21669,7 @@
       </c>
       <c r="FS43" s="0" t="n">
         <f aca="false">IF(EN43=0, 0, CE43)</f>
-        <v>0</v>
+        <v>1.07385685520396</v>
       </c>
       <c r="FT43" s="0" t="n">
         <f aca="false">IF(EO43=0, 0, CF43)</f>
@@ -21675,7 +21677,7 @@
       </c>
       <c r="FU43" s="0" t="n">
         <f aca="false">IF(EP43=0, 0, CG43)</f>
-        <v>2.98744010686928</v>
+        <v>0</v>
       </c>
       <c r="FV43" s="0" t="n">
         <f aca="false">IF(EQ43=0, 0, CH43)</f>
@@ -21717,15 +21719,15 @@
       </c>
       <c r="GJ43" s="0" t="n">
         <f aca="false">MAX(FG43:FH44)</f>
-        <v>0</v>
+        <v>0.847764767712922</v>
       </c>
       <c r="GL43" s="0" t="n">
         <f aca="false">MAX(FI43:FJ44)</f>
-        <v>0.893752727264072</v>
+        <v>0</v>
       </c>
       <c r="GN43" s="0" t="n">
         <f aca="false">MAX(FK43:FL44)</f>
-        <v>0</v>
+        <v>1.83966480335978</v>
       </c>
       <c r="GP43" s="0" t="n">
         <f aca="false">MAX(FM43:FN44)</f>
@@ -21741,11 +21743,11 @@
       </c>
       <c r="GV43" s="0" t="n">
         <f aca="false">MAX(FS43:FT44)</f>
-        <v>0</v>
+        <v>1.07385685520396</v>
       </c>
       <c r="GX43" s="0" t="n">
         <f aca="false">MAX(FU43:FV44)</f>
-        <v>2.98744010686928</v>
+        <v>3.11017623471095</v>
       </c>
       <c r="GZ43" s="0" t="n">
         <f aca="false">MAX(FW43:FX44)</f>
@@ -22033,103 +22035,103 @@
       <c r="CT44" s="5"/>
       <c r="CU44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.74715518391184</v>
+        <v>0.141849895012176</v>
       </c>
       <c r="CV44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.11733275980272</v>
+        <v>0.748199694345542</v>
       </c>
       <c r="CW44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.645889280721859</v>
+        <v>0.374977821526395</v>
       </c>
       <c r="CX44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.660039726308537</v>
+        <v>0.976675778897327</v>
       </c>
       <c r="CY44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.641927807679582</v>
+        <v>0.133796501501382</v>
       </c>
       <c r="CZ44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.984469185096247</v>
+        <v>0.493193335269619</v>
       </c>
       <c r="DA44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.75765445663388</v>
+        <v>0.984812850784253</v>
       </c>
       <c r="DB44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.134123023021499</v>
+        <v>0.285010851364195</v>
       </c>
       <c r="DC44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.276009060324005</v>
+        <v>0.84600893794131</v>
       </c>
       <c r="DD44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.472561468723025</v>
+        <v>0.292412632241664</v>
       </c>
       <c r="DE44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0747333542962282</v>
+        <v>0.148896209878726</v>
       </c>
       <c r="DF44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.485042944658986</v>
+        <v>0.633379084868736</v>
       </c>
       <c r="DG44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.709561878439436</v>
+        <v>0.487897336129667</v>
       </c>
       <c r="DH44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.347648888933243</v>
+        <v>0.569370675809411</v>
       </c>
       <c r="DI44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.850473251317753</v>
+        <v>0.324492284904799</v>
       </c>
       <c r="DJ44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0904357394168661</v>
+        <v>0.150671538632357</v>
       </c>
       <c r="DK44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.557205121264247</v>
+        <v>0.836133859994742</v>
       </c>
       <c r="DL44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.328438589922004</v>
+        <v>0.981354234579742</v>
       </c>
       <c r="DM44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.490793976091779</v>
+        <v>0.134593108553818</v>
       </c>
       <c r="DN44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.57451541156026</v>
+        <v>0.367420421380234</v>
       </c>
       <c r="DO44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.331320652301052</v>
+        <v>0.817584617118818</v>
       </c>
       <c r="DP44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.363024536537669</v>
+        <v>0.56590494830984</v>
       </c>
       <c r="DQ44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0539973238659276</v>
+        <v>0.674635279934577</v>
       </c>
       <c r="DR44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.165645496995726</v>
+        <v>0.457535092718871</v>
       </c>
       <c r="DS44" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139671026328143</v>
+        <v>0.636700006842538</v>
       </c>
       <c r="DT44" s="5"/>
       <c r="DU44" s="5"/>
@@ -22149,7 +22151,7 @@
       </c>
       <c r="EC44" s="0" t="n">
         <f aca="false">IF(CX44&gt;($GD$1+0.001), CX44, 0)</f>
-        <v>0</v>
+        <v>0.976675778897327</v>
       </c>
       <c r="ED44" s="0" t="n">
         <f aca="false">IF(CY44&gt;($GD$1+0.001), CY44, 0)</f>
@@ -22157,11 +22159,11 @@
       </c>
       <c r="EE44" s="0" t="n">
         <f aca="false">IF(CZ44&gt;($GD$1+0.001), CZ44, 0)</f>
-        <v>0.984469185096247</v>
+        <v>0</v>
       </c>
       <c r="EF44" s="0" t="n">
         <f aca="false">IF(DA44&gt;($GD$1+0.001), DA44, 0)</f>
-        <v>0</v>
+        <v>0.984812850784253</v>
       </c>
       <c r="EG44" s="0" t="n">
         <f aca="false">IF(DB44&gt;($GD$1+0.001), DB44, 0)</f>
@@ -22205,7 +22207,7 @@
       </c>
       <c r="EQ44" s="0" t="n">
         <f aca="false">IF(DL44&gt;($GD$1+0.001), DL44, 0)</f>
-        <v>0</v>
+        <v>0.981354234579742</v>
       </c>
       <c r="ER44" s="0" t="n">
         <f aca="false">IF(DM44&gt;($GD$1+0.001), DM44, 0)</f>
@@ -22253,7 +22255,7 @@
       </c>
       <c r="FH44" s="0" t="n">
         <f aca="false">IF(EC44=0, 0, BT44)</f>
-        <v>0</v>
+        <v>0.847764767712922</v>
       </c>
       <c r="FI44" s="0" t="n">
         <f aca="false">IF(ED44=0, 0, BU44)</f>
@@ -22261,11 +22263,11 @@
       </c>
       <c r="FJ44" s="0" t="n">
         <f aca="false">IF(EE44=0, 0, BV44)</f>
-        <v>0.893752727264072</v>
+        <v>0</v>
       </c>
       <c r="FK44" s="0" t="n">
         <f aca="false">IF(EF44=0, 0, BW44)</f>
-        <v>0</v>
+        <v>1.83966480335978</v>
       </c>
       <c r="FL44" s="0" t="n">
         <f aca="false">IF(EG44=0, 0, BX44)</f>
@@ -22309,7 +22311,7 @@
       </c>
       <c r="FV44" s="0" t="n">
         <f aca="false">IF(EQ44=0, 0, CH44)</f>
-        <v>0</v>
+        <v>3.11017623471095</v>
       </c>
       <c r="FW44" s="0" t="n">
         <f aca="false">IF(ER44=0, 0, CI44)</f>
@@ -22557,103 +22559,103 @@
       <c r="CT45" s="5"/>
       <c r="CU45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.184877936252216</v>
+        <v>0.467841115250027</v>
       </c>
       <c r="CV45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.172631875817929</v>
+        <v>0.723145683032443</v>
       </c>
       <c r="CW45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00597340636731067</v>
+        <v>0.0491154642116611</v>
       </c>
       <c r="CX45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.917699418572671</v>
+        <v>0.729413004753666</v>
       </c>
       <c r="CY45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0138657855836591</v>
+        <v>0.529841964094617</v>
       </c>
       <c r="CZ45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.867923687577018</v>
+        <v>0.850907158730364</v>
       </c>
       <c r="DA45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.862064148771319</v>
+        <v>0.0571926027396856</v>
       </c>
       <c r="DB45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.723180766323319</v>
+        <v>0.724704385305494</v>
       </c>
       <c r="DC45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.123226108880637</v>
+        <v>0.158176717895434</v>
       </c>
       <c r="DD45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.982112097389524</v>
+        <v>0.0389113417590331</v>
       </c>
       <c r="DE45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.300475871246882</v>
+        <v>0.434196543615979</v>
       </c>
       <c r="DF45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.412704664243188</v>
+        <v>0.670651112105464</v>
       </c>
       <c r="DG45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.087032155461258</v>
+        <v>0.0241901912317109</v>
       </c>
       <c r="DH45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.580323154468032</v>
+        <v>0.371196404812418</v>
       </c>
       <c r="DI45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.545268979953612</v>
+        <v>0.609071811271001</v>
       </c>
       <c r="DJ45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.362394525138109</v>
+        <v>0.28866288531941</v>
       </c>
       <c r="DK45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.566632378435345</v>
+        <v>0.979446895911994</v>
       </c>
       <c r="DL45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.98879342841645</v>
+        <v>0.185272701947092</v>
       </c>
       <c r="DM45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00784407634759635</v>
+        <v>0.00342889012391854</v>
       </c>
       <c r="DN45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.68829399386991</v>
+        <v>0.683173018030002</v>
       </c>
       <c r="DO45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0296488455681526</v>
+        <v>0.172517481022997</v>
       </c>
       <c r="DP45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.901843999498235</v>
+        <v>0.509497279374028</v>
       </c>
       <c r="DQ45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0726094186512014</v>
+        <v>0.93521617205778</v>
       </c>
       <c r="DR45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.749576844721187</v>
+        <v>0.821085642565273</v>
       </c>
       <c r="DS45" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.7309920328202</v>
+        <v>0.754799176227783</v>
       </c>
       <c r="DT45" s="5"/>
       <c r="DU45" s="5"/>
@@ -22673,7 +22675,7 @@
       </c>
       <c r="EC45" s="0" t="n">
         <f aca="false">IF(CX45&gt;($GD$1+0.001), CX45, 0)</f>
-        <v>0.917699418572671</v>
+        <v>0</v>
       </c>
       <c r="ED45" s="0" t="n">
         <f aca="false">IF(CY45&gt;($GD$1+0.001), CY45, 0)</f>
@@ -22697,7 +22699,7 @@
       </c>
       <c r="EI45" s="0" t="n">
         <f aca="false">IF(DD45&gt;($GD$1+0.001), DD45, 0)</f>
-        <v>0.982112097389524</v>
+        <v>0</v>
       </c>
       <c r="EJ45" s="0" t="n">
         <f aca="false">IF(DE45&gt;($GD$1+0.001), DE45, 0)</f>
@@ -22725,11 +22727,11 @@
       </c>
       <c r="EP45" s="0" t="n">
         <f aca="false">IF(DK45&gt;($GD$1+0.001), DK45, 0)</f>
-        <v>0</v>
+        <v>0.979446895911994</v>
       </c>
       <c r="EQ45" s="0" t="n">
         <f aca="false">IF(DL45&gt;($GD$1+0.001), DL45, 0)</f>
-        <v>0.98879342841645</v>
+        <v>0</v>
       </c>
       <c r="ER45" s="0" t="n">
         <f aca="false">IF(DM45&gt;($GD$1+0.001), DM45, 0)</f>
@@ -22745,11 +22747,11 @@
       </c>
       <c r="EU45" s="0" t="n">
         <f aca="false">IF(DP45&gt;($GD$1+0.001), DP45, 0)</f>
-        <v>0.901843999498235</v>
+        <v>0</v>
       </c>
       <c r="EV45" s="0" t="n">
         <f aca="false">IF(DQ45&gt;($GD$1+0.001), DQ45, 0)</f>
-        <v>0</v>
+        <v>0.93521617205778</v>
       </c>
       <c r="EW45" s="0" t="n">
         <f aca="false">IF(DR45&gt;($GD$1+0.001), DR45, 0)</f>
@@ -22777,7 +22779,7 @@
       </c>
       <c r="FH45" s="0" t="n">
         <f aca="false">IF(EC45=0, 0, BT45)</f>
-        <v>2.3494073961597</v>
+        <v>0</v>
       </c>
       <c r="FI45" s="0" t="n">
         <f aca="false">IF(ED45=0, 0, BU45)</f>
@@ -22801,7 +22803,7 @@
       </c>
       <c r="FN45" s="0" t="n">
         <f aca="false">IF(EI45=0, 0, BZ45)</f>
-        <v>4.16172257804631</v>
+        <v>0</v>
       </c>
       <c r="FO45" s="0" t="n">
         <f aca="false">IF(EJ45=0, 0, CA45)</f>
@@ -22829,11 +22831,11 @@
       </c>
       <c r="FU45" s="0" t="n">
         <f aca="false">IF(EP45=0, 0, CG45)</f>
-        <v>0</v>
+        <v>4.32802873768775</v>
       </c>
       <c r="FV45" s="0" t="n">
         <f aca="false">IF(EQ45=0, 0, CH45)</f>
-        <v>5.48165237046394</v>
+        <v>0</v>
       </c>
       <c r="FW45" s="0" t="n">
         <f aca="false">IF(ER45=0, 0, CI45)</f>
@@ -22871,7 +22873,7 @@
       </c>
       <c r="GJ45" s="0" t="n">
         <f aca="false">MAX(FG45:FH46)</f>
-        <v>2.3494073961597</v>
+        <v>0</v>
       </c>
       <c r="GL45" s="0" t="n">
         <f aca="false">MAX(FI45:FJ46)</f>
@@ -22883,11 +22885,11 @@
       </c>
       <c r="GP45" s="0" t="n">
         <f aca="false">MAX(FM45:FN46)</f>
-        <v>4.16172257804631</v>
+        <v>0</v>
       </c>
       <c r="GR45" s="0" t="n">
         <f aca="false">MAX(FO45:FP46)</f>
-        <v>2.79537643925812</v>
+        <v>0</v>
       </c>
       <c r="GT45" s="0" t="n">
         <f aca="false">MAX(FQ45:FR46)</f>
@@ -22895,11 +22897,11 @@
       </c>
       <c r="GV45" s="0" t="n">
         <f aca="false">MAX(FS45:FT46)</f>
-        <v>0</v>
+        <v>3.07494686000388</v>
       </c>
       <c r="GX45" s="0" t="n">
         <f aca="false">MAX(FU45:FV46)</f>
-        <v>5.48165237046394</v>
+        <v>4.32802873768775</v>
       </c>
       <c r="GZ45" s="0" t="n">
         <f aca="false">MAX(FW45:FX46)</f>
@@ -23171,103 +23173,103 @@
       <c r="CT46" s="5"/>
       <c r="CU46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.827965484225005</v>
+        <v>0.641625008603354</v>
       </c>
       <c r="CV46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.690428957040101</v>
+        <v>0.146652298044692</v>
       </c>
       <c r="CW46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.365761062067333</v>
+        <v>0.275791216518306</v>
       </c>
       <c r="CX46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0983397037646749</v>
+        <v>0.437438610503124</v>
       </c>
       <c r="CY46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.109912034962891</v>
+        <v>0.800642603339383</v>
       </c>
       <c r="CZ46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.149303483120356</v>
+        <v>0.5454424426922</v>
       </c>
       <c r="DA46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.445601623464984</v>
+        <v>0.733882012572311</v>
       </c>
       <c r="DB46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.370374255105239</v>
+        <v>0.13242363911289</v>
       </c>
       <c r="DC46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.367640387966136</v>
+        <v>0.683379686305375</v>
       </c>
       <c r="DD46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.246427030600147</v>
+        <v>0.692172986575062</v>
       </c>
       <c r="DE46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.992979278977344</v>
+        <v>0.698684010126059</v>
       </c>
       <c r="DF46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.146909441284006</v>
+        <v>0.804905195871618</v>
       </c>
       <c r="DG46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.474413727212928</v>
+        <v>0.294278237525417</v>
       </c>
       <c r="DH46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.697325403579496</v>
+        <v>0.0972609455756339</v>
       </c>
       <c r="DI46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0453059710640117</v>
+        <v>0.963485193387686</v>
       </c>
       <c r="DJ46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.664345872137053</v>
+        <v>0.680142870610215</v>
       </c>
       <c r="DK46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.482215948107077</v>
+        <v>0.983557280008862</v>
       </c>
       <c r="DL46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.237575208593688</v>
+        <v>0.239625657509751</v>
       </c>
       <c r="DM46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.57354445157288</v>
+        <v>0.793721484323915</v>
       </c>
       <c r="DN46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.578255666986773</v>
+        <v>0.13358289652067</v>
       </c>
       <c r="DO46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.721157475238055</v>
+        <v>0.271304033957347</v>
       </c>
       <c r="DP46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.333696421156237</v>
+        <v>0.76884778554632</v>
       </c>
       <c r="DQ46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.887079121917123</v>
+        <v>0.907859505388821</v>
       </c>
       <c r="DR46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.503327354679428</v>
+        <v>0.667368411534877</v>
       </c>
       <c r="DS46" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.543140371334504</v>
+        <v>0.6386457495956</v>
       </c>
       <c r="DT46" s="5"/>
       <c r="DU46" s="5"/>
@@ -23315,7 +23317,7 @@
       </c>
       <c r="EJ46" s="0" t="n">
         <f aca="false">IF(DE46&gt;($GD$1+0.001), DE46, 0)</f>
-        <v>0.992979278977344</v>
+        <v>0</v>
       </c>
       <c r="EK46" s="0" t="n">
         <f aca="false">IF(DF46&gt;($GD$1+0.001), DF46, 0)</f>
@@ -23331,7 +23333,7 @@
       </c>
       <c r="EN46" s="0" t="n">
         <f aca="false">IF(DI46&gt;($GD$1+0.001), DI46, 0)</f>
-        <v>0</v>
+        <v>0.963485193387686</v>
       </c>
       <c r="EO46" s="0" t="n">
         <f aca="false">IF(DJ46&gt;($GD$1+0.001), DJ46, 0)</f>
@@ -23339,7 +23341,7 @@
       </c>
       <c r="EP46" s="0" t="n">
         <f aca="false">IF(DK46&gt;($GD$1+0.001), DK46, 0)</f>
-        <v>0</v>
+        <v>0.983557280008862</v>
       </c>
       <c r="EQ46" s="0" t="n">
         <f aca="false">IF(DL46&gt;($GD$1+0.001), DL46, 0)</f>
@@ -23363,7 +23365,7 @@
       </c>
       <c r="EV46" s="0" t="n">
         <f aca="false">IF(DQ46&gt;($GD$1+0.001), DQ46, 0)</f>
-        <v>0</v>
+        <v>0.907859505388821</v>
       </c>
       <c r="EW46" s="0" t="n">
         <f aca="false">IF(DR46&gt;($GD$1+0.001), DR46, 0)</f>
@@ -23419,7 +23421,7 @@
       </c>
       <c r="FO46" s="0" t="n">
         <f aca="false">IF(EJ46=0, 0, CA46)</f>
-        <v>2.79537643925812</v>
+        <v>0</v>
       </c>
       <c r="FP46" s="0" t="n">
         <f aca="false">IF(EK46=0, 0, CB46)</f>
@@ -23435,7 +23437,7 @@
       </c>
       <c r="FS46" s="0" t="n">
         <f aca="false">IF(EN46=0, 0, CE46)</f>
-        <v>0</v>
+        <v>3.07494686000388</v>
       </c>
       <c r="FT46" s="0" t="n">
         <f aca="false">IF(EO46=0, 0, CF46)</f>
@@ -23443,7 +23445,7 @@
       </c>
       <c r="FU46" s="0" t="n">
         <f aca="false">IF(EP46=0, 0, CG46)</f>
-        <v>0</v>
+        <v>3.70944191384041</v>
       </c>
       <c r="FV46" s="0" t="n">
         <f aca="false">IF(EQ46=0, 0, CH46)</f>
@@ -23704,103 +23706,103 @@
       <c r="CT47" s="5"/>
       <c r="CU47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.831523005426826</v>
+        <v>0.307010167757279</v>
       </c>
       <c r="CV47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.840689517399435</v>
+        <v>0.35506488245869</v>
       </c>
       <c r="CW47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.582418832291296</v>
+        <v>0.554556604118288</v>
       </c>
       <c r="CX47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0740912130972394</v>
+        <v>0.732572809294445</v>
       </c>
       <c r="CY47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.89015327941528</v>
+        <v>0.172803565127415</v>
       </c>
       <c r="CZ47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.921184501218593</v>
+        <v>0.302569395839839</v>
       </c>
       <c r="DA47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.917655289414496</v>
+        <v>0.578261313774097</v>
       </c>
       <c r="DB47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.191037334195388</v>
+        <v>0.828434339239186</v>
       </c>
       <c r="DC47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.806004779572183</v>
+        <v>0.594650784924407</v>
       </c>
       <c r="DD47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.285647433535692</v>
+        <v>0.615077945265957</v>
       </c>
       <c r="DE47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.488585543068692</v>
+        <v>0.841157620624632</v>
       </c>
       <c r="DF47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.436109573105744</v>
+        <v>0.950431540068667</v>
       </c>
       <c r="DG47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.880146182304282</v>
+        <v>0.921544055107834</v>
       </c>
       <c r="DH47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.735232708161077</v>
+        <v>0.160471956765824</v>
       </c>
       <c r="DI47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.256289861850995</v>
+        <v>0.823204000017376</v>
       </c>
       <c r="DJ47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.558578759163631</v>
+        <v>0.335548354786002</v>
       </c>
       <c r="DK47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.63795137219278</v>
+        <v>0.245969728167764</v>
       </c>
       <c r="DL47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.351029002406712</v>
+        <v>0.594418308836479</v>
       </c>
       <c r="DM47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.056426276521066</v>
+        <v>0.194967883747845</v>
       </c>
       <c r="DN47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.333121523115948</v>
+        <v>0.591827607828813</v>
       </c>
       <c r="DO47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.256553309418308</v>
+        <v>0.92202703473324</v>
       </c>
       <c r="DP47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.910056121647064</v>
+        <v>0.283118325383059</v>
       </c>
       <c r="DQ47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.862800704226793</v>
+        <v>0.151016253975838</v>
       </c>
       <c r="DR47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.692130066218731</v>
+        <v>0.203275977104918</v>
       </c>
       <c r="DS47" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.630729213793507</v>
+        <v>0.569747679617101</v>
       </c>
       <c r="DT47" s="5"/>
       <c r="DU47" s="5"/>
@@ -23828,11 +23830,11 @@
       </c>
       <c r="EE47" s="0" t="n">
         <f aca="false">IF(CZ47&gt;($GD$1+0.001), CZ47, 0)</f>
-        <v>0.921184501218593</v>
+        <v>0</v>
       </c>
       <c r="EF47" s="0" t="n">
         <f aca="false">IF(DA47&gt;($GD$1+0.001), DA47, 0)</f>
-        <v>0.917655289414496</v>
+        <v>0</v>
       </c>
       <c r="EG47" s="0" t="n">
         <f aca="false">IF(DB47&gt;($GD$1+0.001), DB47, 0)</f>
@@ -23852,11 +23854,11 @@
       </c>
       <c r="EK47" s="0" t="n">
         <f aca="false">IF(DF47&gt;($GD$1+0.001), DF47, 0)</f>
-        <v>0</v>
+        <v>0.950431540068667</v>
       </c>
       <c r="EL47" s="0" t="n">
         <f aca="false">IF(DG47&gt;($GD$1+0.001), DG47, 0)</f>
-        <v>0</v>
+        <v>0.921544055107834</v>
       </c>
       <c r="EM47" s="0" t="n">
         <f aca="false">IF(DH47&gt;($GD$1+0.001), DH47, 0)</f>
@@ -23888,11 +23890,11 @@
       </c>
       <c r="ET47" s="0" t="n">
         <f aca="false">IF(DO47&gt;($GD$1+0.001), DO47, 0)</f>
-        <v>0</v>
+        <v>0.92202703473324</v>
       </c>
       <c r="EU47" s="0" t="n">
         <f aca="false">IF(DP47&gt;($GD$1+0.001), DP47, 0)</f>
-        <v>0.910056121647064</v>
+        <v>0</v>
       </c>
       <c r="EV47" s="0" t="n">
         <f aca="false">IF(DQ47&gt;($GD$1+0.001), DQ47, 0)</f>
@@ -23932,11 +23934,11 @@
       </c>
       <c r="FJ47" s="0" t="n">
         <f aca="false">IF(EE47=0, 0, BV47)</f>
-        <v>1.72362537449864</v>
+        <v>0</v>
       </c>
       <c r="FK47" s="0" t="n">
         <f aca="false">IF(EF47=0, 0, BW47)</f>
-        <v>1.68092454053215</v>
+        <v>0</v>
       </c>
       <c r="FL47" s="0" t="n">
         <f aca="false">IF(EG47=0, 0, BX47)</f>
@@ -23956,11 +23958,11 @@
       </c>
       <c r="FP47" s="0" t="n">
         <f aca="false">IF(EK47=0, 0, CB47)</f>
-        <v>0</v>
+        <v>0.624697060677983</v>
       </c>
       <c r="FQ47" s="0" t="n">
         <f aca="false">IF(EL47=0, 0, CC47)</f>
-        <v>0</v>
+        <v>0.990835371590664</v>
       </c>
       <c r="FR47" s="0" t="n">
         <f aca="false">IF(EM47=0, 0, CD47)</f>
@@ -23996,7 +23998,7 @@
       </c>
       <c r="FZ47" s="0" t="n">
         <f aca="false">IF(EU47=0, 0, CL47)</f>
-        <v>0.0468997708004222</v>
+        <v>0</v>
       </c>
       <c r="GA47" s="0" t="n">
         <f aca="false">IF(EV47=0, 0, CM47)</f>
@@ -24022,11 +24024,11 @@
       </c>
       <c r="GL47" s="0" t="n">
         <f aca="false">MAX(FI47:FJ48)</f>
-        <v>1.72362537449864</v>
+        <v>0</v>
       </c>
       <c r="GN47" s="0" t="n">
         <f aca="false">MAX(FK47:FL48)</f>
-        <v>1.68092454053215</v>
+        <v>0</v>
       </c>
       <c r="GP47" s="0" t="n">
         <f aca="false">MAX(FM47:FN48)</f>
@@ -24034,11 +24036,11 @@
       </c>
       <c r="GR47" s="0" t="n">
         <f aca="false">MAX(FO47:FP48)</f>
-        <v>0</v>
+        <v>0.624697060677983</v>
       </c>
       <c r="GT47" s="0" t="n">
         <f aca="false">MAX(FQ47:FR48)</f>
-        <v>0</v>
+        <v>0.990835371590664</v>
       </c>
       <c r="GV47" s="0" t="n">
         <f aca="false">MAX(FS47:FT48)</f>
@@ -24046,7 +24048,7 @@
       </c>
       <c r="GX47" s="0" t="n">
         <f aca="false">MAX(FU47:FV48)</f>
-        <v>0</v>
+        <v>0.848654314019841</v>
       </c>
       <c r="GZ47" s="0" t="n">
         <f aca="false">MAX(FW47:FX48)</f>
@@ -24054,7 +24056,7 @@
       </c>
       <c r="HB47" s="0" t="n">
         <f aca="false">MAX(FY47:FZ48)</f>
-        <v>0.0468997708004222</v>
+        <v>0</v>
       </c>
       <c r="HD47" s="0" t="n">
         <f aca="false">MAX(GA47:GB48)</f>
@@ -24325,103 +24327,103 @@
       <c r="CT48" s="5"/>
       <c r="CU48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.632195976542988</v>
+        <v>0.132192310206775</v>
       </c>
       <c r="CV48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0613930407462166</v>
+        <v>0.710995550745779</v>
       </c>
       <c r="CW48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.973831948266613</v>
+        <v>0.231016717122688</v>
       </c>
       <c r="CX48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.173526963477953</v>
+        <v>0.351671674952744</v>
       </c>
       <c r="CY48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.527847738614837</v>
+        <v>0.322154556265589</v>
       </c>
       <c r="CZ48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.53353410374919</v>
+        <v>0.80989691562043</v>
       </c>
       <c r="DA48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.896929347496635</v>
+        <v>0.412115307741968</v>
       </c>
       <c r="DB48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.965069630490915</v>
+        <v>0.655466903877033</v>
       </c>
       <c r="DC48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.286005656130245</v>
+        <v>0.149254120190588</v>
       </c>
       <c r="DD48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.232754794457619</v>
+        <v>0.321154360527096</v>
       </c>
       <c r="DE48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.335653179653924</v>
+        <v>0.621876298967813</v>
       </c>
       <c r="DF48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.384662131002671</v>
+        <v>0.50161399293386</v>
       </c>
       <c r="DG48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.801357026680524</v>
+        <v>0.731304273366833</v>
       </c>
       <c r="DH48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.435022263159744</v>
+        <v>0.0728685526331361</v>
       </c>
       <c r="DI48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.884406835251999</v>
+        <v>0.191518006662778</v>
       </c>
       <c r="DJ48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.518358554308264</v>
+        <v>0.0434760245186147</v>
       </c>
       <c r="DK48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.897651751990291</v>
+        <v>0.915742144998207</v>
       </c>
       <c r="DL48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.120463842981893</v>
+        <v>0.64961781580157</v>
       </c>
       <c r="DM48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.873187176387875</v>
+        <v>0.639442962169979</v>
       </c>
       <c r="DN48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.471114685764144</v>
+        <v>0.328052451080854</v>
       </c>
       <c r="DO48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.199481900571265</v>
+        <v>0.805826343383804</v>
       </c>
       <c r="DP48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.337079578655512</v>
+        <v>0.552675950008014</v>
       </c>
       <c r="DQ48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.736629976025266</v>
+        <v>0.0617280026401232</v>
       </c>
       <c r="DR48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.77662457511913</v>
+        <v>0.529550873032072</v>
       </c>
       <c r="DS48" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.277561440533245</v>
+        <v>0.163919172862456</v>
       </c>
       <c r="DT48" s="5"/>
       <c r="DU48" s="5"/>
@@ -24437,7 +24439,7 @@
       </c>
       <c r="EB48" s="0" t="n">
         <f aca="false">IF(CW48&gt;($GD$1+0.001), CW48, 0)</f>
-        <v>0.973831948266613</v>
+        <v>0</v>
       </c>
       <c r="EC48" s="0" t="n">
         <f aca="false">IF(CX48&gt;($GD$1+0.001), CX48, 0)</f>
@@ -24457,7 +24459,7 @@
       </c>
       <c r="EG48" s="0" t="n">
         <f aca="false">IF(DB48&gt;($GD$1+0.001), DB48, 0)</f>
-        <v>0.965069630490915</v>
+        <v>0</v>
       </c>
       <c r="EH48" s="0" t="n">
         <f aca="false">IF(DC48&gt;($GD$1+0.001), DC48, 0)</f>
@@ -24493,7 +24495,7 @@
       </c>
       <c r="EP48" s="0" t="n">
         <f aca="false">IF(DK48&gt;($GD$1+0.001), DK48, 0)</f>
-        <v>0</v>
+        <v>0.915742144998207</v>
       </c>
       <c r="EQ48" s="0" t="n">
         <f aca="false">IF(DL48&gt;($GD$1+0.001), DL48, 0)</f>
@@ -24597,7 +24599,7 @@
       </c>
       <c r="FU48" s="0" t="n">
         <f aca="false">IF(EP48=0, 0, CG48)</f>
-        <v>0</v>
+        <v>0.848654314019841</v>
       </c>
       <c r="FV48" s="0" t="n">
         <f aca="false">IF(EQ48=0, 0, CH48)</f>
@@ -24849,103 +24851,103 @@
       <c r="CT49" s="5"/>
       <c r="CU49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.316183132408462</v>
+        <v>0.680762033487605</v>
       </c>
       <c r="CV49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.632168757637253</v>
+        <v>0.248431673410778</v>
       </c>
       <c r="CW49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.890732371880457</v>
+        <v>0.42103543963412</v>
       </c>
       <c r="CX49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.202152452111319</v>
+        <v>0.194452257856853</v>
       </c>
       <c r="CY49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.942777353326271</v>
+        <v>0.202192083947456</v>
       </c>
       <c r="CZ49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.101585072982556</v>
+        <v>0.535459185205815</v>
       </c>
       <c r="DA49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.506327827178283</v>
+        <v>0.26713543699651</v>
       </c>
       <c r="DB49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0910929714196006</v>
+        <v>0.526934311353077</v>
       </c>
       <c r="DC49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.105991535456283</v>
+        <v>0.0401847341987091</v>
       </c>
       <c r="DD49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.337105256995615</v>
+        <v>0.346664633168707</v>
       </c>
       <c r="DE49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.181389226626131</v>
+        <v>0.0725019333793939</v>
       </c>
       <c r="DF49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0106917440959774</v>
+        <v>0.752913771464373</v>
       </c>
       <c r="DG49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.201350124646012</v>
+        <v>0.964573797883477</v>
       </c>
       <c r="DH49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.997241670841659</v>
+        <v>0.941108680749928</v>
       </c>
       <c r="DI49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.731868143104323</v>
+        <v>0.850595043129709</v>
       </c>
       <c r="DJ49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.131182203118955</v>
+        <v>0.218199424400446</v>
       </c>
       <c r="DK49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.300995367003553</v>
+        <v>0.263727664231732</v>
       </c>
       <c r="DL49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.841523908839958</v>
+        <v>0.102996925976234</v>
       </c>
       <c r="DM49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0960737540995564</v>
+        <v>0.216115895557463</v>
       </c>
       <c r="DN49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0533490538952655</v>
+        <v>0.253726469129964</v>
       </c>
       <c r="DO49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.777468665490102</v>
+        <v>0.00525367938592141</v>
       </c>
       <c r="DP49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.78409462594029</v>
+        <v>0.721727273470779</v>
       </c>
       <c r="DQ49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.999449592789596</v>
+        <v>0.917617845077923</v>
       </c>
       <c r="DR49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.803949513058769</v>
+        <v>0.229318119210444</v>
       </c>
       <c r="DS49" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.431330440988703</v>
+        <v>0.865636889881954</v>
       </c>
       <c r="DT49" s="5"/>
       <c r="DU49" s="5"/>
@@ -24969,7 +24971,7 @@
       </c>
       <c r="ED49" s="0" t="n">
         <f aca="false">IF(CY49&gt;($GD$1+0.001), CY49, 0)</f>
-        <v>0.942777353326271</v>
+        <v>0</v>
       </c>
       <c r="EE49" s="0" t="n">
         <f aca="false">IF(CZ49&gt;($GD$1+0.001), CZ49, 0)</f>
@@ -25001,11 +25003,11 @@
       </c>
       <c r="EL49" s="0" t="n">
         <f aca="false">IF(DG49&gt;($GD$1+0.001), DG49, 0)</f>
-        <v>0</v>
+        <v>0.964573797883477</v>
       </c>
       <c r="EM49" s="0" t="n">
         <f aca="false">IF(DH49&gt;($GD$1+0.001), DH49, 0)</f>
-        <v>0.997241670841659</v>
+        <v>0.941108680749928</v>
       </c>
       <c r="EN49" s="0" t="n">
         <f aca="false">IF(DI49&gt;($GD$1+0.001), DI49, 0)</f>
@@ -25041,7 +25043,7 @@
       </c>
       <c r="EV49" s="0" t="n">
         <f aca="false">IF(DQ49&gt;($GD$1+0.001), DQ49, 0)</f>
-        <v>0.999449592789596</v>
+        <v>0.917617845077923</v>
       </c>
       <c r="EW49" s="0" t="n">
         <f aca="false">IF(DR49&gt;($GD$1+0.001), DR49, 0)</f>
@@ -25183,7 +25185,7 @@
       </c>
       <c r="GT49" s="0" t="n">
         <f aca="false">MAX(FQ49:FR50)</f>
-        <v>1.24813698296472</v>
+        <v>0</v>
       </c>
       <c r="GV49" s="0" t="n">
         <f aca="false">MAX(FS49:FT50)</f>
@@ -25199,7 +25201,7 @@
       </c>
       <c r="HB49" s="0" t="n">
         <f aca="false">MAX(FY49:FZ50)</f>
-        <v>0</v>
+        <v>1.32373051772602</v>
       </c>
       <c r="HD49" s="0" t="n">
         <f aca="false">MAX(GA49:GB50)</f>
@@ -25464,103 +25466,103 @@
       <c r="CT50" s="5"/>
       <c r="CU50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.107994822175343</v>
+        <v>0.735057882536302</v>
       </c>
       <c r="CV50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.965534256409738</v>
+        <v>0.348963265716099</v>
       </c>
       <c r="CW50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.628386544147481</v>
+        <v>0.532109015043532</v>
       </c>
       <c r="CX50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.623978635643974</v>
+        <v>0.0136049392211977</v>
       </c>
       <c r="CY50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.473066652354912</v>
+        <v>0.158668810559939</v>
       </c>
       <c r="CZ50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.917943460040073</v>
+        <v>0.02985221330803</v>
       </c>
       <c r="DA50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.856802414576954</v>
+        <v>0.218529633876936</v>
       </c>
       <c r="DB50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.784063352420394</v>
+        <v>0.0484446075345134</v>
       </c>
       <c r="DC50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.788480484343188</v>
+        <v>0.344025319495163</v>
       </c>
       <c r="DD50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.417333714526861</v>
+        <v>0.3230745236084</v>
       </c>
       <c r="DE50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.828977390918548</v>
+        <v>0.104413613371588</v>
       </c>
       <c r="DF50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.721065357058152</v>
+        <v>0.687032060807684</v>
       </c>
       <c r="DG50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.571042013965658</v>
+        <v>0.380102038288078</v>
       </c>
       <c r="DH50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.991587883773721</v>
+        <v>0.874368387201817</v>
       </c>
       <c r="DI50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.518660166110859</v>
+        <v>0.15805073590667</v>
       </c>
       <c r="DJ50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.559736065110365</v>
+        <v>0.236865410541595</v>
       </c>
       <c r="DK50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0579780730275117</v>
+        <v>0.173334873311888</v>
       </c>
       <c r="DL50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.183179798331967</v>
+        <v>0.818241395604925</v>
       </c>
       <c r="DM50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.518256336330828</v>
+        <v>0.126877534727059</v>
       </c>
       <c r="DN50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.497131282308263</v>
+        <v>0.307193273121938</v>
       </c>
       <c r="DO50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0755209777563427</v>
+        <v>0.927055066587086</v>
       </c>
       <c r="DP50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.601170769397003</v>
+        <v>0.581089267868483</v>
       </c>
       <c r="DQ50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.58633395305342</v>
+        <v>0.211489962623099</v>
       </c>
       <c r="DR50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.282586853603621</v>
+        <v>0.557299788853171</v>
       </c>
       <c r="DS50" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.731071792555819</v>
+        <v>0.173304200298848</v>
       </c>
       <c r="DT50" s="5"/>
       <c r="DU50" s="5"/>
@@ -25572,7 +25574,7 @@
       </c>
       <c r="EA50" s="0" t="n">
         <f aca="false">IF(CV50&gt;($GD$1+0.001), CV50, 0)</f>
-        <v>0.965534256409738</v>
+        <v>0</v>
       </c>
       <c r="EB50" s="0" t="n">
         <f aca="false">IF(CW50&gt;($GD$1+0.001), CW50, 0)</f>
@@ -25588,7 +25590,7 @@
       </c>
       <c r="EE50" s="0" t="n">
         <f aca="false">IF(CZ50&gt;($GD$1+0.001), CZ50, 0)</f>
-        <v>0.917943460040073</v>
+        <v>0</v>
       </c>
       <c r="EF50" s="0" t="n">
         <f aca="false">IF(DA50&gt;($GD$1+0.001), DA50, 0)</f>
@@ -25620,7 +25622,7 @@
       </c>
       <c r="EM50" s="0" t="n">
         <f aca="false">IF(DH50&gt;($GD$1+0.001), DH50, 0)</f>
-        <v>0.991587883773721</v>
+        <v>0</v>
       </c>
       <c r="EN50" s="0" t="n">
         <f aca="false">IF(DI50&gt;($GD$1+0.001), DI50, 0)</f>
@@ -25648,7 +25650,7 @@
       </c>
       <c r="ET50" s="0" t="n">
         <f aca="false">IF(DO50&gt;($GD$1+0.001), DO50, 0)</f>
-        <v>0</v>
+        <v>0.927055066587086</v>
       </c>
       <c r="EU50" s="0" t="n">
         <f aca="false">IF(DP50&gt;($GD$1+0.001), DP50, 0)</f>
@@ -25724,7 +25726,7 @@
       </c>
       <c r="FR50" s="0" t="n">
         <f aca="false">IF(EM50=0, 0, CD50)</f>
-        <v>1.24813698296472</v>
+        <v>0</v>
       </c>
       <c r="FS50" s="0" t="n">
         <f aca="false">IF(EN50=0, 0, CE50)</f>
@@ -25752,7 +25754,7 @@
       </c>
       <c r="FY50" s="0" t="n">
         <f aca="false">IF(ET50=0, 0, CK50)</f>
-        <v>0</v>
+        <v>1.32373051772602</v>
       </c>
       <c r="FZ50" s="0" t="n">
         <f aca="false">IF(EU50=0, 0, CL50)</f>
@@ -25985,103 +25987,103 @@
       <c r="CT51" s="5"/>
       <c r="CU51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.976474014851963</v>
+        <v>0.13539764168383</v>
       </c>
       <c r="CV51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.846993479819214</v>
+        <v>0.942118246237367</v>
       </c>
       <c r="CW51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.957119794760197</v>
+        <v>0.674604614293534</v>
       </c>
       <c r="CX51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.477600844830559</v>
+        <v>0.821531087220375</v>
       </c>
       <c r="CY51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.536126434289192</v>
+        <v>0.89577751169629</v>
       </c>
       <c r="CZ51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.683527093038904</v>
+        <v>0.976211280315119</v>
       </c>
       <c r="DA51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.421181896739503</v>
+        <v>0.0699934131937862</v>
       </c>
       <c r="DB51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.906243124663408</v>
+        <v>0.119020529330353</v>
       </c>
       <c r="DC51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.858101744728491</v>
+        <v>0.684273193195985</v>
       </c>
       <c r="DD51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0849410520040743</v>
+        <v>0.364494501433945</v>
       </c>
       <c r="DE51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.257683111881395</v>
+        <v>0.0637209788659697</v>
       </c>
       <c r="DF51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.024810485227888</v>
+        <v>0.726391655430391</v>
       </c>
       <c r="DG51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.797530936003602</v>
+        <v>0.0929842660574201</v>
       </c>
       <c r="DH51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.140587065396341</v>
+        <v>0.569267269485591</v>
       </c>
       <c r="DI51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.304031270047984</v>
+        <v>0.362398170648033</v>
       </c>
       <c r="DJ51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.620944376857294</v>
+        <v>0.0660083124527546</v>
       </c>
       <c r="DK51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.32621312731094</v>
+        <v>0.275238376353355</v>
       </c>
       <c r="DL51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.435928538662993</v>
+        <v>0.455029298138655</v>
       </c>
       <c r="DM51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.295767307620206</v>
+        <v>0.854372263533664</v>
       </c>
       <c r="DN51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.702681731861939</v>
+        <v>0.691809154374639</v>
       </c>
       <c r="DO51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.174082212583386</v>
+        <v>0.462550682698315</v>
       </c>
       <c r="DP51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0734489911373274</v>
+        <v>0.0078784314201546</v>
       </c>
       <c r="DQ51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.272423062433534</v>
+        <v>0.703999906753781</v>
       </c>
       <c r="DR51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.178088206691166</v>
+        <v>0.459756029978115</v>
       </c>
       <c r="DS51" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.707610290875835</v>
+        <v>0.621727232629688</v>
       </c>
       <c r="DT51" s="5"/>
       <c r="DU51" s="5"/>
@@ -26089,15 +26091,15 @@
       <c r="DY51" s="5"/>
       <c r="DZ51" s="0" t="n">
         <f aca="false">IF(CU51&gt;($GD$1+0.001), CU51, 0)</f>
-        <v>0.976474014851963</v>
+        <v>0</v>
       </c>
       <c r="EA51" s="0" t="n">
         <f aca="false">IF(CV51&gt;($GD$1+0.001), CV51, 0)</f>
-        <v>0</v>
+        <v>0.942118246237367</v>
       </c>
       <c r="EB51" s="0" t="n">
         <f aca="false">IF(CW51&gt;($GD$1+0.001), CW51, 0)</f>
-        <v>0.957119794760197</v>
+        <v>0</v>
       </c>
       <c r="EC51" s="0" t="n">
         <f aca="false">IF(CX51&gt;($GD$1+0.001), CX51, 0)</f>
@@ -26109,7 +26111,7 @@
       </c>
       <c r="EE51" s="0" t="n">
         <f aca="false">IF(CZ51&gt;($GD$1+0.001), CZ51, 0)</f>
-        <v>0</v>
+        <v>0.976211280315119</v>
       </c>
       <c r="EF51" s="0" t="n">
         <f aca="false">IF(DA51&gt;($GD$1+0.001), DA51, 0)</f>
@@ -26117,7 +26119,7 @@
       </c>
       <c r="EG51" s="0" t="n">
         <f aca="false">IF(DB51&gt;($GD$1+0.001), DB51, 0)</f>
-        <v>0.906243124663408</v>
+        <v>0</v>
       </c>
       <c r="EH51" s="0" t="n">
         <f aca="false">IF(DC51&gt;($GD$1+0.001), DC51, 0)</f>
@@ -26315,7 +26317,7 @@
       </c>
       <c r="GR51" s="0" t="n">
         <f aca="false">MAX(FO51:FP52)</f>
-        <v>2.35508790995257</v>
+        <v>0</v>
       </c>
       <c r="GT51" s="0" t="n">
         <f aca="false">MAX(FQ51:FR52)</f>
@@ -26335,7 +26337,7 @@
       </c>
       <c r="HB51" s="0" t="n">
         <f aca="false">MAX(FY51:FZ52)</f>
-        <v>0</v>
+        <v>1.5530249938585</v>
       </c>
       <c r="HD51" s="0" t="n">
         <f aca="false">MAX(GA51:GB52)</f>
@@ -26600,103 +26602,103 @@
       <c r="CT52" s="5"/>
       <c r="CU52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.264587407422853</v>
+        <v>0.116062067949238</v>
       </c>
       <c r="CV52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.380641692710246</v>
+        <v>0.00151182337863015</v>
       </c>
       <c r="CW52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.480254518314198</v>
+        <v>0.17590120756252</v>
       </c>
       <c r="CX52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.8840691033744</v>
+        <v>0.24660794946878</v>
       </c>
       <c r="CY52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.383609668011358</v>
+        <v>0.135295693641562</v>
       </c>
       <c r="CZ52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.1401897985651</v>
+        <v>0.543999300997836</v>
       </c>
       <c r="DA52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.419913861879098</v>
+        <v>0.223688458377758</v>
       </c>
       <c r="DB52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.458720763497971</v>
+        <v>0.727283945427406</v>
       </c>
       <c r="DC52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.638367865172976</v>
+        <v>0.333799981338219</v>
       </c>
       <c r="DD52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.550018758989353</v>
+        <v>0.564734601991187</v>
       </c>
       <c r="DE52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.969218589657548</v>
+        <v>0.260655432384233</v>
       </c>
       <c r="DF52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.859341546428683</v>
+        <v>0.375171640247642</v>
       </c>
       <c r="DG52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.116774172606806</v>
+        <v>0.0471520600712725</v>
       </c>
       <c r="DH52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.385702453530603</v>
+        <v>0.170153674240795</v>
       </c>
       <c r="DI52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.783962891190067</v>
+        <v>0.322612917584986</v>
       </c>
       <c r="DJ52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.662199309936736</v>
+        <v>0.578560374825844</v>
       </c>
       <c r="DK52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.982734888356135</v>
+        <v>0.957402786407553</v>
       </c>
       <c r="DL52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.898747898519623</v>
+        <v>0.110484356941805</v>
       </c>
       <c r="DM52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.124956186087818</v>
+        <v>0.456766522309321</v>
       </c>
       <c r="DN52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.489970120758076</v>
+        <v>0.495706716055426</v>
       </c>
       <c r="DO52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.102180939203738</v>
+        <v>0.975852582984868</v>
       </c>
       <c r="DP52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.548658929251506</v>
+        <v>0.203089556869149</v>
       </c>
       <c r="DQ52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.676613349822476</v>
+        <v>0.641063012949763</v>
       </c>
       <c r="DR52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.37200399626801</v>
+        <v>0.241837931843962</v>
       </c>
       <c r="DS52" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0430199760457539</v>
+        <v>0.0239851282918975</v>
       </c>
       <c r="DT52" s="5"/>
       <c r="DU52" s="5"/>
@@ -26744,7 +26746,7 @@
       </c>
       <c r="EJ52" s="0" t="n">
         <f aca="false">IF(DE52&gt;($GD$1+0.001), DE52, 0)</f>
-        <v>0.969218589657548</v>
+        <v>0</v>
       </c>
       <c r="EK52" s="0" t="n">
         <f aca="false">IF(DF52&gt;($GD$1+0.001), DF52, 0)</f>
@@ -26768,7 +26770,7 @@
       </c>
       <c r="EP52" s="0" t="n">
         <f aca="false">IF(DK52&gt;($GD$1+0.001), DK52, 0)</f>
-        <v>0.982734888356135</v>
+        <v>0.957402786407553</v>
       </c>
       <c r="EQ52" s="0" t="n">
         <f aca="false">IF(DL52&gt;($GD$1+0.001), DL52, 0)</f>
@@ -26784,7 +26786,7 @@
       </c>
       <c r="ET52" s="0" t="n">
         <f aca="false">IF(DO52&gt;($GD$1+0.001), DO52, 0)</f>
-        <v>0</v>
+        <v>0.975852582984868</v>
       </c>
       <c r="EU52" s="0" t="n">
         <f aca="false">IF(DP52&gt;($GD$1+0.001), DP52, 0)</f>
@@ -26848,7 +26850,7 @@
       </c>
       <c r="FO52" s="0" t="n">
         <f aca="false">IF(EJ52=0, 0, CA52)</f>
-        <v>2.35508790995257</v>
+        <v>0</v>
       </c>
       <c r="FP52" s="0" t="n">
         <f aca="false">IF(EK52=0, 0, CB52)</f>
@@ -26888,7 +26890,7 @@
       </c>
       <c r="FY52" s="0" t="n">
         <f aca="false">IF(ET52=0, 0, CK52)</f>
-        <v>0</v>
+        <v>1.5530249938585</v>
       </c>
       <c r="FZ52" s="0" t="n">
         <f aca="false">IF(EU52=0, 0, CL52)</f>
@@ -27121,103 +27123,103 @@
       <c r="CT53" s="5"/>
       <c r="CU53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.639529917920866</v>
+        <v>0.557814051424415</v>
       </c>
       <c r="CV53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.624354734301957</v>
+        <v>0.149968783723128</v>
       </c>
       <c r="CW53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.244536873864484</v>
+        <v>0.786664650527825</v>
       </c>
       <c r="CX53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.644827275058404</v>
+        <v>0.417737602148685</v>
       </c>
       <c r="CY53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.339372551527875</v>
+        <v>0.404066087397025</v>
       </c>
       <c r="CZ53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.102610162365379</v>
+        <v>0.282460639996154</v>
       </c>
       <c r="DA53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.547820699551205</v>
+        <v>0.55062819262124</v>
       </c>
       <c r="DB53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.149950377336405</v>
+        <v>0.111064717120631</v>
       </c>
       <c r="DC53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.232450707116996</v>
+        <v>0.120021210195762</v>
       </c>
       <c r="DD53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.498478504481892</v>
+        <v>0.429215880903594</v>
       </c>
       <c r="DE53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.988019445960932</v>
+        <v>0.595053552207894</v>
       </c>
       <c r="DF53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.786912239632044</v>
+        <v>0.169235222224777</v>
       </c>
       <c r="DG53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.242157090745048</v>
+        <v>0.937093641657352</v>
       </c>
       <c r="DH53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.34857528238213</v>
+        <v>0.104712718913964</v>
       </c>
       <c r="DI53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.905823769269286</v>
+        <v>0.395122124122313</v>
       </c>
       <c r="DJ53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.427600099949963</v>
+        <v>0.147418927489981</v>
       </c>
       <c r="DK53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0807594284013377</v>
+        <v>0.251186866517974</v>
       </c>
       <c r="DL53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.68387111780826</v>
+        <v>0.772975331058017</v>
       </c>
       <c r="DM53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.927597832917169</v>
+        <v>0.670599966034245</v>
       </c>
       <c r="DN53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.638764314195366</v>
+        <v>0.922534471117376</v>
       </c>
       <c r="DO53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.239448605308929</v>
+        <v>0.156531458971169</v>
       </c>
       <c r="DP53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.582507782125637</v>
+        <v>0.85220073692795</v>
       </c>
       <c r="DQ53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967310413567168</v>
+        <v>0.109499587646742</v>
       </c>
       <c r="DR53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.58047456855746</v>
+        <v>0.413195925864321</v>
       </c>
       <c r="DS53" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.155010384589721</v>
+        <v>0.250517160127874</v>
       </c>
       <c r="DT53" s="5"/>
       <c r="DU53" s="5"/>
@@ -27265,7 +27267,7 @@
       </c>
       <c r="EJ53" s="0" t="n">
         <f aca="false">IF(DE53&gt;($GD$1+0.001), DE53, 0)</f>
-        <v>0.988019445960932</v>
+        <v>0</v>
       </c>
       <c r="EK53" s="0" t="n">
         <f aca="false">IF(DF53&gt;($GD$1+0.001), DF53, 0)</f>
@@ -27273,7 +27275,7 @@
       </c>
       <c r="EL53" s="0" t="n">
         <f aca="false">IF(DG53&gt;($GD$1+0.001), DG53, 0)</f>
-        <v>0</v>
+        <v>0.937093641657352</v>
       </c>
       <c r="EM53" s="0" t="n">
         <f aca="false">IF(DH53&gt;($GD$1+0.001), DH53, 0)</f>
@@ -27281,7 +27283,7 @@
       </c>
       <c r="EN53" s="0" t="n">
         <f aca="false">IF(DI53&gt;($GD$1+0.001), DI53, 0)</f>
-        <v>0.905823769269286</v>
+        <v>0</v>
       </c>
       <c r="EO53" s="0" t="n">
         <f aca="false">IF(DJ53&gt;($GD$1+0.001), DJ53, 0)</f>
@@ -27297,11 +27299,11 @@
       </c>
       <c r="ER53" s="0" t="n">
         <f aca="false">IF(DM53&gt;($GD$1+0.001), DM53, 0)</f>
-        <v>0.927597832917169</v>
+        <v>0</v>
       </c>
       <c r="ES53" s="0" t="n">
         <f aca="false">IF(DN53&gt;($GD$1+0.001), DN53, 0)</f>
-        <v>0</v>
+        <v>0.922534471117376</v>
       </c>
       <c r="ET53" s="0" t="n">
         <f aca="false">IF(DO53&gt;($GD$1+0.001), DO53, 0)</f>
@@ -27313,7 +27315,7 @@
       </c>
       <c r="EV53" s="0" t="n">
         <f aca="false">IF(DQ53&gt;($GD$1+0.001), DQ53, 0)</f>
-        <v>0.967310413567168</v>
+        <v>0</v>
       </c>
       <c r="EW53" s="0" t="n">
         <f aca="false">IF(DR53&gt;($GD$1+0.001), DR53, 0)</f>
@@ -27369,7 +27371,7 @@
       </c>
       <c r="FO53" s="0" t="n">
         <f aca="false">IF(EJ53=0, 0, CA53)</f>
-        <v>4.32672401658857</v>
+        <v>0</v>
       </c>
       <c r="FP53" s="0" t="n">
         <f aca="false">IF(EK53=0, 0, CB53)</f>
@@ -27385,7 +27387,7 @@
       </c>
       <c r="FS53" s="0" t="n">
         <f aca="false">IF(EN53=0, 0, CE53)</f>
-        <v>1.59527565260783</v>
+        <v>0</v>
       </c>
       <c r="FT53" s="0" t="n">
         <f aca="false">IF(EO53=0, 0, CF53)</f>
@@ -27401,11 +27403,11 @@
       </c>
       <c r="FW53" s="0" t="n">
         <f aca="false">IF(ER53=0, 0, CI53)</f>
-        <v>6.29147519487202</v>
+        <v>0</v>
       </c>
       <c r="FX53" s="0" t="n">
         <f aca="false">IF(ES53=0, 0, CJ53)</f>
-        <v>0</v>
+        <v>3.62448795060677</v>
       </c>
       <c r="FY53" s="0" t="n">
         <f aca="false">IF(ET53=0, 0, CK53)</f>
@@ -27439,19 +27441,19 @@
       </c>
       <c r="GL53" s="0" t="n">
         <f aca="false">MAX(FI53:FJ54)</f>
-        <v>3.53108831403603</v>
+        <v>0</v>
       </c>
       <c r="GN53" s="0" t="n">
         <f aca="false">MAX(FK53:FL54)</f>
-        <v>3.10855418959902</v>
+        <v>0</v>
       </c>
       <c r="GP53" s="0" t="n">
         <f aca="false">MAX(FM53:FN54)</f>
-        <v>4.58459786630447</v>
+        <v>4.40556955031971</v>
       </c>
       <c r="GR53" s="0" t="n">
         <f aca="false">MAX(FO53:FP54)</f>
-        <v>4.32672401658857</v>
+        <v>3.89322422851088</v>
       </c>
       <c r="GT53" s="0" t="n">
         <f aca="false">MAX(FQ53:FR54)</f>
@@ -27459,7 +27461,7 @@
       </c>
       <c r="GV53" s="0" t="n">
         <f aca="false">MAX(FS53:FT54)</f>
-        <v>1.59527565260783</v>
+        <v>0</v>
       </c>
       <c r="GX53" s="0" t="n">
         <f aca="false">MAX(FU53:FV54)</f>
@@ -27467,7 +27469,7 @@
       </c>
       <c r="GZ53" s="0" t="n">
         <f aca="false">MAX(FW53:FX54)</f>
-        <v>6.29147519487202</v>
+        <v>3.62448795060677</v>
       </c>
       <c r="HB53" s="0" t="n">
         <f aca="false">MAX(FY53:FZ54)</f>
@@ -27733,103 +27735,103 @@
       <c r="CT54" s="5"/>
       <c r="CU54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.317689713083605</v>
+        <v>0.0957730493815327</v>
       </c>
       <c r="CV54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.108484427644156</v>
+        <v>0.421785270804203</v>
       </c>
       <c r="CW54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.419909066941942</v>
+        <v>0.138435835931419</v>
       </c>
       <c r="CX54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.262814274789039</v>
+        <v>0.212164442348744</v>
       </c>
       <c r="CY54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0192378669915981</v>
+        <v>0.404103049962055</v>
       </c>
       <c r="CZ54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.967231772828256</v>
+        <v>0.301568417781704</v>
       </c>
       <c r="DA54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.633568502665957</v>
+        <v>0.150470438190823</v>
       </c>
       <c r="DB54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.995051618146917</v>
+        <v>0.446034576383158</v>
       </c>
       <c r="DC54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.98456727247455</v>
+        <v>0.453578803621318</v>
       </c>
       <c r="DD54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.414289902242415</v>
+        <v>0.979679536109726</v>
       </c>
       <c r="DE54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.159280798833289</v>
+        <v>0.977349977237655</v>
       </c>
       <c r="DF54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.65134593436344</v>
+        <v>0.157674761778909</v>
       </c>
       <c r="DG54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.468584168715335</v>
+        <v>0.554176741090049</v>
       </c>
       <c r="DH54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.751317201221346</v>
+        <v>0.355120975687655</v>
       </c>
       <c r="DI54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.550646793986171</v>
+        <v>0.575113648977842</v>
       </c>
       <c r="DJ54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.939458901372526</v>
+        <v>0.667678606906783</v>
       </c>
       <c r="DK54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0383454725907721</v>
+        <v>0.368624897884265</v>
       </c>
       <c r="DL54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.809110871293397</v>
+        <v>0.386222459379766</v>
       </c>
       <c r="DM54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.410558910582615</v>
+        <v>0.208651138585638</v>
       </c>
       <c r="DN54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.214793176630522</v>
+        <v>0.356074998136234</v>
       </c>
       <c r="DO54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.72980514420626</v>
+        <v>0.02526608939645</v>
       </c>
       <c r="DP54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.315175957437081</v>
+        <v>0.767849483614288</v>
       </c>
       <c r="DQ54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.259569618299502</v>
+        <v>0.740418524679548</v>
       </c>
       <c r="DR54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.573629106663167</v>
+        <v>0.389589045959524</v>
       </c>
       <c r="DS54" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0818137407987531</v>
+        <v>0.373913901118795</v>
       </c>
       <c r="DT54" s="5"/>
       <c r="DU54" s="5"/>
@@ -27857,7 +27859,7 @@
       </c>
       <c r="EE54" s="0" t="n">
         <f aca="false">IF(CZ54&gt;($GD$1+0.001), CZ54, 0)</f>
-        <v>0.967231772828256</v>
+        <v>0</v>
       </c>
       <c r="EF54" s="0" t="n">
         <f aca="false">IF(DA54&gt;($GD$1+0.001), DA54, 0)</f>
@@ -27865,19 +27867,19 @@
       </c>
       <c r="EG54" s="0" t="n">
         <f aca="false">IF(DB54&gt;($GD$1+0.001), DB54, 0)</f>
-        <v>0.995051618146917</v>
+        <v>0</v>
       </c>
       <c r="EH54" s="0" t="n">
         <f aca="false">IF(DC54&gt;($GD$1+0.001), DC54, 0)</f>
-        <v>0.98456727247455</v>
+        <v>0</v>
       </c>
       <c r="EI54" s="0" t="n">
         <f aca="false">IF(DD54&gt;($GD$1+0.001), DD54, 0)</f>
-        <v>0</v>
+        <v>0.979679536109726</v>
       </c>
       <c r="EJ54" s="0" t="n">
         <f aca="false">IF(DE54&gt;($GD$1+0.001), DE54, 0)</f>
-        <v>0</v>
+        <v>0.977349977237655</v>
       </c>
       <c r="EK54" s="0" t="n">
         <f aca="false">IF(DF54&gt;($GD$1+0.001), DF54, 0)</f>
@@ -27897,7 +27899,7 @@
       </c>
       <c r="EO54" s="0" t="n">
         <f aca="false">IF(DJ54&gt;($GD$1+0.001), DJ54, 0)</f>
-        <v>0.939458901372526</v>
+        <v>0</v>
       </c>
       <c r="EP54" s="0" t="n">
         <f aca="false">IF(DK54&gt;($GD$1+0.001), DK54, 0)</f>
@@ -27961,7 +27963,7 @@
       </c>
       <c r="FJ54" s="0" t="n">
         <f aca="false">IF(EE54=0, 0, BV54)</f>
-        <v>3.53108831403603</v>
+        <v>0</v>
       </c>
       <c r="FK54" s="0" t="n">
         <f aca="false">IF(EF54=0, 0, BW54)</f>
@@ -27969,19 +27971,19 @@
       </c>
       <c r="FL54" s="0" t="n">
         <f aca="false">IF(EG54=0, 0, BX54)</f>
-        <v>3.10855418959902</v>
+        <v>0</v>
       </c>
       <c r="FM54" s="0" t="n">
         <f aca="false">IF(EH54=0, 0, BY54)</f>
-        <v>4.58459786630447</v>
+        <v>0</v>
       </c>
       <c r="FN54" s="0" t="n">
         <f aca="false">IF(EI54=0, 0, BZ54)</f>
-        <v>0</v>
+        <v>4.40556955031971</v>
       </c>
       <c r="FO54" s="0" t="n">
         <f aca="false">IF(EJ54=0, 0, CA54)</f>
-        <v>0</v>
+        <v>3.89322422851088</v>
       </c>
       <c r="FP54" s="0" t="n">
         <f aca="false">IF(EK54=0, 0, CB54)</f>
@@ -28001,7 +28003,7 @@
       </c>
       <c r="FT54" s="0" t="n">
         <f aca="false">IF(EO54=0, 0, CF54)</f>
-        <v>0.403548885065238</v>
+        <v>0</v>
       </c>
       <c r="FU54" s="0" t="n">
         <f aca="false">IF(EP54=0, 0, CG54)</f>
@@ -28257,103 +28259,103 @@
       <c r="CT55" s="5"/>
       <c r="CU55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.696015793768038</v>
+        <v>0.214690675685097</v>
       </c>
       <c r="CV55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.958785202985227</v>
+        <v>0.319281403366484</v>
       </c>
       <c r="CW55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.561611339489686</v>
+        <v>0.954504123499393</v>
       </c>
       <c r="CX55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0808576393115295</v>
+        <v>0.0961305973789299</v>
       </c>
       <c r="CY55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.650965217285983</v>
+        <v>0.0339294579754526</v>
       </c>
       <c r="CZ55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.580740875812626</v>
+        <v>0.891750969387596</v>
       </c>
       <c r="DA55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.144294797361106</v>
+        <v>0.657173558915164</v>
       </c>
       <c r="DB55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.778288805810755</v>
+        <v>0.663553882640852</v>
       </c>
       <c r="DC55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.206983071245892</v>
+        <v>0.353824414026663</v>
       </c>
       <c r="DD55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.697994411171504</v>
+        <v>0.549474409908396</v>
       </c>
       <c r="DE55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.983721820104636</v>
+        <v>0.240624068730037</v>
       </c>
       <c r="DF55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0703413933738915</v>
+        <v>0.890842180970147</v>
       </c>
       <c r="DG55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.330244540795357</v>
+        <v>0.138211073201579</v>
       </c>
       <c r="DH55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.938562190827059</v>
+        <v>0.195471963097297</v>
       </c>
       <c r="DI55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.356883112573631</v>
+        <v>0.848989622961379</v>
       </c>
       <c r="DJ55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0445838207351165</v>
+        <v>0.132176776743587</v>
       </c>
       <c r="DK55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.735546057921094</v>
+        <v>0.713632752389456</v>
       </c>
       <c r="DL55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.438373403479342</v>
+        <v>0.432474330660755</v>
       </c>
       <c r="DM55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.308667164314172</v>
+        <v>0.215129730695229</v>
       </c>
       <c r="DN55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.733018417225773</v>
+        <v>0.335970321162862</v>
       </c>
       <c r="DO55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.771451682685429</v>
+        <v>0.731642876932409</v>
       </c>
       <c r="DP55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0946492906670053</v>
+        <v>0.973538168374342</v>
       </c>
       <c r="DQ55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.422321891265188</v>
+        <v>0.388437395700444</v>
       </c>
       <c r="DR55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.348743685804154</v>
+        <v>0.960950653559421</v>
       </c>
       <c r="DS55" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.645630171198568</v>
+        <v>0.20997632421315</v>
       </c>
       <c r="DT55" s="5"/>
       <c r="DU55" s="5"/>
@@ -28365,11 +28367,11 @@
       </c>
       <c r="EA55" s="0" t="n">
         <f aca="false">IF(CV55&gt;($GD$1+0.001), CV55, 0)</f>
-        <v>0.958785202985227</v>
+        <v>0</v>
       </c>
       <c r="EB55" s="0" t="n">
         <f aca="false">IF(CW55&gt;($GD$1+0.001), CW55, 0)</f>
-        <v>0</v>
+        <v>0.954504123499393</v>
       </c>
       <c r="EC55" s="0" t="n">
         <f aca="false">IF(CX55&gt;($GD$1+0.001), CX55, 0)</f>
@@ -28401,7 +28403,7 @@
       </c>
       <c r="EJ55" s="0" t="n">
         <f aca="false">IF(DE55&gt;($GD$1+0.001), DE55, 0)</f>
-        <v>0.983721820104636</v>
+        <v>0</v>
       </c>
       <c r="EK55" s="0" t="n">
         <f aca="false">IF(DF55&gt;($GD$1+0.001), DF55, 0)</f>
@@ -28413,7 +28415,7 @@
       </c>
       <c r="EM55" s="0" t="n">
         <f aca="false">IF(DH55&gt;($GD$1+0.001), DH55, 0)</f>
-        <v>0.938562190827059</v>
+        <v>0</v>
       </c>
       <c r="EN55" s="0" t="n">
         <f aca="false">IF(DI55&gt;($GD$1+0.001), DI55, 0)</f>
@@ -28445,7 +28447,7 @@
       </c>
       <c r="EU55" s="0" t="n">
         <f aca="false">IF(DP55&gt;($GD$1+0.001), DP55, 0)</f>
-        <v>0</v>
+        <v>0.973538168374342</v>
       </c>
       <c r="EV55" s="0" t="n">
         <f aca="false">IF(DQ55&gt;($GD$1+0.001), DQ55, 0)</f>
@@ -28453,7 +28455,7 @@
       </c>
       <c r="EW55" s="0" t="n">
         <f aca="false">IF(DR55&gt;($GD$1+0.001), DR55, 0)</f>
-        <v>0</v>
+        <v>0.960950653559421</v>
       </c>
       <c r="EX55" s="0" t="n">
         <f aca="false">IF(DS55&gt;($GD$1+0.001), DS55, 0)</f>
@@ -28473,7 +28475,7 @@
       </c>
       <c r="FG55" s="0" t="n">
         <f aca="false">IF(EB55=0, 0, BS55)</f>
-        <v>0</v>
+        <v>0.159926562274002</v>
       </c>
       <c r="FH55" s="0" t="n">
         <f aca="false">IF(EC55=0, 0, BT55)</f>
@@ -28505,7 +28507,7 @@
       </c>
       <c r="FO55" s="0" t="n">
         <f aca="false">IF(EJ55=0, 0, CA55)</f>
-        <v>1.20234311815172</v>
+        <v>0</v>
       </c>
       <c r="FP55" s="0" t="n">
         <f aca="false">IF(EK55=0, 0, CB55)</f>
@@ -28517,7 +28519,7 @@
       </c>
       <c r="FR55" s="0" t="n">
         <f aca="false">IF(EM55=0, 0, CD55)</f>
-        <v>0.0986342758229014</v>
+        <v>0</v>
       </c>
       <c r="FS55" s="0" t="n">
         <f aca="false">IF(EN55=0, 0, CE55)</f>
@@ -28549,7 +28551,7 @@
       </c>
       <c r="FZ55" s="0" t="n">
         <f aca="false">IF(EU55=0, 0, CL55)</f>
-        <v>0</v>
+        <v>0.130451780252869</v>
       </c>
       <c r="GA55" s="0" t="n">
         <f aca="false">IF(EV55=0, 0, CM55)</f>
@@ -28571,7 +28573,7 @@
       </c>
       <c r="GJ55" s="0" t="n">
         <f aca="false">MAX(FG55:FH56)</f>
-        <v>0</v>
+        <v>0.159926562274002</v>
       </c>
       <c r="GL55" s="0" t="n">
         <f aca="false">MAX(FI55:FJ56)</f>
@@ -28583,19 +28585,19 @@
       </c>
       <c r="GP55" s="0" t="n">
         <f aca="false">MAX(FM55:FN56)</f>
-        <v>0.197268551645804</v>
+        <v>0</v>
       </c>
       <c r="GR55" s="0" t="n">
         <f aca="false">MAX(FO55:FP56)</f>
-        <v>1.20234311815172</v>
+        <v>0</v>
       </c>
       <c r="GT55" s="0" t="n">
         <f aca="false">MAX(FQ55:FR56)</f>
-        <v>0.0986342758229014</v>
+        <v>0</v>
       </c>
       <c r="GV55" s="0" t="n">
         <f aca="false">MAX(FS55:FT56)</f>
-        <v>0</v>
+        <v>0.822232308758152</v>
       </c>
       <c r="GX55" s="0" t="n">
         <f aca="false">MAX(FU55:FV56)</f>
@@ -28607,7 +28609,7 @@
       </c>
       <c r="HB55" s="0" t="n">
         <f aca="false">MAX(FY55:FZ56)</f>
-        <v>0</v>
+        <v>0.130451780252869</v>
       </c>
       <c r="HD55" s="0" t="n">
         <f aca="false">MAX(GA55:GB56)</f>
@@ -28862,103 +28864,103 @@
       <c r="CT56" s="5"/>
       <c r="CU56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.737691057845305</v>
+        <v>0.232679683272616</v>
       </c>
       <c r="CV56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.29394504761125</v>
+        <v>0.835782637804013</v>
       </c>
       <c r="CW56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.37189443955411</v>
+        <v>0.101384279445966</v>
       </c>
       <c r="CX56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.468947471326956</v>
+        <v>0.711137836620291</v>
       </c>
       <c r="CY56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.280904958218342</v>
+        <v>0.545758875670245</v>
       </c>
       <c r="CZ56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.445845082113732</v>
+        <v>0.359638943748582</v>
       </c>
       <c r="DA56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.751847594580334</v>
+        <v>0.0139786680175087</v>
       </c>
       <c r="DB56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.497005314204422</v>
+        <v>0.216289535427621</v>
       </c>
       <c r="DC56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.71004161382624</v>
+        <v>0.455867246885479</v>
       </c>
       <c r="DD56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.927781262156769</v>
+        <v>0.427503997277721</v>
       </c>
       <c r="DE56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.528685811000476</v>
+        <v>0.54143938096239</v>
       </c>
       <c r="DF56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.773433578652555</v>
+        <v>0.292888001661848</v>
       </c>
       <c r="DG56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.653333992094082</v>
+        <v>0.415487510739858</v>
       </c>
       <c r="DH56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.111191017492531</v>
+        <v>0.268930802813454</v>
       </c>
       <c r="DI56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0241572267869561</v>
+        <v>0.809278880258879</v>
       </c>
       <c r="DJ56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.336267198942889</v>
+        <v>0.992371814954689</v>
       </c>
       <c r="DK56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.406524155789408</v>
+        <v>0.996656379573928</v>
       </c>
       <c r="DL56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.697802593208806</v>
+        <v>0.765411600461588</v>
       </c>
       <c r="DM56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.02742637303965</v>
+        <v>0.442737816335713</v>
       </c>
       <c r="DN56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0469183654547609</v>
+        <v>0.473639649022396</v>
       </c>
       <c r="DO56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.900538059507195</v>
+        <v>0.29693442648422</v>
       </c>
       <c r="DP56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.351559319666714</v>
+        <v>0.552890096617182</v>
       </c>
       <c r="DQ56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.349770213129176</v>
+        <v>0.0111549986472087</v>
       </c>
       <c r="DR56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.938704715545699</v>
+        <v>0.961434844410237</v>
       </c>
       <c r="DS56" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.443550553676713</v>
+        <v>0.23400283106568</v>
       </c>
       <c r="DT56" s="5"/>
       <c r="DU56" s="5"/>
@@ -29002,7 +29004,7 @@
       </c>
       <c r="EI56" s="0" t="n">
         <f aca="false">IF(DD56&gt;($GD$1+0.001), DD56, 0)</f>
-        <v>0.927781262156769</v>
+        <v>0</v>
       </c>
       <c r="EJ56" s="0" t="n">
         <f aca="false">IF(DE56&gt;($GD$1+0.001), DE56, 0)</f>
@@ -29026,11 +29028,11 @@
       </c>
       <c r="EO56" s="0" t="n">
         <f aca="false">IF(DJ56&gt;($GD$1+0.001), DJ56, 0)</f>
-        <v>0</v>
+        <v>0.992371814954689</v>
       </c>
       <c r="EP56" s="0" t="n">
         <f aca="false">IF(DK56&gt;($GD$1+0.001), DK56, 0)</f>
-        <v>0</v>
+        <v>0.996656379573928</v>
       </c>
       <c r="EQ56" s="0" t="n">
         <f aca="false">IF(DL56&gt;($GD$1+0.001), DL56, 0)</f>
@@ -29058,7 +29060,7 @@
       </c>
       <c r="EW56" s="0" t="n">
         <f aca="false">IF(DR56&gt;($GD$1+0.001), DR56, 0)</f>
-        <v>0.938704715545699</v>
+        <v>0.961434844410237</v>
       </c>
       <c r="EX56" s="0" t="n">
         <f aca="false">IF(DS56&gt;($GD$1+0.001), DS56, 0)</f>
@@ -29106,7 +29108,7 @@
       </c>
       <c r="FN56" s="0" t="n">
         <f aca="false">IF(EI56=0, 0, BZ56)</f>
-        <v>0.197268551645804</v>
+        <v>0</v>
       </c>
       <c r="FO56" s="0" t="n">
         <f aca="false">IF(EJ56=0, 0, CA56)</f>
@@ -29130,7 +29132,7 @@
       </c>
       <c r="FT56" s="0" t="n">
         <f aca="false">IF(EO56=0, 0, CF56)</f>
-        <v>0</v>
+        <v>0.822232308758152</v>
       </c>
       <c r="FU56" s="0" t="n">
         <f aca="false">IF(EP56=0, 0, CG56)</f>
@@ -29386,103 +29388,103 @@
       <c r="CT57" s="5"/>
       <c r="CU57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0120890169199718</v>
+        <v>0.676875330705852</v>
       </c>
       <c r="CV57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.748140648471464</v>
+        <v>0.859214229038862</v>
       </c>
       <c r="CW57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.558042201857127</v>
+        <v>0.822008536593869</v>
       </c>
       <c r="CX57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.909957074295656</v>
+        <v>0.905920598230834</v>
       </c>
       <c r="CY57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0400983274789229</v>
+        <v>0.228007991455538</v>
       </c>
       <c r="CZ57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.551963963460576</v>
+        <v>0.39323222979051</v>
       </c>
       <c r="DA57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.317281201298123</v>
+        <v>0.595692064489962</v>
       </c>
       <c r="DB57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.139194291973823</v>
+        <v>0.942599139174955</v>
       </c>
       <c r="DC57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.917452311779613</v>
+        <v>0.32941499584812</v>
       </c>
       <c r="DD57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.208950150766954</v>
+        <v>0.705925712442636</v>
       </c>
       <c r="DE57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.250568767793031</v>
+        <v>0.0619573841138832</v>
       </c>
       <c r="DF57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.250928968166487</v>
+        <v>0.569906705433026</v>
       </c>
       <c r="DG57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0802030586719299</v>
+        <v>0.340076905764732</v>
       </c>
       <c r="DH57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.463756713554002</v>
+        <v>0.732059651956116</v>
       </c>
       <c r="DI57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.362257579666511</v>
+        <v>0.370128399578619</v>
       </c>
       <c r="DJ57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.113946709251074</v>
+        <v>0.563485458797707</v>
       </c>
       <c r="DK57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.81908999665433</v>
+        <v>0.945727418474713</v>
       </c>
       <c r="DL57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.79976499578088</v>
+        <v>0.661129483731165</v>
       </c>
       <c r="DM57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0847897558149292</v>
+        <v>0.425850598155963</v>
       </c>
       <c r="DN57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.222389979250515</v>
+        <v>0.746640186552852</v>
       </c>
       <c r="DO57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.726058847178878</v>
+        <v>0.0147246084333437</v>
       </c>
       <c r="DP57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.522318359214621</v>
+        <v>0.233993645149705</v>
       </c>
       <c r="DQ57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.17290836070551</v>
+        <v>0.389816311175493</v>
       </c>
       <c r="DR57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.320879327429399</v>
+        <v>0.887372822664893</v>
       </c>
       <c r="DS57" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.275791320657164</v>
+        <v>0.572444598846479</v>
       </c>
       <c r="DT57" s="5"/>
       <c r="DU57" s="5"/>
@@ -29502,7 +29504,7 @@
       </c>
       <c r="EC57" s="0" t="n">
         <f aca="false">IF(CX57&gt;($GD$1+0.001), CX57, 0)</f>
-        <v>0.909957074295656</v>
+        <v>0.905920598230834</v>
       </c>
       <c r="ED57" s="0" t="n">
         <f aca="false">IF(CY57&gt;($GD$1+0.001), CY57, 0)</f>
@@ -29518,11 +29520,11 @@
       </c>
       <c r="EG57" s="0" t="n">
         <f aca="false">IF(DB57&gt;($GD$1+0.001), DB57, 0)</f>
-        <v>0</v>
+        <v>0.942599139174955</v>
       </c>
       <c r="EH57" s="0" t="n">
         <f aca="false">IF(DC57&gt;($GD$1+0.001), DC57, 0)</f>
-        <v>0.917452311779613</v>
+        <v>0</v>
       </c>
       <c r="EI57" s="0" t="n">
         <f aca="false">IF(DD57&gt;($GD$1+0.001), DD57, 0)</f>
@@ -29554,7 +29556,7 @@
       </c>
       <c r="EP57" s="0" t="n">
         <f aca="false">IF(DK57&gt;($GD$1+0.001), DK57, 0)</f>
-        <v>0</v>
+        <v>0.945727418474713</v>
       </c>
       <c r="EQ57" s="0" t="n">
         <f aca="false">IF(DL57&gt;($GD$1+0.001), DL57, 0)</f>
@@ -29622,7 +29624,7 @@
       </c>
       <c r="FL57" s="0" t="n">
         <f aca="false">IF(EG57=0, 0, BX57)</f>
-        <v>0</v>
+        <v>0.00838680641960723</v>
       </c>
       <c r="FM57" s="0" t="n">
         <f aca="false">IF(EH57=0, 0, BY57)</f>
@@ -29658,7 +29660,7 @@
       </c>
       <c r="FU57" s="0" t="n">
         <f aca="false">IF(EP57=0, 0, CG57)</f>
-        <v>0</v>
+        <v>7.13430087565034</v>
       </c>
       <c r="FV57" s="0" t="n">
         <f aca="false">IF(EQ57=0, 0, CH57)</f>
@@ -29708,7 +29710,7 @@
       </c>
       <c r="GN57" s="0" t="n">
         <f aca="false">MAX(FK57:FL58)</f>
-        <v>0</v>
+        <v>0.00838680641960723</v>
       </c>
       <c r="GP57" s="0" t="n">
         <f aca="false">MAX(FM57:FN58)</f>
@@ -29728,7 +29730,7 @@
       </c>
       <c r="GX57" s="0" t="n">
         <f aca="false">MAX(FU57:FV58)</f>
-        <v>6.91895485994269</v>
+        <v>7.13430087565034</v>
       </c>
       <c r="GZ57" s="0" t="n">
         <f aca="false">MAX(FW57:FX58)</f>
@@ -30001,103 +30003,103 @@
       <c r="CT58" s="5"/>
       <c r="CU58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.355682335387892</v>
+        <v>0.45211013282152</v>
       </c>
       <c r="CV58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.221921062496235</v>
+        <v>0.916492875041805</v>
       </c>
       <c r="CW58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.21398127362147</v>
+        <v>0.343308633308242</v>
       </c>
       <c r="CX58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.508080923151251</v>
+        <v>0.254331196169012</v>
       </c>
       <c r="CY58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.517292721629882</v>
+        <v>0.758917359642639</v>
       </c>
       <c r="CZ58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.237570200134374</v>
+        <v>0.21169615441613</v>
       </c>
       <c r="DA58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0598615643968901</v>
+        <v>0.778516088629077</v>
       </c>
       <c r="DB58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.41426093923442</v>
+        <v>0.91521088502064</v>
       </c>
       <c r="DC58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.896919379204197</v>
+        <v>0.302979840137397</v>
       </c>
       <c r="DD58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0761391133436355</v>
+        <v>0.599645298326018</v>
       </c>
       <c r="DE58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.478261044252096</v>
+        <v>0.648097862299404</v>
       </c>
       <c r="DF58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.025226969970079</v>
+        <v>0.295298585078647</v>
       </c>
       <c r="DG58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.597308898670216</v>
+        <v>0.149466808741687</v>
       </c>
       <c r="DH58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.265298041693652</v>
+        <v>0.514189313323963</v>
       </c>
       <c r="DI58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.261423843468972</v>
+        <v>0.877721231374483</v>
       </c>
       <c r="DJ58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.224071035391661</v>
+        <v>0.557662811752608</v>
       </c>
       <c r="DK58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.908452669215935</v>
+        <v>0.575201369835882</v>
       </c>
       <c r="DL58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.691737832012599</v>
+        <v>0.366947270920546</v>
       </c>
       <c r="DM58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.746171951766705</v>
+        <v>0.117640603781433</v>
       </c>
       <c r="DN58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.155160387317592</v>
+        <v>0.0713972859484297</v>
       </c>
       <c r="DO58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.741993285544936</v>
+        <v>0.529439454844858</v>
       </c>
       <c r="DP58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.185208201363607</v>
+        <v>0.794871742654032</v>
       </c>
       <c r="DQ58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0987575514751278</v>
+        <v>0.194549707790557</v>
       </c>
       <c r="DR58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.397003687533824</v>
+        <v>0.347778281299618</v>
       </c>
       <c r="DS58" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.936976739637929</v>
+        <v>0.887154028679127</v>
       </c>
       <c r="DT58" s="5"/>
       <c r="DU58" s="5"/>
@@ -30109,7 +30111,7 @@
       </c>
       <c r="EA58" s="0" t="n">
         <f aca="false">IF(CV58&gt;($GD$1+0.001), CV58, 0)</f>
-        <v>0</v>
+        <v>0.916492875041805</v>
       </c>
       <c r="EB58" s="0" t="n">
         <f aca="false">IF(CW58&gt;($GD$1+0.001), CW58, 0)</f>
@@ -30133,7 +30135,7 @@
       </c>
       <c r="EG58" s="0" t="n">
         <f aca="false">IF(DB58&gt;($GD$1+0.001), DB58, 0)</f>
-        <v>0</v>
+        <v>0.91521088502064</v>
       </c>
       <c r="EH58" s="0" t="n">
         <f aca="false">IF(DC58&gt;($GD$1+0.001), DC58, 0)</f>
@@ -30169,7 +30171,7 @@
       </c>
       <c r="EP58" s="0" t="n">
         <f aca="false">IF(DK58&gt;($GD$1+0.001), DK58, 0)</f>
-        <v>0.908452669215935</v>
+        <v>0</v>
       </c>
       <c r="EQ58" s="0" t="n">
         <f aca="false">IF(DL58&gt;($GD$1+0.001), DL58, 0)</f>
@@ -30201,7 +30203,7 @@
       </c>
       <c r="EX58" s="0" t="n">
         <f aca="false">IF(DS58&gt;($GD$1+0.001), DS58, 0)</f>
-        <v>0.936976739637929</v>
+        <v>0</v>
       </c>
       <c r="EY58" s="5"/>
       <c r="EZ58" s="5"/>
@@ -30273,7 +30275,7 @@
       </c>
       <c r="FU58" s="0" t="n">
         <f aca="false">IF(EP58=0, 0, CG58)</f>
-        <v>6.91895485994269</v>
+        <v>0</v>
       </c>
       <c r="FV58" s="0" t="n">
         <f aca="false">IF(EQ58=0, 0, CH58)</f>
@@ -30525,103 +30527,103 @@
       <c r="CT59" s="5"/>
       <c r="CU59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.735554323854756</v>
+        <v>0.814696812821372</v>
       </c>
       <c r="CV59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.86563252739348</v>
+        <v>0.592515259284075</v>
       </c>
       <c r="CW59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.900414841595826</v>
+        <v>0.796306033451952</v>
       </c>
       <c r="CX59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.363159964297525</v>
+        <v>0.60191253806315</v>
       </c>
       <c r="CY59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0684105739909073</v>
+        <v>0.793495902028223</v>
       </c>
       <c r="CZ59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.435733676020135</v>
+        <v>0.652140435287183</v>
       </c>
       <c r="DA59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.680292585144179</v>
+        <v>0.959380421782588</v>
       </c>
       <c r="DB59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.505165630545989</v>
+        <v>0.958199646197613</v>
       </c>
       <c r="DC59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.229204922760978</v>
+        <v>0.624851889533088</v>
       </c>
       <c r="DD59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.921909439583517</v>
+        <v>0.526146474377808</v>
       </c>
       <c r="DE59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0205402464164536</v>
+        <v>0.146009319146317</v>
       </c>
       <c r="DF59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.444679977267937</v>
+        <v>0.719487921279994</v>
       </c>
       <c r="DG59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.533927167019162</v>
+        <v>0.746750633973086</v>
       </c>
       <c r="DH59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.126943076281934</v>
+        <v>0.160090588313175</v>
       </c>
       <c r="DI59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.13016505483606</v>
+        <v>0.764466720865859</v>
       </c>
       <c r="DJ59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.598074396416788</v>
+        <v>0.787980977943114</v>
       </c>
       <c r="DK59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.188550528058452</v>
+        <v>0.21756409441703</v>
       </c>
       <c r="DL59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0106394992755363</v>
+        <v>0.147759828489773</v>
       </c>
       <c r="DM59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.732518472226835</v>
+        <v>0.852240339192052</v>
       </c>
       <c r="DN59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.22711371987602</v>
+        <v>0.32627636867963</v>
       </c>
       <c r="DO59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.875286304718523</v>
+        <v>0.16953259242872</v>
       </c>
       <c r="DP59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.521491373576529</v>
+        <v>0.447121967566955</v>
       </c>
       <c r="DQ59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.101316599745326</v>
+        <v>0.103833679913589</v>
       </c>
       <c r="DR59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.318902997480742</v>
+        <v>0.631658878433425</v>
       </c>
       <c r="DS59" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.273553429098396</v>
+        <v>0.778297471041442</v>
       </c>
       <c r="DT59" s="5"/>
       <c r="DU59" s="5"/>
@@ -30653,11 +30655,11 @@
       </c>
       <c r="EF59" s="0" t="n">
         <f aca="false">IF(DA59&gt;($GD$1+0.001), DA59, 0)</f>
-        <v>0</v>
+        <v>0.959380421782588</v>
       </c>
       <c r="EG59" s="0" t="n">
         <f aca="false">IF(DB59&gt;($GD$1+0.001), DB59, 0)</f>
-        <v>0</v>
+        <v>0.958199646197613</v>
       </c>
       <c r="EH59" s="0" t="n">
         <f aca="false">IF(DC59&gt;($GD$1+0.001), DC59, 0)</f>
@@ -30665,7 +30667,7 @@
       </c>
       <c r="EI59" s="0" t="n">
         <f aca="false">IF(DD59&gt;($GD$1+0.001), DD59, 0)</f>
-        <v>0.921909439583517</v>
+        <v>0</v>
       </c>
       <c r="EJ59" s="0" t="n">
         <f aca="false">IF(DE59&gt;($GD$1+0.001), DE59, 0)</f>
@@ -30855,7 +30857,7 @@
       </c>
       <c r="GR59" s="0" t="n">
         <f aca="false">MAX(FO59:FP60)</f>
-        <v>0.533645305526931</v>
+        <v>0</v>
       </c>
       <c r="GT59" s="0" t="n">
         <f aca="false">MAX(FQ59:FR60)</f>
@@ -30863,7 +30865,7 @@
       </c>
       <c r="GV59" s="0" t="n">
         <f aca="false">MAX(FS59:FT60)</f>
-        <v>5.21407602050903</v>
+        <v>0</v>
       </c>
       <c r="GX59" s="0" t="n">
         <f aca="false">MAX(FU59:FV60)</f>
@@ -30871,7 +30873,7 @@
       </c>
       <c r="GZ59" s="0" t="n">
         <f aca="false">MAX(FW59:FX60)</f>
-        <v>0</v>
+        <v>0.18135979943082</v>
       </c>
       <c r="HB59" s="0" t="n">
         <f aca="false">MAX(FY59:FZ60)</f>
@@ -31140,103 +31142,103 @@
       <c r="CT60" s="5"/>
       <c r="CU60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0845868888422868</v>
+        <v>0.459332281515887</v>
       </c>
       <c r="CV60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.502013137924913</v>
+        <v>0.403584198631823</v>
       </c>
       <c r="CW60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.664449804099703</v>
+        <v>0.647386591601851</v>
       </c>
       <c r="CX60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.405046291999128</v>
+        <v>0.436857824385027</v>
       </c>
       <c r="CY60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.333797536416899</v>
+        <v>0.732136976548098</v>
       </c>
       <c r="CZ60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.423705775833946</v>
+        <v>0.16136888695829</v>
       </c>
       <c r="DA60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.40707005451814</v>
+        <v>0.898982396471563</v>
       </c>
       <c r="DB60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.635663690760199</v>
+        <v>0.965442141644283</v>
       </c>
       <c r="DC60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.725437479123908</v>
+        <v>0.398711375943984</v>
       </c>
       <c r="DD60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0411502204409768</v>
+        <v>0.251857040846386</v>
       </c>
       <c r="DE60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.00203892975085889</v>
+        <v>0.723037900442911</v>
       </c>
       <c r="DF60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.969956626652301</v>
+        <v>0.817777597399932</v>
       </c>
       <c r="DG60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.57899494014995</v>
+        <v>0.463229784929735</v>
       </c>
       <c r="DH60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.0564201227065445</v>
+        <v>0.0290406684380373</v>
       </c>
       <c r="DI60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.96595251790979</v>
+        <v>0.854342434414508</v>
       </c>
       <c r="DJ60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129422382908087</v>
+        <v>0.409797209087865</v>
       </c>
       <c r="DK60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.730478498437066</v>
+        <v>0.504728702716606</v>
       </c>
       <c r="DL60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.731966216838396</v>
+        <v>0.113123070887677</v>
       </c>
       <c r="DM60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.129539079755062</v>
+        <v>0.832373293127957</v>
       </c>
       <c r="DN60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.354551901881619</v>
+        <v>0.943123986972277</v>
       </c>
       <c r="DO60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.801784087298594</v>
+        <v>0.388974832598249</v>
       </c>
       <c r="DP60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.304356346560535</v>
+        <v>0.121311480994387</v>
       </c>
       <c r="DQ60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.30272251543091</v>
+        <v>0.960037743668491</v>
       </c>
       <c r="DR60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.746072792501335</v>
+        <v>0.442943661276542</v>
       </c>
       <c r="DS60" s="0" t="n">
         <f aca="true">RAND()</f>
-        <v>0.478925486736009</v>
+        <v>0.32353417720925</v>
       </c>
       <c r="DT60" s="5"/>
       <c r="DU60" s="5"/>
@@ -31272,7 +31274,7 @@
       </c>
       <c r="EG60" s="0" t="n">
         <f aca="false">IF(DB60&gt;($GD$1+0.001), DB60, 0)</f>
-        <v>0</v>
+        <v>0.965442141644283</v>
       </c>
       <c r="EH60" s="0" t="n">
         <f aca="false">IF(DC60&gt;($GD$1+0.001), DC60, 0)</f>
@@ -31288,7 +31290,7 @@
       </c>
       <c r="EK60" s="0" t="n">
         <f aca="false">IF(DF60&gt;($GD$1+0.001), DF60, 0)</f>
-        <v>0.969956626652301</v>
+        <v>0</v>
       </c>
       <c r="EL60" s="0" t="n">
         <f aca="false">IF(DG60&gt;($GD$1+0.001), DG60, 0)</f>
@@ -31300,7 +31302,7 @@
       </c>
       <c r="EN60" s="0" t="n">
         <f aca="false">IF(DI60&gt;($GD$1+0.001), DI60, 0)</f>
-        <v>0.96595251790979</v>
+        <v>0</v>
       </c>
       <c r="EO60" s="0" t="n">
         <f aca="false">IF(DJ60&gt;($GD$1+0.001), DJ60, 0)</f>
@@ -31320,7 +31322,7 @@
       </c>
       <c r="ES60" s="0" t="n">
         <f aca="false">IF(DN60&gt;($GD$1+0.001), DN60, 0)</f>
-        <v>0</v>
+        <v>0.943123986972277</v>
       </c>
       <c r="ET60" s="0" t="n">
         <f aca="false">IF(DO60&gt;($GD$1+0.001), DO60, 0)</f>
@@ -31332,7 +31334,7 @@
       </c>
       <c r="EV60" s="0" t="n">
         <f aca="false">IF(DQ60&gt;($GD$1+0.001), DQ60, 0)</f>
-        <v>0</v>
+        <v>0.960037743668491</v>
       </c>
       <c r="EW60" s="0" t="n">
         <f aca="false">IF(DR60&gt;($GD$1+0.001), DR60, 0)</f>
@@ -31392,7 +31394,7 @@
       </c>
       <c r="FP60" s="0" t="n">
         <f aca="false">IF(EK60=0, 0, CB60)</f>
-        <v>0.533645305526931</v>
+        <v>0</v>
       </c>
       <c r="FQ60" s="0" t="n">
         <f aca="false">IF(EL60=0, 0, CC60)</f>
@@ -31404,7 +31406,7 @@
       </c>
       <c r="FS60" s="0" t="n">
         <f aca="false">IF(EN60=0, 0, CE60)</f>
-        <v>5.21407602050903</v>
+        <v>0</v>
       </c>
       <c r="FT60" s="0" t="n">
         <f aca="false">IF(EO60=0, 0, CF60)</f>
@@ -31424,7 +31426,7 @@
       </c>
       <c r="FX60" s="0" t="n">
         <f aca="false">IF(ES60=0, 0, CJ60)</f>
-        <v>0</v>
+        <v>0.18135979943082</v>
       </c>
       <c r="FY60" s="0" t="n">
         <f aca="false">IF(ET60=0, 0, CK60)</f>
@@ -31834,7 +31836,7 @@
       </c>
       <c r="FA64" s="0" t="n">
         <f aca="false">COUNTIF(DZ37:EX60,0)</f>
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31843,7 +31845,7 @@
       </c>
       <c r="FA65" s="11" t="n">
         <f aca="false">FA64/FA63</f>
-        <v>0.798816568047337</v>
+        <v>0.810650887573964</v>
       </c>
       <c r="FB65" s="11"/>
     </row>
